--- a/Code/Results/Cases/Case_2_23/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_23/res_line/pl_mw.xlsx
@@ -412,10 +412,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.462088695501393</v>
+        <v>2.46208869550145</v>
       </c>
       <c r="C2">
-        <v>0.7932670275334885</v>
+        <v>0.7932670275336591</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -424,19 +424,19 @@
         <v>0.8750261969524189</v>
       </c>
       <c r="F2">
-        <v>2.035306853188501</v>
+        <v>2.035306853188473</v>
       </c>
       <c r="G2">
-        <v>0.6192536875598549</v>
+        <v>0.6192536875598407</v>
       </c>
       <c r="H2">
-        <v>0.3384686934179797</v>
+        <v>0.338468693418001</v>
       </c>
       <c r="I2">
         <v>0.0958025805552758</v>
       </c>
       <c r="J2">
-        <v>0.7443662582547574</v>
+        <v>0.744366258254729</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -450,28 +450,28 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.130869123829086</v>
+        <v>2.130869123829029</v>
       </c>
       <c r="C3">
-        <v>0.6852818555534554</v>
+        <v>0.6852818555535123</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.7550036076122382</v>
+        <v>0.755003607612224</v>
       </c>
       <c r="F3">
-        <v>1.756345870385317</v>
+        <v>1.756345870385303</v>
       </c>
       <c r="G3">
-        <v>0.5636007694855181</v>
+        <v>0.5636007694855323</v>
       </c>
       <c r="H3">
-        <v>0.3260774554702479</v>
+        <v>0.326077455470255</v>
       </c>
       <c r="I3">
-        <v>0.08700791504777428</v>
+        <v>0.08700791504777783</v>
       </c>
       <c r="J3">
         <v>0.6438786230684315</v>
@@ -488,10 +488,10 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.929253512880052</v>
+        <v>1.929253512879853</v>
       </c>
       <c r="C4">
-        <v>0.6197891770092099</v>
+        <v>0.6197891770089541</v>
       </c>
       <c r="D4">
         <v>0</v>
@@ -500,19 +500,19 @@
         <v>0.6822985698839403</v>
       </c>
       <c r="F4">
-        <v>1.589210237659245</v>
+        <v>1.589210237659259</v>
       </c>
       <c r="G4">
-        <v>0.532139094546288</v>
+        <v>0.5321390945463023</v>
       </c>
       <c r="H4">
-        <v>0.3203303950096341</v>
+        <v>0.3203303950096199</v>
       </c>
       <c r="I4">
-        <v>0.0821183819964908</v>
+        <v>0.08211838199650501</v>
       </c>
       <c r="J4">
-        <v>0.5827697380827743</v>
+        <v>0.5827697380827885</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -526,10 +526,10 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.847451898261795</v>
+        <v>1.847451898261681</v>
       </c>
       <c r="C5">
-        <v>0.5932680201429719</v>
+        <v>0.593268020142574</v>
       </c>
       <c r="D5">
         <v>0</v>
@@ -541,16 +541,16 @@
         <v>1.522010386049601</v>
       </c>
       <c r="G5">
-        <v>0.5199345416537611</v>
+        <v>0.5199345416537895</v>
       </c>
       <c r="H5">
         <v>0.3184174150796153</v>
       </c>
       <c r="I5">
-        <v>0.08024068741142187</v>
+        <v>0.08024068741140766</v>
       </c>
       <c r="J5">
-        <v>0.5579886072366733</v>
+        <v>0.5579886072366875</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -564,16 +564,16 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.833888164162687</v>
+        <v>1.833888164162659</v>
       </c>
       <c r="C6">
-        <v>0.5888733300342608</v>
+        <v>0.5888733300344597</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.6480021380499181</v>
+        <v>0.6480021380499039</v>
       </c>
       <c r="F6">
         <v>1.510903125320297</v>
@@ -582,13 +582,13 @@
         <v>0.5179434128851526</v>
       </c>
       <c r="H6">
-        <v>0.3181245962316694</v>
+        <v>0.3181245962316837</v>
       </c>
       <c r="I6">
         <v>0.07993546188551903</v>
       </c>
       <c r="J6">
-        <v>0.5538802873705677</v>
+        <v>0.5538802873705535</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -602,31 +602,31 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.928148960811569</v>
+        <v>1.928148960811455</v>
       </c>
       <c r="C7">
-        <v>0.6194308701451803</v>
+        <v>0.6194308701452655</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.6819009934649927</v>
+        <v>0.6819009934649785</v>
       </c>
       <c r="F7">
-        <v>1.588300443800293</v>
+        <v>1.588300443800279</v>
       </c>
       <c r="G7">
         <v>0.531972086088139</v>
       </c>
       <c r="H7">
-        <v>0.3203029081452016</v>
+        <v>0.3203029081452193</v>
       </c>
       <c r="I7">
-        <v>0.08209261075082352</v>
+        <v>0.08209261075083063</v>
       </c>
       <c r="J7">
-        <v>0.5824350746212374</v>
+        <v>0.5824350746212517</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -640,31 +640,31 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.347467762367501</v>
+        <v>2.347467762367614</v>
       </c>
       <c r="C8">
-        <v>0.7558426240784684</v>
+        <v>0.755842624078582</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.83340987290633</v>
+        <v>0.8334098729063157</v>
       </c>
       <c r="F8">
-        <v>1.938176116260848</v>
+        <v>1.938176116260863</v>
       </c>
       <c r="G8">
         <v>0.5994613348018092</v>
       </c>
       <c r="H8">
-        <v>0.3337853673402122</v>
+        <v>0.3337853673402265</v>
       </c>
       <c r="I8">
-        <v>0.09265568411863967</v>
+        <v>0.09265568411863256</v>
       </c>
       <c r="J8">
-        <v>0.7095782046281585</v>
+        <v>0.7095782046281514</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -678,10 +678,10 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.187859631685001</v>
+        <v>3.187859631685058</v>
       </c>
       <c r="C9">
-        <v>1.031609845832861</v>
+        <v>1.031609845832747</v>
       </c>
       <c r="D9">
         <v>0</v>
@@ -690,16 +690,16 @@
         <v>1.140551304360429</v>
       </c>
       <c r="F9">
-        <v>2.663901328898646</v>
+        <v>2.663901328898703</v>
       </c>
       <c r="G9">
-        <v>0.7565576233759543</v>
+        <v>0.7565576233759472</v>
       </c>
       <c r="H9">
         <v>0.3769405121443157</v>
       </c>
       <c r="I9">
-        <v>0.1181063377729821</v>
+        <v>0.118106337772975</v>
       </c>
       <c r="J9">
         <v>0.9649776591545134</v>
@@ -716,16 +716,16 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>3.822948628733968</v>
+        <v>3.822948628734025</v>
       </c>
       <c r="C10">
-        <v>1.242155773471779</v>
+        <v>1.242155773471836</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>1.375796756811098</v>
+        <v>1.37579675681107</v>
       </c>
       <c r="F10">
         <v>3.231798399524422</v>
@@ -734,13 +734,13 @@
         <v>0.8921655330907612</v>
       </c>
       <c r="H10">
-        <v>0.4218861818159283</v>
+        <v>0.4218861818159141</v>
       </c>
       <c r="I10">
-        <v>0.1407880244139648</v>
+        <v>0.1407880244139825</v>
       </c>
       <c r="J10">
-        <v>1.158507767198657</v>
+        <v>1.158507767198685</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -754,31 +754,31 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.117418860210876</v>
+        <v>4.117418860210933</v>
       </c>
       <c r="C11">
-        <v>1.340422591535059</v>
+        <v>1.340422591535116</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>1.485813892635122</v>
+        <v>1.485813892635178</v>
       </c>
       <c r="F11">
-        <v>3.500432206415127</v>
+        <v>3.500432206415155</v>
       </c>
       <c r="G11">
         <v>0.9595686919854529</v>
       </c>
       <c r="H11">
-        <v>0.4460002926766293</v>
+        <v>0.4460002926766222</v>
       </c>
       <c r="I11">
         <v>0.1522634606747495</v>
       </c>
       <c r="J11">
-        <v>1.24839762463138</v>
+        <v>1.248397624631394</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -792,31 +792,31 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.229893125964679</v>
+        <v>4.229893125964566</v>
       </c>
       <c r="C12">
-        <v>1.378065579392455</v>
+        <v>1.378065579392398</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>1.527996226758631</v>
+        <v>1.527996226758646</v>
       </c>
       <c r="F12">
-        <v>3.603904164789981</v>
+        <v>3.603904164789952</v>
       </c>
       <c r="G12">
-        <v>0.9860437070372114</v>
+        <v>0.986043707037183</v>
       </c>
       <c r="H12">
-        <v>0.4557363962035268</v>
+        <v>0.4557363962035197</v>
       </c>
       <c r="I12">
-        <v>0.1568044252767962</v>
+        <v>0.1568044252767784</v>
       </c>
       <c r="J12">
-        <v>1.282758003406613</v>
+        <v>1.28275800340657</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -833,13 +833,13 @@
         <v>4.205624004682591</v>
       </c>
       <c r="C13">
-        <v>1.369938009863972</v>
+        <v>1.369938009864029</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>1.518886753583757</v>
+        <v>1.518886753583786</v>
       </c>
       <c r="F13">
         <v>3.58153732496433</v>
@@ -848,13 +848,13 @@
         <v>0.9802972917581485</v>
       </c>
       <c r="H13">
-        <v>0.453611315682906</v>
+        <v>0.4536113156829131</v>
       </c>
       <c r="I13">
-        <v>0.1558172416199426</v>
+        <v>0.1558172416199284</v>
       </c>
       <c r="J13">
-        <v>1.275342648028996</v>
+        <v>1.275342648028982</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -868,31 +868,31 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.126651825902968</v>
+        <v>4.126651825902741</v>
       </c>
       <c r="C14">
-        <v>1.343510395179806</v>
+        <v>1.343510395179976</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>1.489273251545228</v>
+        <v>1.4892732515452</v>
       </c>
       <c r="F14">
-        <v>3.508908253175008</v>
+        <v>3.508908253175036</v>
       </c>
       <c r="G14">
-        <v>0.9617269442751422</v>
+        <v>0.9617269442751564</v>
       </c>
       <c r="H14">
-        <v>0.4467886895816733</v>
+        <v>0.4467886895816662</v>
       </c>
       <c r="I14">
-        <v>0.1526329483038111</v>
+        <v>0.152632948303836</v>
       </c>
       <c r="J14">
-        <v>1.251217698516854</v>
+        <v>1.25121769851684</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -906,10 +906,10 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.078410001223233</v>
+        <v>4.078410001223176</v>
       </c>
       <c r="C15">
-        <v>1.327381277215068</v>
+        <v>1.327381277214954</v>
       </c>
       <c r="D15">
         <v>0</v>
@@ -927,7 +927,7 @@
         <v>0.4426908474618827</v>
       </c>
       <c r="I15">
-        <v>0.1507088723871028</v>
+        <v>0.1507088723870886</v>
       </c>
       <c r="J15">
         <v>1.236484034603137</v>
@@ -947,28 +947,28 @@
         <v>3.80382984771677</v>
       </c>
       <c r="C16">
-        <v>1.235789937277616</v>
+        <v>1.235789937277502</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>1.368674647334728</v>
+        <v>1.368674647334757</v>
       </c>
       <c r="F16">
         <v>3.21447158849017</v>
       </c>
       <c r="G16">
-        <v>0.8878862026024166</v>
+        <v>0.8878862026024024</v>
       </c>
       <c r="H16">
-        <v>0.4203904330723418</v>
+        <v>0.4203904330723489</v>
       </c>
       <c r="I16">
-        <v>0.1400637474213298</v>
+        <v>0.140063747421344</v>
       </c>
       <c r="J16">
-        <v>1.152675028124449</v>
+        <v>1.152675028124435</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -985,25 +985,25 @@
         <v>3.636919344718649</v>
       </c>
       <c r="C17">
-        <v>1.180288139422316</v>
+        <v>1.18028813942243</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>1.306604317642098</v>
+        <v>1.306604317642083</v>
       </c>
       <c r="F17">
         <v>3.063805547497878</v>
       </c>
       <c r="G17">
-        <v>0.8510368966926904</v>
+        <v>0.8510368966927047</v>
       </c>
       <c r="H17">
         <v>0.4077009581743383</v>
       </c>
       <c r="I17">
-        <v>0.1338490231778451</v>
+        <v>0.1338490231778273</v>
       </c>
       <c r="J17">
         <v>1.101771882243625</v>
@@ -1020,16 +1020,16 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.541429569605839</v>
+        <v>3.541429569605782</v>
       </c>
       <c r="C18">
-        <v>1.148594213771247</v>
+        <v>1.148594213770849</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>1.271179669059379</v>
+        <v>1.271179669059407</v>
       </c>
       <c r="F18">
         <v>2.978097470713465</v>
@@ -1038,13 +1038,13 @@
         <v>0.8303713075936372</v>
       </c>
       <c r="H18">
-        <v>0.4007423675360471</v>
+        <v>0.4007423675360542</v>
       </c>
       <c r="I18">
-        <v>0.1303814381702892</v>
+        <v>0.1303814381702715</v>
       </c>
       <c r="J18">
-        <v>1.07266437247236</v>
+        <v>1.072664372472346</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1058,31 +1058,31 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.509181779266839</v>
+        <v>3.509181779266726</v>
       </c>
       <c r="C19">
-        <v>1.13790049091233</v>
+        <v>1.137900490912443</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>1.259230478280131</v>
+        <v>1.259230478280145</v>
       </c>
       <c r="F19">
-        <v>2.949234022194844</v>
+        <v>2.949234022194815</v>
       </c>
       <c r="G19">
-        <v>0.8234615286204559</v>
+        <v>0.8234615286204416</v>
       </c>
       <c r="H19">
-        <v>0.3984425334054364</v>
+        <v>0.3984425334054507</v>
       </c>
       <c r="I19">
-        <v>0.1292249314049165</v>
+        <v>0.1292249314049343</v>
       </c>
       <c r="J19">
-        <v>1.062836829600485</v>
+        <v>1.062836829600499</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1096,31 +1096,31 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.654633066025383</v>
+        <v>3.654633066025156</v>
       </c>
       <c r="C20">
-        <v>1.186172174779188</v>
+        <v>1.186172174779301</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>1.313182581101174</v>
+        <v>1.313182581101188</v>
       </c>
       <c r="F20">
-        <v>3.079743966753483</v>
+        <v>3.079743966753455</v>
       </c>
       <c r="G20">
-        <v>0.8549039237165772</v>
+        <v>0.8549039237165914</v>
       </c>
       <c r="H20">
-        <v>0.4090160544757495</v>
+        <v>0.4090160544757353</v>
       </c>
       <c r="I20">
-        <v>0.1344993252417659</v>
+        <v>0.1344993252417481</v>
       </c>
       <c r="J20">
-        <v>1.107172576652474</v>
+        <v>1.107172576652516</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1137,28 +1137,28 @@
         <v>4.149820259968408</v>
       </c>
       <c r="C21">
-        <v>1.351260475672063</v>
+        <v>1.351260475671893</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>1.497956528371361</v>
+        <v>1.497956528371375</v>
       </c>
       <c r="F21">
-        <v>3.530191474712296</v>
+        <v>3.530191474712268</v>
       </c>
       <c r="G21">
-        <v>0.9671545771386718</v>
+        <v>0.9671545771387144</v>
       </c>
       <c r="H21">
-        <v>0.44877558207736</v>
+        <v>0.4487755820773529</v>
       </c>
       <c r="I21">
-        <v>0.1535626931124554</v>
+        <v>0.1535626931124447</v>
       </c>
       <c r="J21">
-        <v>1.258294593464214</v>
+        <v>1.258294593464228</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1172,31 +1172,31 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4.479170854529968</v>
+        <v>4.479170854529855</v>
       </c>
       <c r="C22">
-        <v>1.461712512188342</v>
+        <v>1.461712512188456</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>1.621806957005077</v>
+        <v>1.621806957005091</v>
       </c>
       <c r="F22">
-        <v>3.834914988620966</v>
+        <v>3.834914988620994</v>
       </c>
       <c r="G22">
-        <v>1.046133349092472</v>
+        <v>1.046133349092514</v>
       </c>
       <c r="H22">
         <v>0.4783289471218097</v>
       </c>
       <c r="I22">
-        <v>0.1671780303325541</v>
+        <v>0.1671780303325718</v>
       </c>
       <c r="J22">
-        <v>1.358964075461174</v>
+        <v>1.358964075461188</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1210,7 +1210,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.302806574048475</v>
+        <v>4.302806574048532</v>
       </c>
       <c r="C23">
         <v>1.402500949697242</v>
@@ -1222,19 +1222,19 @@
         <v>1.555389683617605</v>
       </c>
       <c r="F23">
-        <v>3.671235042058839</v>
+        <v>3.671235042058811</v>
       </c>
       <c r="G23">
-        <v>1.003419319598407</v>
+        <v>1.003419319598422</v>
       </c>
       <c r="H23">
-        <v>0.4622008254786323</v>
+        <v>0.4622008254786252</v>
       </c>
       <c r="I23">
-        <v>0.1597946149537606</v>
+        <v>0.1597946149538103</v>
       </c>
       <c r="J23">
-        <v>1.305040629934567</v>
+        <v>1.305040629934581</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1248,31 +1248,31 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.646623243001045</v>
+        <v>3.646623243001159</v>
       </c>
       <c r="C24">
-        <v>1.183511338770643</v>
+        <v>1.183511338770757</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>1.310207743641996</v>
+        <v>1.31020774364201</v>
       </c>
       <c r="F24">
         <v>3.072535386829514</v>
       </c>
       <c r="G24">
-        <v>0.8531540319845874</v>
+        <v>0.8531540319845732</v>
       </c>
       <c r="H24">
         <v>0.408420456203082</v>
       </c>
       <c r="I24">
-        <v>0.1342049976912385</v>
+        <v>0.1342049976912101</v>
       </c>
       <c r="J24">
-        <v>1.104730436518253</v>
+        <v>1.10473043651821</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1286,28 +1286,28 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.957937089433074</v>
+        <v>2.957937089432903</v>
       </c>
       <c r="C25">
-        <v>0.9558447665936569</v>
+        <v>0.9558447665932874</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>1.056055516606392</v>
+        <v>1.056055516606406</v>
       </c>
       <c r="F25">
-        <v>2.462318073847428</v>
+        <v>2.462318073847413</v>
       </c>
       <c r="G25">
         <v>0.7109193482223191</v>
       </c>
       <c r="H25">
-        <v>0.3631833259347133</v>
+        <v>0.3631833259347204</v>
       </c>
       <c r="I25">
-        <v>0.1106099738529558</v>
+        <v>0.1106099738529593</v>
       </c>
       <c r="J25">
         <v>0.8950253349875226</v>

--- a/Code/Results/Cases/Case_2_23/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_23/res_line/pl_mw.xlsx
@@ -412,10 +412,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.46208869550145</v>
+        <v>2.462088695501393</v>
       </c>
       <c r="C2">
-        <v>0.7932670275336591</v>
+        <v>0.7932670275334885</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -424,19 +424,19 @@
         <v>0.8750261969524189</v>
       </c>
       <c r="F2">
-        <v>2.035306853188473</v>
+        <v>2.035306853188501</v>
       </c>
       <c r="G2">
-        <v>0.6192536875598407</v>
+        <v>0.6192536875598549</v>
       </c>
       <c r="H2">
-        <v>0.338468693418001</v>
+        <v>0.3384686934179797</v>
       </c>
       <c r="I2">
         <v>0.0958025805552758</v>
       </c>
       <c r="J2">
-        <v>0.744366258254729</v>
+        <v>0.7443662582547574</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -450,28 +450,28 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.130869123829029</v>
+        <v>2.130869123829086</v>
       </c>
       <c r="C3">
-        <v>0.6852818555535123</v>
+        <v>0.6852818555534554</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.755003607612224</v>
+        <v>0.7550036076122382</v>
       </c>
       <c r="F3">
-        <v>1.756345870385303</v>
+        <v>1.756345870385317</v>
       </c>
       <c r="G3">
-        <v>0.5636007694855323</v>
+        <v>0.5636007694855181</v>
       </c>
       <c r="H3">
-        <v>0.326077455470255</v>
+        <v>0.3260774554702479</v>
       </c>
       <c r="I3">
-        <v>0.08700791504777783</v>
+        <v>0.08700791504777428</v>
       </c>
       <c r="J3">
         <v>0.6438786230684315</v>
@@ -488,10 +488,10 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.929253512879853</v>
+        <v>1.929253512880052</v>
       </c>
       <c r="C4">
-        <v>0.6197891770089541</v>
+        <v>0.6197891770092099</v>
       </c>
       <c r="D4">
         <v>0</v>
@@ -500,19 +500,19 @@
         <v>0.6822985698839403</v>
       </c>
       <c r="F4">
-        <v>1.589210237659259</v>
+        <v>1.589210237659245</v>
       </c>
       <c r="G4">
-        <v>0.5321390945463023</v>
+        <v>0.532139094546288</v>
       </c>
       <c r="H4">
-        <v>0.3203303950096199</v>
+        <v>0.3203303950096341</v>
       </c>
       <c r="I4">
-        <v>0.08211838199650501</v>
+        <v>0.0821183819964908</v>
       </c>
       <c r="J4">
-        <v>0.5827697380827885</v>
+        <v>0.5827697380827743</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -526,10 +526,10 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.847451898261681</v>
+        <v>1.847451898261795</v>
       </c>
       <c r="C5">
-        <v>0.593268020142574</v>
+        <v>0.5932680201429719</v>
       </c>
       <c r="D5">
         <v>0</v>
@@ -541,16 +541,16 @@
         <v>1.522010386049601</v>
       </c>
       <c r="G5">
-        <v>0.5199345416537895</v>
+        <v>0.5199345416537611</v>
       </c>
       <c r="H5">
         <v>0.3184174150796153</v>
       </c>
       <c r="I5">
-        <v>0.08024068741140766</v>
+        <v>0.08024068741142187</v>
       </c>
       <c r="J5">
-        <v>0.5579886072366875</v>
+        <v>0.5579886072366733</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -564,16 +564,16 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.833888164162659</v>
+        <v>1.833888164162687</v>
       </c>
       <c r="C6">
-        <v>0.5888733300344597</v>
+        <v>0.5888733300342608</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.6480021380499039</v>
+        <v>0.6480021380499181</v>
       </c>
       <c r="F6">
         <v>1.510903125320297</v>
@@ -582,13 +582,13 @@
         <v>0.5179434128851526</v>
       </c>
       <c r="H6">
-        <v>0.3181245962316837</v>
+        <v>0.3181245962316694</v>
       </c>
       <c r="I6">
         <v>0.07993546188551903</v>
       </c>
       <c r="J6">
-        <v>0.5538802873705535</v>
+        <v>0.5538802873705677</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -602,31 +602,31 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.928148960811455</v>
+        <v>1.928148960811569</v>
       </c>
       <c r="C7">
-        <v>0.6194308701452655</v>
+        <v>0.6194308701451803</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.6819009934649785</v>
+        <v>0.6819009934649927</v>
       </c>
       <c r="F7">
-        <v>1.588300443800279</v>
+        <v>1.588300443800293</v>
       </c>
       <c r="G7">
         <v>0.531972086088139</v>
       </c>
       <c r="H7">
-        <v>0.3203029081452193</v>
+        <v>0.3203029081452016</v>
       </c>
       <c r="I7">
-        <v>0.08209261075083063</v>
+        <v>0.08209261075082352</v>
       </c>
       <c r="J7">
-        <v>0.5824350746212517</v>
+        <v>0.5824350746212374</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -640,31 +640,31 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.347467762367614</v>
+        <v>2.347467762367501</v>
       </c>
       <c r="C8">
-        <v>0.755842624078582</v>
+        <v>0.7558426240784684</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.8334098729063157</v>
+        <v>0.83340987290633</v>
       </c>
       <c r="F8">
-        <v>1.938176116260863</v>
+        <v>1.938176116260848</v>
       </c>
       <c r="G8">
         <v>0.5994613348018092</v>
       </c>
       <c r="H8">
-        <v>0.3337853673402265</v>
+        <v>0.3337853673402122</v>
       </c>
       <c r="I8">
-        <v>0.09265568411863256</v>
+        <v>0.09265568411863967</v>
       </c>
       <c r="J8">
-        <v>0.7095782046281514</v>
+        <v>0.7095782046281585</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -678,10 +678,10 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.187859631685058</v>
+        <v>3.187859631685001</v>
       </c>
       <c r="C9">
-        <v>1.031609845832747</v>
+        <v>1.031609845832861</v>
       </c>
       <c r="D9">
         <v>0</v>
@@ -690,16 +690,16 @@
         <v>1.140551304360429</v>
       </c>
       <c r="F9">
-        <v>2.663901328898703</v>
+        <v>2.663901328898646</v>
       </c>
       <c r="G9">
-        <v>0.7565576233759472</v>
+        <v>0.7565576233759543</v>
       </c>
       <c r="H9">
         <v>0.3769405121443157</v>
       </c>
       <c r="I9">
-        <v>0.118106337772975</v>
+        <v>0.1181063377729821</v>
       </c>
       <c r="J9">
         <v>0.9649776591545134</v>
@@ -716,16 +716,16 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>3.822948628734025</v>
+        <v>3.822948628733968</v>
       </c>
       <c r="C10">
-        <v>1.242155773471836</v>
+        <v>1.242155773471779</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>1.37579675681107</v>
+        <v>1.375796756811098</v>
       </c>
       <c r="F10">
         <v>3.231798399524422</v>
@@ -734,13 +734,13 @@
         <v>0.8921655330907612</v>
       </c>
       <c r="H10">
-        <v>0.4218861818159141</v>
+        <v>0.4218861818159283</v>
       </c>
       <c r="I10">
-        <v>0.1407880244139825</v>
+        <v>0.1407880244139648</v>
       </c>
       <c r="J10">
-        <v>1.158507767198685</v>
+        <v>1.158507767198657</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -754,31 +754,31 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.117418860210933</v>
+        <v>4.117418860210876</v>
       </c>
       <c r="C11">
-        <v>1.340422591535116</v>
+        <v>1.340422591535059</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>1.485813892635178</v>
+        <v>1.485813892635122</v>
       </c>
       <c r="F11">
-        <v>3.500432206415155</v>
+        <v>3.500432206415127</v>
       </c>
       <c r="G11">
         <v>0.9595686919854529</v>
       </c>
       <c r="H11">
-        <v>0.4460002926766222</v>
+        <v>0.4460002926766293</v>
       </c>
       <c r="I11">
         <v>0.1522634606747495</v>
       </c>
       <c r="J11">
-        <v>1.248397624631394</v>
+        <v>1.24839762463138</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -792,31 +792,31 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.229893125964566</v>
+        <v>4.229893125964679</v>
       </c>
       <c r="C12">
-        <v>1.378065579392398</v>
+        <v>1.378065579392455</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>1.527996226758646</v>
+        <v>1.527996226758631</v>
       </c>
       <c r="F12">
-        <v>3.603904164789952</v>
+        <v>3.603904164789981</v>
       </c>
       <c r="G12">
-        <v>0.986043707037183</v>
+        <v>0.9860437070372114</v>
       </c>
       <c r="H12">
-        <v>0.4557363962035197</v>
+        <v>0.4557363962035268</v>
       </c>
       <c r="I12">
-        <v>0.1568044252767784</v>
+        <v>0.1568044252767962</v>
       </c>
       <c r="J12">
-        <v>1.28275800340657</v>
+        <v>1.282758003406613</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -833,13 +833,13 @@
         <v>4.205624004682591</v>
       </c>
       <c r="C13">
-        <v>1.369938009864029</v>
+        <v>1.369938009863972</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>1.518886753583786</v>
+        <v>1.518886753583757</v>
       </c>
       <c r="F13">
         <v>3.58153732496433</v>
@@ -848,13 +848,13 @@
         <v>0.9802972917581485</v>
       </c>
       <c r="H13">
-        <v>0.4536113156829131</v>
+        <v>0.453611315682906</v>
       </c>
       <c r="I13">
-        <v>0.1558172416199284</v>
+        <v>0.1558172416199426</v>
       </c>
       <c r="J13">
-        <v>1.275342648028982</v>
+        <v>1.275342648028996</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -868,31 +868,31 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.126651825902741</v>
+        <v>4.126651825902968</v>
       </c>
       <c r="C14">
-        <v>1.343510395179976</v>
+        <v>1.343510395179806</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>1.4892732515452</v>
+        <v>1.489273251545228</v>
       </c>
       <c r="F14">
-        <v>3.508908253175036</v>
+        <v>3.508908253175008</v>
       </c>
       <c r="G14">
-        <v>0.9617269442751564</v>
+        <v>0.9617269442751422</v>
       </c>
       <c r="H14">
-        <v>0.4467886895816662</v>
+        <v>0.4467886895816733</v>
       </c>
       <c r="I14">
-        <v>0.152632948303836</v>
+        <v>0.1526329483038111</v>
       </c>
       <c r="J14">
-        <v>1.25121769851684</v>
+        <v>1.251217698516854</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -906,10 +906,10 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.078410001223176</v>
+        <v>4.078410001223233</v>
       </c>
       <c r="C15">
-        <v>1.327381277214954</v>
+        <v>1.327381277215068</v>
       </c>
       <c r="D15">
         <v>0</v>
@@ -927,7 +927,7 @@
         <v>0.4426908474618827</v>
       </c>
       <c r="I15">
-        <v>0.1507088723870886</v>
+        <v>0.1507088723871028</v>
       </c>
       <c r="J15">
         <v>1.236484034603137</v>
@@ -947,28 +947,28 @@
         <v>3.80382984771677</v>
       </c>
       <c r="C16">
-        <v>1.235789937277502</v>
+        <v>1.235789937277616</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>1.368674647334757</v>
+        <v>1.368674647334728</v>
       </c>
       <c r="F16">
         <v>3.21447158849017</v>
       </c>
       <c r="G16">
-        <v>0.8878862026024024</v>
+        <v>0.8878862026024166</v>
       </c>
       <c r="H16">
-        <v>0.4203904330723489</v>
+        <v>0.4203904330723418</v>
       </c>
       <c r="I16">
-        <v>0.140063747421344</v>
+        <v>0.1400637474213298</v>
       </c>
       <c r="J16">
-        <v>1.152675028124435</v>
+        <v>1.152675028124449</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -985,25 +985,25 @@
         <v>3.636919344718649</v>
       </c>
       <c r="C17">
-        <v>1.18028813942243</v>
+        <v>1.180288139422316</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>1.306604317642083</v>
+        <v>1.306604317642098</v>
       </c>
       <c r="F17">
         <v>3.063805547497878</v>
       </c>
       <c r="G17">
-        <v>0.8510368966927047</v>
+        <v>0.8510368966926904</v>
       </c>
       <c r="H17">
         <v>0.4077009581743383</v>
       </c>
       <c r="I17">
-        <v>0.1338490231778273</v>
+        <v>0.1338490231778451</v>
       </c>
       <c r="J17">
         <v>1.101771882243625</v>
@@ -1020,16 +1020,16 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.541429569605782</v>
+        <v>3.541429569605839</v>
       </c>
       <c r="C18">
-        <v>1.148594213770849</v>
+        <v>1.148594213771247</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>1.271179669059407</v>
+        <v>1.271179669059379</v>
       </c>
       <c r="F18">
         <v>2.978097470713465</v>
@@ -1038,13 +1038,13 @@
         <v>0.8303713075936372</v>
       </c>
       <c r="H18">
-        <v>0.4007423675360542</v>
+        <v>0.4007423675360471</v>
       </c>
       <c r="I18">
-        <v>0.1303814381702715</v>
+        <v>0.1303814381702892</v>
       </c>
       <c r="J18">
-        <v>1.072664372472346</v>
+        <v>1.07266437247236</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1058,31 +1058,31 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.509181779266726</v>
+        <v>3.509181779266839</v>
       </c>
       <c r="C19">
-        <v>1.137900490912443</v>
+        <v>1.13790049091233</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>1.259230478280145</v>
+        <v>1.259230478280131</v>
       </c>
       <c r="F19">
-        <v>2.949234022194815</v>
+        <v>2.949234022194844</v>
       </c>
       <c r="G19">
-        <v>0.8234615286204416</v>
+        <v>0.8234615286204559</v>
       </c>
       <c r="H19">
-        <v>0.3984425334054507</v>
+        <v>0.3984425334054364</v>
       </c>
       <c r="I19">
-        <v>0.1292249314049343</v>
+        <v>0.1292249314049165</v>
       </c>
       <c r="J19">
-        <v>1.062836829600499</v>
+        <v>1.062836829600485</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1096,31 +1096,31 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.654633066025156</v>
+        <v>3.654633066025383</v>
       </c>
       <c r="C20">
-        <v>1.186172174779301</v>
+        <v>1.186172174779188</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>1.313182581101188</v>
+        <v>1.313182581101174</v>
       </c>
       <c r="F20">
-        <v>3.079743966753455</v>
+        <v>3.079743966753483</v>
       </c>
       <c r="G20">
-        <v>0.8549039237165914</v>
+        <v>0.8549039237165772</v>
       </c>
       <c r="H20">
-        <v>0.4090160544757353</v>
+        <v>0.4090160544757495</v>
       </c>
       <c r="I20">
-        <v>0.1344993252417481</v>
+        <v>0.1344993252417659</v>
       </c>
       <c r="J20">
-        <v>1.107172576652516</v>
+        <v>1.107172576652474</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1137,28 +1137,28 @@
         <v>4.149820259968408</v>
       </c>
       <c r="C21">
-        <v>1.351260475671893</v>
+        <v>1.351260475672063</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>1.497956528371375</v>
+        <v>1.497956528371361</v>
       </c>
       <c r="F21">
-        <v>3.530191474712268</v>
+        <v>3.530191474712296</v>
       </c>
       <c r="G21">
-        <v>0.9671545771387144</v>
+        <v>0.9671545771386718</v>
       </c>
       <c r="H21">
-        <v>0.4487755820773529</v>
+        <v>0.44877558207736</v>
       </c>
       <c r="I21">
-        <v>0.1535626931124447</v>
+        <v>0.1535626931124554</v>
       </c>
       <c r="J21">
-        <v>1.258294593464228</v>
+        <v>1.258294593464214</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1172,31 +1172,31 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4.479170854529855</v>
+        <v>4.479170854529968</v>
       </c>
       <c r="C22">
-        <v>1.461712512188456</v>
+        <v>1.461712512188342</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>1.621806957005091</v>
+        <v>1.621806957005077</v>
       </c>
       <c r="F22">
-        <v>3.834914988620994</v>
+        <v>3.834914988620966</v>
       </c>
       <c r="G22">
-        <v>1.046133349092514</v>
+        <v>1.046133349092472</v>
       </c>
       <c r="H22">
         <v>0.4783289471218097</v>
       </c>
       <c r="I22">
-        <v>0.1671780303325718</v>
+        <v>0.1671780303325541</v>
       </c>
       <c r="J22">
-        <v>1.358964075461188</v>
+        <v>1.358964075461174</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1210,7 +1210,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.302806574048532</v>
+        <v>4.302806574048475</v>
       </c>
       <c r="C23">
         <v>1.402500949697242</v>
@@ -1222,19 +1222,19 @@
         <v>1.555389683617605</v>
       </c>
       <c r="F23">
-        <v>3.671235042058811</v>
+        <v>3.671235042058839</v>
       </c>
       <c r="G23">
-        <v>1.003419319598422</v>
+        <v>1.003419319598407</v>
       </c>
       <c r="H23">
-        <v>0.4622008254786252</v>
+        <v>0.4622008254786323</v>
       </c>
       <c r="I23">
-        <v>0.1597946149538103</v>
+        <v>0.1597946149537606</v>
       </c>
       <c r="J23">
-        <v>1.305040629934581</v>
+        <v>1.305040629934567</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1248,31 +1248,31 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.646623243001159</v>
+        <v>3.646623243001045</v>
       </c>
       <c r="C24">
-        <v>1.183511338770757</v>
+        <v>1.183511338770643</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>1.31020774364201</v>
+        <v>1.310207743641996</v>
       </c>
       <c r="F24">
         <v>3.072535386829514</v>
       </c>
       <c r="G24">
-        <v>0.8531540319845732</v>
+        <v>0.8531540319845874</v>
       </c>
       <c r="H24">
         <v>0.408420456203082</v>
       </c>
       <c r="I24">
-        <v>0.1342049976912101</v>
+        <v>0.1342049976912385</v>
       </c>
       <c r="J24">
-        <v>1.10473043651821</v>
+        <v>1.104730436518253</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1286,28 +1286,28 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.957937089432903</v>
+        <v>2.957937089433074</v>
       </c>
       <c r="C25">
-        <v>0.9558447665932874</v>
+        <v>0.9558447665936569</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>1.056055516606406</v>
+        <v>1.056055516606392</v>
       </c>
       <c r="F25">
-        <v>2.462318073847413</v>
+        <v>2.462318073847428</v>
       </c>
       <c r="G25">
         <v>0.7109193482223191</v>
       </c>
       <c r="H25">
-        <v>0.3631833259347204</v>
+        <v>0.3631833259347133</v>
       </c>
       <c r="I25">
-        <v>0.1106099738529593</v>
+        <v>0.1106099738529558</v>
       </c>
       <c r="J25">
         <v>0.8950253349875226</v>

--- a/Code/Results/Cases/Case_2_23/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_23/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -406,916 +406,991 @@
       <c r="L1" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.462088695501393</v>
+        <v>2.462086301992144</v>
       </c>
       <c r="C2">
-        <v>0.7932670275334885</v>
+        <v>0.7929099758512734</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.8750261969524189</v>
+        <v>0.8755265841835751</v>
       </c>
       <c r="F2">
-        <v>2.035306853188501</v>
+        <v>2.034459509353013</v>
       </c>
       <c r="G2">
-        <v>0.6192536875598549</v>
+        <v>0.1942775663037253</v>
       </c>
       <c r="H2">
-        <v>0.3384686934179797</v>
+        <v>0.4278205287541468</v>
       </c>
       <c r="I2">
-        <v>0.0958025805552758</v>
+        <v>0.3376441373400851</v>
       </c>
       <c r="J2">
-        <v>0.7443662582547574</v>
+        <v>0.09559800238109872</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>0.7442672966122927</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:12">
+      <c r="M2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.130869123829086</v>
+        <v>2.130893033825942</v>
       </c>
       <c r="C3">
-        <v>0.6852818555534554</v>
+        <v>0.6849835025143989</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.7550036076122382</v>
+        <v>0.755441786544182</v>
       </c>
       <c r="F3">
-        <v>1.756345870385317</v>
+        <v>1.755607598482513</v>
       </c>
       <c r="G3">
-        <v>0.5636007694855181</v>
+        <v>0.1729332671031756</v>
       </c>
       <c r="H3">
-        <v>0.3260774554702479</v>
+        <v>0.3937290248906038</v>
       </c>
       <c r="I3">
-        <v>0.08700791504777428</v>
+        <v>0.3253325585971396</v>
       </c>
       <c r="J3">
-        <v>0.6438786230684315</v>
+        <v>0.08682566319741625</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>0.643801135166008</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:12">
+      <c r="M3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.929253512880052</v>
+        <v>1.929290391543049</v>
       </c>
       <c r="C4">
-        <v>0.6197891770092099</v>
+        <v>0.6195253002129562</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.6822985698839403</v>
+        <v>0.6826984113751848</v>
       </c>
       <c r="F4">
-        <v>1.589210237659245</v>
+        <v>1.588536786818736</v>
       </c>
       <c r="G4">
-        <v>0.532139094546288</v>
+        <v>0.1606958511361611</v>
       </c>
       <c r="H4">
-        <v>0.3203303950096341</v>
+        <v>0.3746333607101491</v>
       </c>
       <c r="I4">
-        <v>0.0821183819964908</v>
+        <v>0.3196326358680359</v>
       </c>
       <c r="J4">
-        <v>0.5827697380827743</v>
+        <v>0.08194922964855422</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>0.5827043437794046</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:12">
+      <c r="M4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.847451898261795</v>
+        <v>1.847493367944224</v>
       </c>
       <c r="C5">
-        <v>0.5932680201429719</v>
+        <v>0.593017860063668</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.6528764208434978</v>
+        <v>0.653260603875836</v>
       </c>
       <c r="F5">
-        <v>1.522010386049601</v>
+        <v>1.521362903830067</v>
       </c>
       <c r="G5">
-        <v>0.5199345416537611</v>
+        <v>0.1559050661590931</v>
       </c>
       <c r="H5">
-        <v>0.3184174150796153</v>
+        <v>0.3672709732766393</v>
       </c>
       <c r="I5">
-        <v>0.08024068741142187</v>
+        <v>0.3177384783432622</v>
       </c>
       <c r="J5">
-        <v>0.5579886072366733</v>
+        <v>0.08007674180155888</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>0.5579279054388522</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:12">
+      <c r="M5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.833888164162687</v>
+        <v>1.833930357167048</v>
       </c>
       <c r="C6">
-        <v>0.5888733300342608</v>
+        <v>0.5886254291730779</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.6480021380499181</v>
+        <v>0.6483837188325339</v>
       </c>
       <c r="F6">
-        <v>1.510903125320297</v>
+        <v>1.510259930732062</v>
       </c>
       <c r="G6">
-        <v>0.5179434128851526</v>
+        <v>0.1551207869112332</v>
       </c>
       <c r="H6">
-        <v>0.3181245962316694</v>
+        <v>0.3660725981145347</v>
       </c>
       <c r="I6">
-        <v>0.07993546188551903</v>
+        <v>0.3174487632048724</v>
       </c>
       <c r="J6">
-        <v>0.5538802873705677</v>
+        <v>0.07977237350063149</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>0.5538203515752542</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:12">
+      <c r="M6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.928148960811569</v>
+        <v>1.928185904067959</v>
       </c>
       <c r="C7">
-        <v>0.6194308701451803</v>
+        <v>0.6191671796087235</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.6819009934649927</v>
+        <v>0.6823006239259257</v>
       </c>
       <c r="F7">
-        <v>1.588300443800293</v>
+        <v>1.587627344873738</v>
       </c>
       <c r="G7">
-        <v>0.531972086088139</v>
+        <v>0.1606304751109349</v>
       </c>
       <c r="H7">
-        <v>0.3203029081452016</v>
+        <v>0.3745324251509459</v>
       </c>
       <c r="I7">
-        <v>0.08209261075082352</v>
+        <v>0.3196054043407699</v>
       </c>
       <c r="J7">
-        <v>0.5824350746212374</v>
+        <v>0.08192352912800516</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>0.5823697445090019</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:12">
+      <c r="M7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.347467762367501</v>
+        <v>2.347475166409367</v>
       </c>
       <c r="C8">
-        <v>0.7558426240784684</v>
+        <v>0.7555061752885308</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.83340987290633</v>
+        <v>0.8338888403080205</v>
       </c>
       <c r="F8">
-        <v>1.938176116260848</v>
+        <v>1.937366887061273</v>
       </c>
       <c r="G8">
-        <v>0.5994613348018092</v>
+        <v>0.1867239026959098</v>
       </c>
       <c r="H8">
-        <v>0.3337853673402122</v>
+        <v>0.4156577825583767</v>
       </c>
       <c r="I8">
-        <v>0.09265568411863967</v>
+        <v>0.3329886836419576</v>
       </c>
       <c r="J8">
-        <v>0.7095782046281585</v>
+        <v>0.09245894435105839</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>0.7094868983006961</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:12">
+      <c r="M8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.187859631685001</v>
+        <v>3.187778370742421</v>
       </c>
       <c r="C9">
-        <v>1.031609845832861</v>
+        <v>1.03111515441401</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>1.140551304360429</v>
+        <v>1.141184666936695</v>
       </c>
       <c r="F9">
-        <v>2.663901328898646</v>
+        <v>2.662803109561764</v>
       </c>
       <c r="G9">
-        <v>0.7565576233759543</v>
+        <v>0.245892908971058</v>
       </c>
       <c r="H9">
-        <v>0.3769405121443157</v>
+        <v>0.5130089605623951</v>
       </c>
       <c r="I9">
-        <v>0.1181063377729821</v>
+        <v>0.3759321914523781</v>
       </c>
       <c r="J9">
-        <v>0.9649776591545134</v>
+        <v>0.1178493916070416</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>0.9648247543062496</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:12">
+      <c r="M9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>3.822948628733968</v>
+        <v>3.822774513067202</v>
       </c>
       <c r="C10">
-        <v>1.242155773471779</v>
+        <v>1.241530199213798</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>1.375796756811098</v>
+        <v>1.376542580376807</v>
       </c>
       <c r="F10">
-        <v>3.231798399524422</v>
+        <v>3.230466051943068</v>
       </c>
       <c r="G10">
-        <v>0.8921655330907612</v>
+        <v>0.2959856861068175</v>
       </c>
       <c r="H10">
-        <v>0.4218861818159283</v>
+        <v>0.598059559515363</v>
       </c>
       <c r="I10">
-        <v>0.1407880244139648</v>
+        <v>0.4207068875155642</v>
       </c>
       <c r="J10">
-        <v>1.158507767198657</v>
+        <v>0.1404813206526683</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>1.158299843092095</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:12">
+      <c r="M10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.117418860210876</v>
+        <v>4.117194009261084</v>
       </c>
       <c r="C11">
-        <v>1.340422591535059</v>
+        <v>1.339732889425534</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>1.485813892635122</v>
+        <v>1.486610537137594</v>
       </c>
       <c r="F11">
-        <v>3.500432206415127</v>
+        <v>3.498986224798841</v>
       </c>
       <c r="G11">
-        <v>0.9595686919854529</v>
+        <v>0.3206658513020528</v>
       </c>
       <c r="H11">
-        <v>0.4460002926766293</v>
+        <v>0.6405586503297229</v>
       </c>
       <c r="I11">
-        <v>0.1522634606747495</v>
+        <v>0.4447384698701882</v>
       </c>
       <c r="J11">
-        <v>1.24839762463138</v>
+        <v>0.1519323923946985</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>1.248161651938446</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:12">
+      <c r="M11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.229893125964679</v>
+        <v>4.22964758683969</v>
       </c>
       <c r="C12">
-        <v>1.378065579392455</v>
+        <v>1.377350789605941</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>1.527996226758631</v>
+        <v>1.528812048278326</v>
       </c>
       <c r="F12">
-        <v>3.603904164789981</v>
+        <v>3.602413876222272</v>
       </c>
       <c r="G12">
-        <v>0.9860437070372114</v>
+        <v>0.3303280001089064</v>
       </c>
       <c r="H12">
-        <v>0.4557363962035268</v>
+        <v>0.6572845573852248</v>
       </c>
       <c r="I12">
-        <v>0.1568044252767962</v>
+        <v>0.4544424968429865</v>
       </c>
       <c r="J12">
-        <v>1.282758003406613</v>
+        <v>0.1564638270208221</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>1.282510882980034</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:12">
+      <c r="M12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.205624004682591</v>
+        <v>4.205382991325621</v>
       </c>
       <c r="C13">
-        <v>1.369938009863972</v>
+        <v>1.369228661488876</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>1.518886753583757</v>
+        <v>1.519698448398799</v>
       </c>
       <c r="F13">
-        <v>3.58153732496433</v>
+        <v>3.580056640023287</v>
       </c>
       <c r="G13">
-        <v>0.9802972917581485</v>
+        <v>0.328232245105724</v>
       </c>
       <c r="H13">
-        <v>0.453611315682906</v>
+        <v>0.6536527283667652</v>
       </c>
       <c r="I13">
-        <v>0.1558172416199426</v>
+        <v>0.4523243638023047</v>
       </c>
       <c r="J13">
-        <v>1.275342648028996</v>
+        <v>0.1554787103138864</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>1.275097953526057</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:12">
+      <c r="M13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.126651825902968</v>
+        <v>4.126425304128134</v>
       </c>
       <c r="C14">
-        <v>1.343510395179806</v>
+        <v>1.342818646122055</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>1.489273251545228</v>
+        <v>1.490071475249934</v>
       </c>
       <c r="F14">
-        <v>3.508908253175008</v>
+        <v>3.50745865360409</v>
       </c>
       <c r="G14">
-        <v>0.9617269442751422</v>
+        <v>0.3214541476055217</v>
       </c>
       <c r="H14">
-        <v>0.4467886895816733</v>
+        <v>0.6419214979584495</v>
       </c>
       <c r="I14">
-        <v>0.1526329483038111</v>
+        <v>0.4455242452523365</v>
       </c>
       <c r="J14">
-        <v>1.251217698516854</v>
+        <v>0.1523011024266836</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>1.250980819830161</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:12">
+      <c r="M14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.078410001223233</v>
+        <v>4.078192155414229</v>
       </c>
       <c r="C15">
-        <v>1.327381277215068</v>
+        <v>1.326700198838182</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>1.471204891499667</v>
+        <v>1.471994854226466</v>
       </c>
       <c r="F15">
-        <v>3.464656784031519</v>
+        <v>3.463226050595551</v>
       </c>
       <c r="G15">
-        <v>0.950480052131411</v>
+        <v>0.3173449761946046</v>
       </c>
       <c r="H15">
-        <v>0.4426908474618827</v>
+        <v>0.6348208588099595</v>
       </c>
       <c r="I15">
-        <v>0.1507088723871028</v>
+        <v>0.441440077599438</v>
       </c>
       <c r="J15">
-        <v>1.236484034603137</v>
+        <v>0.1503810801655625</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>1.236251871762221</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:12">
+      <c r="M15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>3.80382984771677</v>
+        <v>3.803658856084724</v>
       </c>
       <c r="C16">
-        <v>1.235789937277616</v>
+        <v>1.235168449861817</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>1.368674647334728</v>
+        <v>1.369417141370889</v>
       </c>
       <c r="F16">
-        <v>3.21447158849017</v>
+        <v>3.213146503408865</v>
       </c>
       <c r="G16">
-        <v>0.8878862026024166</v>
+        <v>0.2944144995478837</v>
       </c>
       <c r="H16">
-        <v>0.4203904330723418</v>
+        <v>0.5953657653161741</v>
       </c>
       <c r="I16">
-        <v>0.1400637474213298</v>
+        <v>0.4192164250662813</v>
       </c>
       <c r="J16">
-        <v>1.152675028124449</v>
+        <v>0.1397585966782486</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>1.15246886879261</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:12">
+      <c r="M16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.636919344718649</v>
+        <v>3.636774753971679</v>
       </c>
       <c r="C17">
-        <v>1.180288139422316</v>
+        <v>1.179701939271524</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>1.306604317642098</v>
+        <v>1.307317593337757</v>
       </c>
       <c r="F17">
-        <v>3.063805547497878</v>
+        <v>3.062543285466404</v>
       </c>
       <c r="G17">
-        <v>0.8510368966926904</v>
+        <v>0.2808616831402162</v>
       </c>
       <c r="H17">
-        <v>0.4077009581743383</v>
+        <v>0.5721935858588267</v>
       </c>
       <c r="I17">
-        <v>0.1338490231778451</v>
+        <v>0.4065727311431502</v>
       </c>
       <c r="J17">
-        <v>1.101771882243625</v>
+        <v>0.1335572834104575</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>1.101580841272366</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:12">
+      <c r="M17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.541429569605839</v>
+        <v>3.54129938201163</v>
       </c>
       <c r="C18">
-        <v>1.148594213771247</v>
+        <v>1.148027888014127</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>1.271179669059379</v>
+        <v>1.271876108853391</v>
       </c>
       <c r="F18">
-        <v>2.978097470713465</v>
+        <v>2.976870689656323</v>
       </c>
       <c r="G18">
-        <v>0.8303713075936372</v>
+        <v>0.2732416355702298</v>
       </c>
       <c r="H18">
-        <v>0.4007423675360471</v>
+        <v>0.5592183846132457</v>
       </c>
       <c r="I18">
-        <v>0.1303814381702892</v>
+        <v>0.3996400350812905</v>
       </c>
       <c r="J18">
-        <v>1.07266437247236</v>
+        <v>0.1300972531004696</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>1.072481749314349</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:12">
+      <c r="M18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.509181779266839</v>
+        <v>3.509056341047597</v>
       </c>
       <c r="C19">
-        <v>1.13790049091233</v>
+        <v>1.137340825799924</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>1.259230478280131</v>
+        <v>1.259921212984395</v>
       </c>
       <c r="F19">
-        <v>2.949234022194844</v>
+        <v>2.948019149044086</v>
       </c>
       <c r="G19">
-        <v>0.8234615286204559</v>
+        <v>0.2706904578165137</v>
       </c>
       <c r="H19">
-        <v>0.3984425334054364</v>
+        <v>0.5548834103351084</v>
       </c>
       <c r="I19">
-        <v>0.1292249314049165</v>
+        <v>0.3973488971866814</v>
       </c>
       <c r="J19">
-        <v>1.062836829600485</v>
+        <v>0.1289432784332973</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>1.062657011387017</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:12">
+      <c r="M19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.654633066025383</v>
+        <v>3.65448574748217</v>
       </c>
       <c r="C20">
-        <v>1.186172174779188</v>
+        <v>1.185582262866774</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>1.313182581101174</v>
+        <v>1.313898970387058</v>
       </c>
       <c r="F20">
-        <v>3.079743966753483</v>
+        <v>3.078475086360953</v>
       </c>
       <c r="G20">
-        <v>0.8549039237165772</v>
+        <v>0.2822859734599206</v>
       </c>
       <c r="H20">
-        <v>0.4090160544757495</v>
+        <v>0.5746232119924031</v>
       </c>
       <c r="I20">
-        <v>0.1344993252417659</v>
+        <v>0.4078830001982752</v>
       </c>
       <c r="J20">
-        <v>1.107172576652474</v>
+        <v>0.1342061746673622</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>1.106979955678653</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:12">
+      <c r="M20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.149820259968408</v>
+        <v>4.149589523980808</v>
       </c>
       <c r="C21">
-        <v>1.351260475672063</v>
+        <v>1.350563580364394</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>1.497956528371361</v>
+        <v>1.498758710900873</v>
       </c>
       <c r="F21">
-        <v>3.530191474712296</v>
+        <v>3.528732781516084</v>
       </c>
       <c r="G21">
-        <v>0.9671545771386718</v>
+        <v>0.3234360716495104</v>
       </c>
       <c r="H21">
-        <v>0.44877558207736</v>
+        <v>0.6453493459942479</v>
       </c>
       <c r="I21">
-        <v>0.1535626931124554</v>
+        <v>0.4475045503779569</v>
       </c>
       <c r="J21">
-        <v>1.258294593464214</v>
+        <v>0.1532288922966814</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>1.258055434186389</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:12">
+      <c r="M21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4.479170854529968</v>
+        <v>4.47887684373103</v>
       </c>
       <c r="C22">
-        <v>1.461712512188342</v>
+        <v>1.460940924407282</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>1.621806957005077</v>
+        <v>1.622664799911988</v>
       </c>
       <c r="F22">
-        <v>3.834914988620966</v>
+        <v>3.833324645663083</v>
       </c>
       <c r="G22">
-        <v>1.046133349092472</v>
+        <v>0.3521989566363857</v>
       </c>
       <c r="H22">
-        <v>0.4783289471218097</v>
+        <v>0.6953076513665621</v>
       </c>
       <c r="I22">
-        <v>0.1671780303325541</v>
+        <v>0.4769628458252697</v>
       </c>
       <c r="J22">
-        <v>1.358964075461174</v>
+        <v>0.1668158583072064</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>1.358691376950574</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:12">
+      <c r="M22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.302806574048475</v>
+        <v>4.302547232415805</v>
       </c>
       <c r="C23">
-        <v>1.402500949697242</v>
+        <v>1.401769718213473</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>1.555389683617605</v>
+        <v>1.55621786573208</v>
       </c>
       <c r="F23">
-        <v>3.671235042058839</v>
+        <v>3.669715755598759</v>
       </c>
       <c r="G23">
-        <v>1.003419319598407</v>
+        <v>0.3366603734100693</v>
       </c>
       <c r="H23">
-        <v>0.4622008254786323</v>
+        <v>0.6682709959484754</v>
       </c>
       <c r="I23">
-        <v>0.1597946149537606</v>
+        <v>0.4608859662790223</v>
       </c>
       <c r="J23">
-        <v>1.305040629934567</v>
+        <v>0.159447771397069</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>1.304786152849431</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:12">
+      <c r="M23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.646623243001045</v>
+        <v>3.646477160090114</v>
       </c>
       <c r="C24">
-        <v>1.183511338770643</v>
+        <v>1.182923106220699</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>1.310207743641996</v>
+        <v>1.310922725390512</v>
       </c>
       <c r="F24">
-        <v>3.072535386829514</v>
+        <v>3.071269500563318</v>
       </c>
       <c r="G24">
-        <v>0.8531540319845874</v>
+        <v>0.281641520417395</v>
       </c>
       <c r="H24">
-        <v>0.408420456203082</v>
+        <v>0.5735237040762939</v>
       </c>
       <c r="I24">
-        <v>0.1342049976912385</v>
+        <v>0.4072895856386722</v>
       </c>
       <c r="J24">
-        <v>1.104730436518253</v>
+        <v>0.1339124854228402</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>1.104538530710087</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:12">
+      <c r="M24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.957937089433074</v>
+        <v>2.95788394746512</v>
       </c>
       <c r="C25">
-        <v>0.9558447665936569</v>
+        <v>0.9553950327307916</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>1.056055516606392</v>
+        <v>1.056647253279408</v>
       </c>
       <c r="F25">
-        <v>2.462318073847428</v>
+        <v>2.461301168126823</v>
       </c>
       <c r="G25">
-        <v>0.7109193482223191</v>
+        <v>0.228862132862794</v>
       </c>
       <c r="H25">
-        <v>0.3631833259347133</v>
+        <v>0.4845634767528395</v>
       </c>
       <c r="I25">
-        <v>0.1106099738529558</v>
+        <v>0.3622345666626074</v>
       </c>
       <c r="J25">
-        <v>0.8950253349875226</v>
+        <v>0.110370129793754</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>0.894890541882333</v>
       </c>
       <c r="L25">
+        <v>0</v>
+      </c>
+      <c r="M25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_2_23/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_23/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -409,988 +409,1138 @@
       <c r="M1" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.462086301992144</v>
+        <v>1.932825119593076</v>
       </c>
       <c r="C2">
-        <v>0.7929099758512734</v>
+        <v>0.4615066845396427</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.8755265841835751</v>
+        <v>0.07409589704342068</v>
       </c>
       <c r="F2">
-        <v>2.034459509353013</v>
+        <v>7.097830620953289</v>
       </c>
       <c r="G2">
-        <v>0.1942775663037253</v>
+        <v>0.0008551909632654323</v>
       </c>
       <c r="H2">
-        <v>0.4278205287541468</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>0.3376441373400851</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>0.09559800238109872</v>
+        <v>0.7989151648269797</v>
       </c>
       <c r="K2">
-        <v>0.7442672966122927</v>
+        <v>0.5275750998826609</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.00989136132556645</v>
       </c>
       <c r="M2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+        <v>0.1703388542467081</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.130893033825942</v>
+        <v>1.7040856675508</v>
       </c>
       <c r="C3">
-        <v>0.6849835025143989</v>
+        <v>0.3955123429298055</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.755441786544182</v>
+        <v>0.06418625899076247</v>
       </c>
       <c r="F3">
-        <v>1.755607598482513</v>
+        <v>6.395064468279145</v>
       </c>
       <c r="G3">
-        <v>0.1729332671031756</v>
+        <v>0.0008661773365427355</v>
       </c>
       <c r="H3">
-        <v>0.3937290248906038</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>0.3253325585971396</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>0.08682566319741625</v>
+        <v>0.7230412591788706</v>
       </c>
       <c r="K3">
-        <v>0.643801135166008</v>
+        <v>0.4597121096501908</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>0.009346439068300683</v>
       </c>
       <c r="M3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+        <v>0.1524744147919179</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.929290391543049</v>
+        <v>1.568751651922298</v>
       </c>
       <c r="C4">
-        <v>0.6195253002129562</v>
+        <v>0.3559090011173396</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.6826984113751848</v>
+        <v>0.05821576672193274</v>
       </c>
       <c r="F4">
-        <v>1.588536786818736</v>
+        <v>5.972844954673945</v>
       </c>
       <c r="G4">
-        <v>0.1606958511361611</v>
+        <v>0.0008730723011887395</v>
       </c>
       <c r="H4">
-        <v>0.3746333607101491</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>0.3196326358680359</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>0.08194922964855422</v>
+        <v>0.6772809668187705</v>
       </c>
       <c r="K4">
-        <v>0.5827043437794046</v>
+        <v>0.4193600082833555</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>0.00923027326934367</v>
       </c>
       <c r="M4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+        <v>0.1421931935908312</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.847493367944224</v>
+        <v>1.514747138815864</v>
       </c>
       <c r="C5">
-        <v>0.593017860063668</v>
+        <v>0.3399654932657938</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.653260603875836</v>
+        <v>0.05580678070939982</v>
       </c>
       <c r="F5">
-        <v>1.521362903830067</v>
+        <v>5.802787959993196</v>
       </c>
       <c r="G5">
-        <v>0.1559050661590931</v>
+        <v>0.0008759224925714012</v>
       </c>
       <c r="H5">
-        <v>0.3672709732766393</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>0.3177384783432622</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>0.08007674180155888</v>
+        <v>0.658803191751943</v>
       </c>
       <c r="K5">
-        <v>0.5579279054388522</v>
+        <v>0.4032072957702937</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>0.009233217482556455</v>
       </c>
       <c r="M5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>0.1381604696561567</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.833930357167048</v>
+        <v>1.50584506033735</v>
       </c>
       <c r="C6">
-        <v>0.5886254291730779</v>
+        <v>0.337328904052498</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.6483837188325339</v>
+        <v>0.05540809483423459</v>
       </c>
       <c r="F6">
-        <v>1.510259930732062</v>
+        <v>5.774661841865822</v>
       </c>
       <c r="G6">
-        <v>0.1551207869112332</v>
+        <v>0.0008763982867216796</v>
       </c>
       <c r="H6">
-        <v>0.3660725981145347</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>0.3174487632048724</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>0.07977237350063149</v>
+        <v>0.655744193022997</v>
       </c>
       <c r="K6">
-        <v>0.5538203515752542</v>
+        <v>0.4005416437033062</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>0.009236616636568939</v>
       </c>
       <c r="M6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>0.1374998839718025</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.928185904067959</v>
+        <v>1.568018866592325</v>
       </c>
       <c r="C7">
-        <v>0.6191671796087235</v>
+        <v>0.3556932354489106</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.6823006239259257</v>
+        <v>0.05818318678177192</v>
       </c>
       <c r="F7">
-        <v>1.587627344873738</v>
+        <v>5.970543821993772</v>
       </c>
       <c r="G7">
-        <v>0.1606304751109349</v>
+        <v>0.0008731105724346609</v>
       </c>
       <c r="H7">
-        <v>0.3745324251509459</v>
+        <v>0</v>
       </c>
       <c r="I7">
-        <v>0.3196054043407699</v>
+        <v>0</v>
       </c>
       <c r="J7">
-        <v>0.08192352912800516</v>
+        <v>0.6770311286116595</v>
       </c>
       <c r="K7">
-        <v>0.5823697445090019</v>
+        <v>0.4191410382126008</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>0.009230115169213349</v>
       </c>
       <c r="M7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>0.1421381912161017</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.347475166409367</v>
+        <v>1.852805260540805</v>
       </c>
       <c r="C8">
-        <v>0.7555061752885308</v>
+        <v>0.4385388291724155</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.8338888403080205</v>
+        <v>0.07065243664448317</v>
       </c>
       <c r="F8">
-        <v>1.937366887061273</v>
+        <v>6.85337928747029</v>
       </c>
       <c r="G8">
-        <v>0.1867239026959098</v>
+        <v>0.0008589499147393725</v>
       </c>
       <c r="H8">
-        <v>0.4156577825583767</v>
+        <v>0</v>
       </c>
       <c r="I8">
-        <v>0.3329886836419576</v>
+        <v>0</v>
       </c>
       <c r="J8">
-        <v>0.09245894435105839</v>
+        <v>0.77255824602166</v>
       </c>
       <c r="K8">
-        <v>0.7094868983006961</v>
+        <v>0.5038774713197398</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>0.009655189689373955</v>
       </c>
       <c r="M8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>0.1640263278215208</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.187778370742421</v>
+        <v>2.459064943244528</v>
       </c>
       <c r="C9">
-        <v>1.03111515441401</v>
+        <v>0.6101071754221721</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>1.141184666936695</v>
+        <v>0.09624669838808586</v>
       </c>
       <c r="F9">
-        <v>2.662803109561764</v>
+        <v>8.675278365358935</v>
       </c>
       <c r="G9">
-        <v>0.245892908971058</v>
+        <v>0.0008322178076600837</v>
       </c>
       <c r="H9">
-        <v>0.5130089605623951</v>
+        <v>0</v>
       </c>
       <c r="I9">
-        <v>0.3759321914523781</v>
+        <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1178493916070416</v>
+        <v>0.9683807559528077</v>
       </c>
       <c r="K9">
-        <v>0.9648247543062496</v>
+        <v>0.6825367800421134</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>0.01246016372574488</v>
       </c>
       <c r="M9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>0.2132276514697118</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>3.822774513067202</v>
+        <v>2.945329941799287</v>
       </c>
       <c r="C10">
-        <v>1.241530199213798</v>
+        <v>0.7446792534692577</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>1.376542580376807</v>
+        <v>0.1161278961001244</v>
       </c>
       <c r="F10">
-        <v>3.230466051943068</v>
+        <v>10.09644515806517</v>
       </c>
       <c r="G10">
-        <v>0.2959856861068175</v>
+        <v>0.0008129730421510937</v>
       </c>
       <c r="H10">
-        <v>0.598059559515363</v>
+        <v>0</v>
       </c>
       <c r="I10">
-        <v>0.4207068875155642</v>
+        <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1404813206526683</v>
+        <v>1.120538368394421</v>
       </c>
       <c r="K10">
-        <v>1.158299843092095</v>
+        <v>0.8247347437681469</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>0.01610928224896213</v>
       </c>
       <c r="M10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>0.254542124392291</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.117194009261084</v>
+        <v>3.178596338810166</v>
       </c>
       <c r="C11">
-        <v>1.339732889425534</v>
+        <v>0.8085584149062583</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>1.486610537137594</v>
+        <v>0.1255085932982283</v>
       </c>
       <c r="F11">
-        <v>3.498986224798841</v>
+        <v>10.76825739178526</v>
       </c>
       <c r="G11">
-        <v>0.3206658513020528</v>
+        <v>0.0008042404160376208</v>
       </c>
       <c r="H11">
-        <v>0.6405586503297229</v>
+        <v>0</v>
       </c>
       <c r="I11">
-        <v>0.4447384698701882</v>
+        <v>0</v>
       </c>
       <c r="J11">
-        <v>0.1519323923946985</v>
+        <v>1.192393492746845</v>
       </c>
       <c r="K11">
-        <v>1.248161651938446</v>
+        <v>0.8927025163610409</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>0.01821981035266163</v>
       </c>
       <c r="M11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>0.2748249305776582</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.22964758683969</v>
+        <v>3.268984888201032</v>
       </c>
       <c r="C12">
-        <v>1.377350789605941</v>
+        <v>0.8332125692286638</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>1.528812048278326</v>
+        <v>0.1291194889787128</v>
       </c>
       <c r="F12">
-        <v>3.602413876222272</v>
+        <v>11.02703152690987</v>
       </c>
       <c r="G12">
-        <v>0.3303280001089064</v>
+        <v>0.00080093039091354</v>
       </c>
       <c r="H12">
-        <v>0.6572845573852248</v>
+        <v>0</v>
       </c>
       <c r="I12">
-        <v>0.4544424968429865</v>
+        <v>0</v>
       </c>
       <c r="J12">
-        <v>0.1564638270208221</v>
+        <v>1.220066231010094</v>
       </c>
       <c r="K12">
-        <v>1.282510882980034</v>
+        <v>0.9190034659581841</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>0.01909455971726004</v>
       </c>
       <c r="M12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>0.2827568185156011</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.205382991325621</v>
+        <v>3.249420941772428</v>
       </c>
       <c r="C13">
-        <v>1.369228661488876</v>
+        <v>0.8278807359405675</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>1.519698448398799</v>
+        <v>0.1283390288049056</v>
       </c>
       <c r="F13">
-        <v>3.580056640023287</v>
+        <v>10.97109236270654</v>
       </c>
       <c r="G13">
-        <v>0.328232245105724</v>
+        <v>0.0008016435171864379</v>
       </c>
       <c r="H13">
-        <v>0.6536527283667652</v>
+        <v>0</v>
       </c>
       <c r="I13">
-        <v>0.4523243638023047</v>
+        <v>0</v>
       </c>
       <c r="J13">
-        <v>0.1554787103138864</v>
+        <v>1.214084347951257</v>
       </c>
       <c r="K13">
-        <v>1.275097953526057</v>
+        <v>0.9133124170014781</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>0.01890261497332091</v>
       </c>
       <c r="M13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>0.2810367063591386</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.126425304128134</v>
+        <v>3.185989418025429</v>
       </c>
       <c r="C14">
-        <v>1.342818646122055</v>
+        <v>0.8105768967603524</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>1.490071475249934</v>
+        <v>0.1258044240581455</v>
       </c>
       <c r="F14">
-        <v>3.50745865360409</v>
+        <v>10.78945460318351</v>
       </c>
       <c r="G14">
-        <v>0.3214541476055217</v>
+        <v>0.0008039682019396532</v>
       </c>
       <c r="H14">
-        <v>0.6419214979584495</v>
+        <v>0</v>
       </c>
       <c r="I14">
-        <v>0.4455242452523365</v>
+        <v>0</v>
       </c>
       <c r="J14">
-        <v>0.1523011024266836</v>
+        <v>1.194660342422736</v>
       </c>
       <c r="K14">
-        <v>1.250980819830161</v>
+        <v>0.8948544468943709</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>0.01829019407544763</v>
       </c>
       <c r="M14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>0.275472219798317</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.078192155414229</v>
+        <v>3.14741398032595</v>
       </c>
       <c r="C15">
-        <v>1.326700198838182</v>
+        <v>0.8000409638852375</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>1.471994854226466</v>
+        <v>0.1242598736904554</v>
       </c>
       <c r="F15">
-        <v>3.463226050595551</v>
+        <v>10.6787896423312</v>
       </c>
       <c r="G15">
-        <v>0.3173449761946046</v>
+        <v>0.0008053915195734602</v>
       </c>
       <c r="H15">
-        <v>0.6348208588099595</v>
+        <v>0</v>
       </c>
       <c r="I15">
-        <v>0.441440077599438</v>
+        <v>0</v>
       </c>
       <c r="J15">
-        <v>0.1503810801655625</v>
+        <v>1.182825560972674</v>
       </c>
       <c r="K15">
-        <v>1.236251871762221</v>
+        <v>0.8836247127296986</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>0.01792525799463363</v>
       </c>
       <c r="M15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>0.2720977459375149</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>3.803658856084724</v>
+        <v>2.93035435099705</v>
       </c>
       <c r="C16">
-        <v>1.235168449861817</v>
+        <v>0.7405648253389359</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>1.369417141370889</v>
+        <v>0.1155224549067562</v>
       </c>
       <c r="F16">
-        <v>3.213146503408865</v>
+        <v>10.05311000331645</v>
       </c>
       <c r="G16">
-        <v>0.2944144995478837</v>
+        <v>0.0008135436640479022</v>
       </c>
       <c r="H16">
-        <v>0.5953657653161741</v>
+        <v>0</v>
       </c>
       <c r="I16">
-        <v>0.4192164250662813</v>
+        <v>0</v>
       </c>
       <c r="J16">
-        <v>0.1397585966782486</v>
+        <v>1.115902368300681</v>
       </c>
       <c r="K16">
-        <v>1.15246886879261</v>
+        <v>0.8203663550956435</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>0.01598129658107439</v>
       </c>
       <c r="M16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>0.2532495796585295</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.636774753971679</v>
+        <v>2.800496229904752</v>
       </c>
       <c r="C17">
-        <v>1.179701939271524</v>
+        <v>0.7048136629761075</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>1.307317593337757</v>
+        <v>0.1102553071596013</v>
       </c>
       <c r="F17">
-        <v>3.062543285466404</v>
+        <v>9.676244520033691</v>
       </c>
       <c r="G17">
-        <v>0.2808616831402162</v>
+        <v>0.0008185461775895178</v>
       </c>
       <c r="H17">
-        <v>0.5721935858588267</v>
+        <v>0</v>
       </c>
       <c r="I17">
-        <v>0.4065727311431502</v>
+        <v>0</v>
       </c>
       <c r="J17">
-        <v>0.1335572834104575</v>
+        <v>1.075577927598204</v>
       </c>
       <c r="K17">
-        <v>1.101580841272366</v>
+        <v>0.7824598625961698</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>0.01491120463280637</v>
       </c>
       <c r="M17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>0.2420925624807104</v>
+      </c>
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.54129938201163</v>
+        <v>2.726918432057175</v>
       </c>
       <c r="C18">
-        <v>1.148027888014127</v>
+        <v>0.6844954127370215</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>1.271876108853391</v>
+        <v>0.1072567669820863</v>
       </c>
       <c r="F18">
-        <v>2.976870689656323</v>
+        <v>9.461814020395678</v>
       </c>
       <c r="G18">
-        <v>0.2732416355702298</v>
+        <v>0.000821425987633929</v>
       </c>
       <c r="H18">
-        <v>0.5592183846132457</v>
+        <v>0</v>
       </c>
       <c r="I18">
-        <v>0.3996400350812905</v>
+        <v>0</v>
       </c>
       <c r="J18">
-        <v>0.1300972531004696</v>
+        <v>1.052626931899908</v>
       </c>
       <c r="K18">
-        <v>1.072481749314349</v>
+        <v>0.7609595936142313</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>0.01433737756490316</v>
       </c>
       <c r="M18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>0.2358128867164204</v>
+      </c>
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.509056341047597</v>
+        <v>2.702188536293988</v>
       </c>
       <c r="C19">
-        <v>1.137340825799924</v>
+        <v>0.6776557953396605</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>1.259921212984395</v>
+        <v>0.106246549858767</v>
       </c>
       <c r="F19">
-        <v>2.948019149044086</v>
+        <v>9.389591745131753</v>
       </c>
       <c r="G19">
-        <v>0.2706904578165137</v>
+        <v>0.0008224016465768145</v>
       </c>
       <c r="H19">
-        <v>0.5548834103351084</v>
+        <v>0</v>
       </c>
       <c r="I19">
-        <v>0.3973488971866814</v>
+        <v>0</v>
       </c>
       <c r="J19">
-        <v>0.1289432784332973</v>
+        <v>1.044895455453826</v>
       </c>
       <c r="K19">
-        <v>1.062657011387017</v>
+        <v>0.7537294062363458</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>0.01414994732341768</v>
       </c>
       <c r="M19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>0.2337092915892818</v>
+      </c>
+      <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.65448574748217</v>
+        <v>2.814202490078685</v>
       </c>
       <c r="C20">
-        <v>1.185582262866774</v>
+        <v>0.7085935448146756</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>1.313898970387058</v>
+        <v>0.1108127286451008</v>
       </c>
       <c r="F20">
-        <v>3.078475086360953</v>
+        <v>9.716116156032285</v>
       </c>
       <c r="G20">
-        <v>0.2822859734599206</v>
+        <v>0.0008180134353359687</v>
       </c>
       <c r="H20">
-        <v>0.5746232119924031</v>
+        <v>0</v>
       </c>
       <c r="I20">
-        <v>0.4078830001982752</v>
+        <v>0</v>
       </c>
       <c r="J20">
-        <v>0.1342061746673622</v>
+        <v>1.079844868786665</v>
       </c>
       <c r="K20">
-        <v>1.106979955678653</v>
+        <v>0.7864631507540167</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>0.01502073401543313</v>
       </c>
       <c r="M20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>0.2432657620777263</v>
+      </c>
+      <c r="N20">
+        <v>0</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.149589523980808</v>
+        <v>3.204562161413605</v>
       </c>
       <c r="C21">
-        <v>1.350563580364394</v>
+        <v>0.8156461223422298</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>1.498758710900873</v>
+        <v>0.1265472175749096</v>
       </c>
       <c r="F21">
-        <v>3.528732781516084</v>
+        <v>10.84268086188365</v>
       </c>
       <c r="G21">
-        <v>0.3234360716495104</v>
+        <v>0.0008032855273346696</v>
       </c>
       <c r="H21">
-        <v>0.6453493459942479</v>
+        <v>0</v>
       </c>
       <c r="I21">
-        <v>0.4475045503779569</v>
+        <v>0</v>
       </c>
       <c r="J21">
-        <v>0.1532288922966814</v>
+        <v>1.200352348675295</v>
       </c>
       <c r="K21">
-        <v>1.258055434186389</v>
+        <v>0.9002599118638557</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>0.01846793147438319</v>
       </c>
       <c r="M21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>0.2770994963188969</v>
+      </c>
+      <c r="N21">
+        <v>0</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4.47887684373103</v>
+        <v>3.471859389912083</v>
       </c>
       <c r="C22">
-        <v>1.460940924407282</v>
+        <v>0.8883679073069288</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>1.622664799911988</v>
+        <v>0.137178434790119</v>
       </c>
       <c r="F22">
-        <v>3.833324645663083</v>
+        <v>11.60488309533162</v>
       </c>
       <c r="G22">
-        <v>0.3521989566363857</v>
+        <v>0.0007936377520522346</v>
       </c>
       <c r="H22">
-        <v>0.6953076513665621</v>
+        <v>0</v>
       </c>
       <c r="I22">
-        <v>0.4769628458252697</v>
+        <v>0</v>
       </c>
       <c r="J22">
-        <v>0.1668158583072064</v>
+        <v>1.28185790281205</v>
       </c>
       <c r="K22">
-        <v>1.358691376950574</v>
+        <v>0.9779692513436231</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>0.02116765122291753</v>
       </c>
       <c r="M22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>0.3006985808683567</v>
+      </c>
+      <c r="N22">
+        <v>0</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.302547232415805</v>
+        <v>3.327962158863215</v>
       </c>
       <c r="C23">
-        <v>1.401769718213473</v>
+        <v>0.8492716406420584</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>1.55621786573208</v>
+        <v>0.1314686748302272</v>
       </c>
       <c r="F23">
-        <v>3.669715755598759</v>
+        <v>11.19543299983934</v>
       </c>
       <c r="G23">
-        <v>0.3366603734100693</v>
+        <v>0.0007987913696497001</v>
       </c>
       <c r="H23">
-        <v>0.6682709959484754</v>
+        <v>0</v>
       </c>
       <c r="I23">
-        <v>0.4608859662790223</v>
+        <v>0</v>
       </c>
       <c r="J23">
-        <v>0.159447771397069</v>
+        <v>1.238074061490863</v>
       </c>
       <c r="K23">
-        <v>1.304786152849431</v>
+        <v>0.9361544423456678</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>0.01968179610830489</v>
       </c>
       <c r="M23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>0.2879531431631364</v>
+      </c>
+      <c r="N23">
+        <v>0</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.646477160090114</v>
+        <v>2.808002551353354</v>
       </c>
       <c r="C24">
-        <v>1.182923106220699</v>
+        <v>0.7068839324568614</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>1.310922725390512</v>
+        <v>0.1105606268993711</v>
       </c>
       <c r="F24">
-        <v>3.071269500563318</v>
+        <v>9.698083283165005</v>
       </c>
       <c r="G24">
-        <v>0.281641520417395</v>
+        <v>0.0008182542758883448</v>
       </c>
       <c r="H24">
-        <v>0.5735237040762939</v>
+        <v>0</v>
       </c>
       <c r="I24">
-        <v>0.4072895856386722</v>
+        <v>0</v>
       </c>
       <c r="J24">
-        <v>0.1339124854228402</v>
+        <v>1.077915067950642</v>
       </c>
       <c r="K24">
-        <v>1.104538530710087</v>
+        <v>0.7846523592150163</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>0.01497108766834998</v>
       </c>
       <c r="M24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>0.2427349418772593</v>
+      </c>
+      <c r="N24">
+        <v>0</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.95788394746512</v>
+        <v>2.288833061143464</v>
       </c>
       <c r="C25">
-        <v>0.9553950327307916</v>
+        <v>0.562438201164781</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>1.056647253279408</v>
+        <v>0.08916435999661587</v>
       </c>
       <c r="F25">
-        <v>2.461301168126823</v>
+        <v>8.170105163559754</v>
       </c>
       <c r="G25">
-        <v>0.228862132862794</v>
+        <v>0.0008393610379418948</v>
       </c>
       <c r="H25">
-        <v>0.4845634767528395</v>
+        <v>0</v>
       </c>
       <c r="I25">
-        <v>0.3622345666626074</v>
+        <v>0</v>
       </c>
       <c r="J25">
-        <v>0.110370129793754</v>
+        <v>0.9142012276481353</v>
       </c>
       <c r="K25">
-        <v>0.894890541882333</v>
+        <v>0.6325537468228362</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>0.01145387239345297</v>
       </c>
       <c r="M25">
+        <v>0.1991191121044373</v>
+      </c>
+      <c r="N25">
+        <v>0</v>
+      </c>
+      <c r="O25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_2_23/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_23/res_line/pl_mw.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.932825119593076</v>
+        <v>0.8840359239060263</v>
       </c>
       <c r="C2">
-        <v>0.4615066845396427</v>
+        <v>0.1155062787712602</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.07409589704342068</v>
+        <v>0.1205113854178421</v>
       </c>
       <c r="F2">
-        <v>7.097830620953289</v>
+        <v>0.9178626957402187</v>
       </c>
       <c r="G2">
-        <v>0.0008551909632654323</v>
+        <v>0.2892784637464558</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>0.282447075297064</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>0.3232057261707446</v>
       </c>
       <c r="J2">
-        <v>0.7989151648269797</v>
+        <v>0.0810637021779641</v>
       </c>
       <c r="K2">
-        <v>0.5275750998826609</v>
+        <v>0.7029266245981916</v>
       </c>
       <c r="L2">
-        <v>0.00989136132556645</v>
+        <v>0.3172399621272461</v>
       </c>
       <c r="M2">
-        <v>0.1703388542467081</v>
+        <v>0.2528728397676758</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>0.8665744769259405</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>1.152207555295917</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.7040856675508</v>
+        <v>0.7694542570118017</v>
       </c>
       <c r="C3">
-        <v>0.3955123429298055</v>
+        <v>0.1162878272672465</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.06418625899076247</v>
+        <v>0.1155343798806356</v>
       </c>
       <c r="F3">
-        <v>6.395064468279145</v>
+        <v>0.8812302933142604</v>
       </c>
       <c r="G3">
-        <v>0.0008661773365427355</v>
+        <v>0.2872066477988966</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>0.2862354747689366</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>0.3285288849944301</v>
       </c>
       <c r="J3">
-        <v>0.7230412591788706</v>
+        <v>0.07390211027755811</v>
       </c>
       <c r="K3">
-        <v>0.4597121096501908</v>
+        <v>0.6150814952592469</v>
       </c>
       <c r="L3">
-        <v>0.009346439068300683</v>
+        <v>0.2894567101003389</v>
       </c>
       <c r="M3">
-        <v>0.1524744147919179</v>
+        <v>0.2224451304676087</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>0.8989280033243823</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>1.155454483154188</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.568751651922298</v>
+        <v>0.6991488223648332</v>
       </c>
       <c r="C4">
-        <v>0.3559090011173396</v>
+        <v>0.1168074376771706</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.05821576672193274</v>
+        <v>0.1125938701056342</v>
       </c>
       <c r="F4">
-        <v>5.972844954673945</v>
+        <v>0.8600008900298874</v>
       </c>
       <c r="G4">
-        <v>0.0008730723011887395</v>
+        <v>0.2865043718789266</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>0.2889319897782627</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>0.3323118902258493</v>
       </c>
       <c r="J4">
-        <v>0.6772809668187705</v>
+        <v>0.0694898083677451</v>
       </c>
       <c r="K4">
-        <v>0.4193600082833555</v>
+        <v>0.5610593156939956</v>
       </c>
       <c r="L4">
-        <v>0.00923027326934367</v>
+        <v>0.2726309121853632</v>
       </c>
       <c r="M4">
-        <v>0.1421931935908312</v>
+        <v>0.2038437323070745</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>0.9196764794642025</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>1.159424197723197</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.514747138815864</v>
+        <v>0.6705050509422676</v>
       </c>
       <c r="C5">
-        <v>0.3399654932657938</v>
+        <v>0.1170291241255299</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.05580678070939982</v>
+        <v>0.111423741601147</v>
       </c>
       <c r="F5">
-        <v>5.802787959993196</v>
+        <v>0.8516555168737625</v>
       </c>
       <c r="G5">
-        <v>0.0008759224925714012</v>
+        <v>0.2863561958343084</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>0.2901217251781745</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>0.3339793844803012</v>
       </c>
       <c r="J5">
-        <v>0.658803191751943</v>
+        <v>0.06768762996490452</v>
       </c>
       <c r="K5">
-        <v>0.4032072957702937</v>
+        <v>0.5390195048712769</v>
       </c>
       <c r="L5">
-        <v>0.009233217482556455</v>
+        <v>0.2658299520649479</v>
       </c>
       <c r="M5">
-        <v>0.1381604696561567</v>
+        <v>0.1962819143444676</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>0.9283496417850206</v>
       </c>
       <c r="O5">
-        <v>0</v>
+        <v>1.161522849193858</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.50584506033735</v>
+        <v>0.6657489879033278</v>
       </c>
       <c r="C6">
-        <v>0.337328904052498</v>
+        <v>0.1170665339839339</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.05540809483423459</v>
+        <v>0.1112311184333521</v>
       </c>
       <c r="F6">
-        <v>5.774661841865822</v>
+        <v>0.8502879055525341</v>
       </c>
       <c r="G6">
-        <v>0.0008763982867216796</v>
+        <v>0.2863397760854909</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>0.2903247045414332</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>0.3342637740825936</v>
       </c>
       <c r="J6">
-        <v>0.655744193022997</v>
+        <v>0.0673881204177178</v>
       </c>
       <c r="K6">
-        <v>0.4005416437033062</v>
+        <v>0.5353581690128806</v>
       </c>
       <c r="L6">
-        <v>0.009236616636568939</v>
+        <v>0.2647039372029383</v>
       </c>
       <c r="M6">
-        <v>0.1374998839718025</v>
+        <v>0.1950273336599047</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>0.9298028625219938</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>1.161899923149022</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.568018866592325</v>
+        <v>0.6987625045903769</v>
       </c>
       <c r="C7">
-        <v>0.3556932354489106</v>
+        <v>0.1168103872316664</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.05818318678177192</v>
+        <v>0.1125779764685788</v>
       </c>
       <c r="F7">
-        <v>5.970543821993772</v>
+        <v>0.859887118597122</v>
       </c>
       <c r="G7">
-        <v>0.0008731105724346609</v>
+        <v>0.2865018215670219</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>0.2889476699035214</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>0.3323338734477197</v>
       </c>
       <c r="J7">
-        <v>0.6770311286116595</v>
+        <v>0.06946552072461998</v>
       </c>
       <c r="K7">
-        <v>0.4191410382126008</v>
+        <v>0.5607621867732178</v>
       </c>
       <c r="L7">
-        <v>0.009230115169213349</v>
+        <v>0.2725389703945638</v>
       </c>
       <c r="M7">
-        <v>0.1421381912161017</v>
+        <v>0.2037416791126461</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>0.9197925714481041</v>
       </c>
       <c r="O7">
-        <v>0</v>
+        <v>1.159450574087558</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.852805260540805</v>
+        <v>0.8445145170749129</v>
       </c>
       <c r="C8">
-        <v>0.4385388291724155</v>
+        <v>0.1157674774630664</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.07065243664448317</v>
+        <v>0.1187708328935351</v>
       </c>
       <c r="F8">
-        <v>6.85337928747029</v>
+        <v>0.9049624302512953</v>
       </c>
       <c r="G8">
-        <v>0.0008589499147393725</v>
+        <v>0.2884425906766168</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>0.2836750450479073</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>0.3249322052846644</v>
       </c>
       <c r="J8">
-        <v>0.77255824602166</v>
+        <v>0.07859729702691709</v>
       </c>
       <c r="K8">
-        <v>0.5038774713197398</v>
+        <v>0.6726527559691249</v>
       </c>
       <c r="L8">
-        <v>0.009655189689373955</v>
+        <v>0.307610061809342</v>
       </c>
       <c r="M8">
-        <v>0.1640263278215208</v>
+        <v>0.242363210676757</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>0.8775441252211795</v>
       </c>
       <c r="O8">
-        <v>0</v>
+        <v>1.15290716759273</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2.459064943244528</v>
+        <v>1.131008805078409</v>
       </c>
       <c r="C9">
-        <v>0.6101071754221721</v>
+        <v>0.1140401278642358</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.09624669838808586</v>
+        <v>0.1318718360226008</v>
       </c>
       <c r="F9">
-        <v>8.675278365358935</v>
+        <v>1.00393723145794</v>
       </c>
       <c r="G9">
-        <v>0.0008322178076600837</v>
+        <v>0.2970184636731119</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>0.2763809648145923</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>0.3146645590071522</v>
       </c>
       <c r="J9">
-        <v>0.9683807559528077</v>
+        <v>0.0964021733716649</v>
       </c>
       <c r="K9">
-        <v>0.6825367800421134</v>
+        <v>0.8915972774915701</v>
       </c>
       <c r="L9">
-        <v>0.01246016372574488</v>
+        <v>0.3783779594132426</v>
       </c>
       <c r="M9">
-        <v>0.2132276514697118</v>
+        <v>0.3188462239370864</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>0.8018944644919301</v>
       </c>
       <c r="O9">
-        <v>0</v>
+        <v>1.156505484286754</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>2.945329941799287</v>
+        <v>1.342357422253201</v>
       </c>
       <c r="C10">
-        <v>0.7446792534692577</v>
+        <v>0.112968568070773</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.1161278961001244</v>
+        <v>0.1421412072289705</v>
       </c>
       <c r="F10">
-        <v>10.09644515806517</v>
+        <v>1.083925472058041</v>
       </c>
       <c r="G10">
-        <v>0.0008129730421510937</v>
+        <v>0.3065887032599477</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>0.2730331290342107</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>0.3099475422882918</v>
       </c>
       <c r="J10">
-        <v>1.120538368394421</v>
+        <v>0.1094465954941981</v>
       </c>
       <c r="K10">
-        <v>0.8247347437681469</v>
+        <v>1.052479412155151</v>
       </c>
       <c r="L10">
-        <v>0.01610928224896213</v>
+        <v>0.4317994146998956</v>
       </c>
       <c r="M10">
-        <v>0.254542124392291</v>
+        <v>0.3756460151105259</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>0.7509769520646437</v>
       </c>
       <c r="O10">
-        <v>0</v>
+        <v>1.170256161610396</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>3.178596338810166</v>
+        <v>1.438799361462657</v>
       </c>
       <c r="C11">
-        <v>0.8085584149062583</v>
+        <v>0.1125249120102723</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.1255085932982283</v>
+        <v>0.1469669924059147</v>
       </c>
       <c r="F11">
-        <v>10.76825739178526</v>
+        <v>1.122084091201344</v>
       </c>
       <c r="G11">
-        <v>0.0008042404160376208</v>
+        <v>0.3117365975797171</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>0.2719828311745189</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>0.3084705708402495</v>
       </c>
       <c r="J11">
-        <v>1.192393492746845</v>
+        <v>0.1153788404606857</v>
       </c>
       <c r="K11">
-        <v>0.8927025163610409</v>
+        <v>1.125748547315396</v>
       </c>
       <c r="L11">
-        <v>0.01821981035266163</v>
+        <v>0.4564622185179843</v>
       </c>
       <c r="M11">
-        <v>0.2748249305776582</v>
+        <v>0.401653726880113</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>0.7288890983420941</v>
       </c>
       <c r="O11">
-        <v>0</v>
+        <v>1.17917757297738</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>3.268984888201032</v>
+        <v>1.47537135399034</v>
       </c>
       <c r="C12">
-        <v>0.8332125692286638</v>
+        <v>0.1123632965190247</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.1291194889787128</v>
+        <v>0.1488177798644585</v>
       </c>
       <c r="F12">
-        <v>11.02703152690987</v>
+        <v>1.136805141078966</v>
       </c>
       <c r="G12">
-        <v>0.00080093039091354</v>
+        <v>0.3138075992201266</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>0.2716562607282995</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>0.3080123151300853</v>
       </c>
       <c r="J12">
-        <v>1.220066231010094</v>
+        <v>0.1176254754930284</v>
       </c>
       <c r="K12">
-        <v>0.9190034659581841</v>
+        <v>1.153511898147968</v>
       </c>
       <c r="L12">
-        <v>0.01909455971726004</v>
+        <v>0.4658575823611386</v>
       </c>
       <c r="M12">
-        <v>0.2827568185156011</v>
+        <v>0.4115295648466386</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>0.7206852504450474</v>
       </c>
       <c r="O12">
-        <v>0</v>
+        <v>1.182961643109593</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>3.249420941772428</v>
+        <v>1.467492486316274</v>
       </c>
       <c r="C13">
-        <v>0.8278807359405675</v>
+        <v>0.1123978177307556</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.1283390288049056</v>
+        <v>0.1484181207105557</v>
       </c>
       <c r="F13">
-        <v>10.97109236270654</v>
+        <v>1.133622365729735</v>
       </c>
       <c r="G13">
-        <v>0.0008016435171864379</v>
+        <v>0.3133560416008052</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>0.2717233762094153</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>0.3081064345841185</v>
       </c>
       <c r="J13">
-        <v>1.214084347951257</v>
+        <v>0.1171416047633116</v>
       </c>
       <c r="K13">
-        <v>0.9133124170014781</v>
+        <v>1.147531667205357</v>
       </c>
       <c r="L13">
-        <v>0.01890261497332091</v>
+        <v>0.4638315588848911</v>
       </c>
       <c r="M13">
-        <v>0.2810367063591386</v>
+        <v>0.4094013641348297</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>0.722444869089454</v>
       </c>
       <c r="O13">
-        <v>0</v>
+        <v>1.182128262162578</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>3.185989418025429</v>
+        <v>1.441807077342503</v>
       </c>
       <c r="C14">
-        <v>0.8105768967603524</v>
+        <v>0.1125114872578017</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.1258044240581455</v>
+        <v>0.147118782422627</v>
       </c>
       <c r="F14">
-        <v>10.78945460318351</v>
+        <v>1.123289667901503</v>
       </c>
       <c r="G14">
-        <v>0.0008039682019396532</v>
+        <v>0.3119044992345437</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>0.271954519082179</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>0.3084308160480447</v>
       </c>
       <c r="J14">
-        <v>1.194660342422736</v>
+        <v>0.1155636652253449</v>
       </c>
       <c r="K14">
-        <v>0.8948544468943709</v>
+        <v>1.128032260050816</v>
       </c>
       <c r="L14">
-        <v>0.01829019407544763</v>
+        <v>0.4572340318017041</v>
       </c>
       <c r="M14">
-        <v>0.275472219798317</v>
+        <v>0.4024656536931701</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>0.7282109150636558</v>
       </c>
       <c r="O14">
-        <v>0</v>
+        <v>1.179480626989118</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>3.14741398032595</v>
+        <v>1.426080997819582</v>
       </c>
       <c r="C15">
-        <v>0.8000409638852375</v>
+        <v>0.1125819477185104</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.1242598736904554</v>
+        <v>0.1463259798380001</v>
       </c>
       <c r="F15">
-        <v>10.6787896423312</v>
+        <v>1.116996415448682</v>
       </c>
       <c r="G15">
-        <v>0.0008053915195734602</v>
+        <v>0.3110314503113401</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>0.2721054648727801</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>0.308642816479292</v>
       </c>
       <c r="J15">
-        <v>1.182825560972674</v>
+        <v>0.1145971751064394</v>
       </c>
       <c r="K15">
-        <v>0.8836247127296986</v>
+        <v>1.116090828236395</v>
       </c>
       <c r="L15">
-        <v>0.01792525799463363</v>
+        <v>0.4532002889738322</v>
       </c>
       <c r="M15">
-        <v>0.2720977459375149</v>
+        <v>0.3982209743691811</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>0.7317638431986602</v>
       </c>
       <c r="O15">
-        <v>0</v>
+        <v>1.177912395524231</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>2.93035435099705</v>
+        <v>1.336061442845192</v>
       </c>
       <c r="C16">
-        <v>0.7405648253389359</v>
+        <v>0.112998450864815</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.1155224549067562</v>
+        <v>0.1418290342961015</v>
       </c>
       <c r="F16">
-        <v>10.05311000331645</v>
+        <v>1.08146875171677</v>
       </c>
       <c r="G16">
-        <v>0.0008135436640479022</v>
+        <v>0.3062688821365569</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>0.2731115478776189</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>0.3100579343036145</v>
       </c>
       <c r="J16">
-        <v>1.115902368300681</v>
+        <v>0.1090589142528486</v>
       </c>
       <c r="K16">
-        <v>0.8203663550956435</v>
+        <v>1.047693274616535</v>
       </c>
       <c r="L16">
-        <v>0.01598129658107439</v>
+        <v>0.4301952598983689</v>
       </c>
       <c r="M16">
-        <v>0.2532495796585295</v>
+        <v>0.3739500029271099</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>0.7524425606809793</v>
       </c>
       <c r="O16">
-        <v>0</v>
+        <v>1.169728657548106</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>2.800496229904752</v>
+        <v>1.280919741849658</v>
       </c>
       <c r="C17">
-        <v>0.7048136629761075</v>
+        <v>0.1132652416303586</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.1102553071596013</v>
+        <v>0.1391106273185621</v>
       </c>
       <c r="F17">
-        <v>9.676244520033691</v>
+        <v>1.060138853521508</v>
       </c>
       <c r="G17">
-        <v>0.0008185461775895178</v>
+        <v>0.3035557756315939</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>0.27385201697696</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>0.3111007458627881</v>
       </c>
       <c r="J17">
-        <v>1.075577927598204</v>
+        <v>0.105661255228398</v>
       </c>
       <c r="K17">
-        <v>0.7824598625961698</v>
+        <v>1.005758985800156</v>
       </c>
       <c r="L17">
-        <v>0.01491120463280637</v>
+        <v>0.4161778012827142</v>
       </c>
       <c r="M17">
-        <v>0.2420925624807104</v>
+        <v>0.3591059282053592</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>0.7654075860841303</v>
       </c>
       <c r="O17">
-        <v>0</v>
+        <v>1.165406572991003</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>2.726918432057175</v>
+        <v>1.249231231571855</v>
       </c>
       <c r="C18">
-        <v>0.6844954127370215</v>
+        <v>0.1134228097181804</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.1072567669820863</v>
+        <v>0.1375615101208041</v>
       </c>
       <c r="F18">
-        <v>9.461814020395678</v>
+        <v>1.048036171291542</v>
       </c>
       <c r="G18">
-        <v>0.000821425987633929</v>
+        <v>0.3020695706537069</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>0.2743222020692073</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>0.3117631900432158</v>
       </c>
       <c r="J18">
-        <v>1.052626931899908</v>
+        <v>0.1037068192769794</v>
       </c>
       <c r="K18">
-        <v>0.7609595936142313</v>
+        <v>0.9816469267025809</v>
       </c>
       <c r="L18">
-        <v>0.01433737756490316</v>
+        <v>0.4081490565271366</v>
       </c>
       <c r="M18">
-        <v>0.2358128867164204</v>
+        <v>0.3505837479626237</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>0.7729655246239844</v>
       </c>
       <c r="O18">
-        <v>0</v>
+        <v>1.163170167289294</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>2.702188536293988</v>
+        <v>1.238506522671912</v>
       </c>
       <c r="C19">
-        <v>0.6776557953396605</v>
+        <v>0.1134768640944266</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.106246549858767</v>
+        <v>0.1370394501302634</v>
       </c>
       <c r="F19">
-        <v>9.389591745131753</v>
+        <v>1.043966385021832</v>
       </c>
       <c r="G19">
-        <v>0.0008224016465768145</v>
+        <v>0.3015789103463149</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>0.2744889107036741</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>0.3119980978035812</v>
       </c>
       <c r="J19">
-        <v>1.044895455453826</v>
+        <v>0.1030450338686748</v>
       </c>
       <c r="K19">
-        <v>0.7537294062363458</v>
+        <v>0.9734840992130671</v>
       </c>
       <c r="L19">
-        <v>0.01414994732341768</v>
+        <v>0.4054363309496978</v>
       </c>
       <c r="M19">
-        <v>0.2337092915892818</v>
+        <v>0.3477009003345444</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>0.7755416535037618</v>
       </c>
       <c r="O19">
-        <v>0</v>
+        <v>1.162455157413916</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>2.814202490078685</v>
+        <v>1.286786759379879</v>
       </c>
       <c r="C20">
-        <v>0.7085935448146756</v>
+        <v>0.1132364145745548</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.1108127286451008</v>
+        <v>0.1393985035920124</v>
       </c>
       <c r="F20">
-        <v>9.716116156032285</v>
+        <v>1.062392190745555</v>
       </c>
       <c r="G20">
-        <v>0.0008180134353359687</v>
+        <v>0.3038368482949565</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>0.2737685867276056</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>0.3109832186912591</v>
       </c>
       <c r="J20">
-        <v>1.079844868786665</v>
+        <v>0.1060229584070242</v>
       </c>
       <c r="K20">
-        <v>0.7864631507540167</v>
+        <v>1.010222150966626</v>
       </c>
       <c r="L20">
-        <v>0.01502073401543313</v>
+        <v>0.417666463662087</v>
       </c>
       <c r="M20">
-        <v>0.2432657620777263</v>
+        <v>0.3606844555756652</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>0.7640169637162906</v>
       </c>
       <c r="O20">
-        <v>0</v>
+        <v>1.165840681650565</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>3.204562161413605</v>
+        <v>1.449350034797675</v>
       </c>
       <c r="C21">
-        <v>0.8156461223422298</v>
+        <v>0.1124779256649546</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.1265472175749096</v>
+        <v>0.1474997855606475</v>
       </c>
       <c r="F21">
-        <v>10.84268086188365</v>
+        <v>1.126317135520381</v>
       </c>
       <c r="G21">
-        <v>0.0008032855273346696</v>
+        <v>0.3123274912117324</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>0.2718846694023753</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>0.3083327550423647</v>
       </c>
       <c r="J21">
-        <v>1.200352348675295</v>
+        <v>0.1160271343935761</v>
       </c>
       <c r="K21">
-        <v>0.9002599118638557</v>
+        <v>1.133759172579403</v>
       </c>
       <c r="L21">
-        <v>0.01846793147438319</v>
+        <v>0.4591703286243103</v>
       </c>
       <c r="M21">
-        <v>0.2770994963188969</v>
+        <v>0.404502075130317</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>0.7265128882540708</v>
       </c>
       <c r="O21">
-        <v>0</v>
+        <v>1.180247106156841</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>3.471859389912083</v>
+        <v>1.555899257467217</v>
       </c>
       <c r="C22">
-        <v>0.8883679073069288</v>
+        <v>0.1120194867824225</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.137178434790119</v>
+        <v>0.1529312445877835</v>
       </c>
       <c r="F22">
-        <v>11.60488309533162</v>
+        <v>1.169684892898502</v>
       </c>
       <c r="G22">
-        <v>0.0007936377520522346</v>
+        <v>0.3185891530780438</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>0.271069774322477</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>0.3071919185032463</v>
       </c>
       <c r="J22">
-        <v>1.28185790281205</v>
+        <v>0.1225669766048725</v>
       </c>
       <c r="K22">
-        <v>0.9779692513436231</v>
+        <v>1.214605281079628</v>
       </c>
       <c r="L22">
-        <v>0.02116765122291753</v>
+        <v>0.4866245777006526</v>
       </c>
       <c r="M22">
-        <v>0.3006985808683567</v>
+        <v>0.4332999440788825</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>0.702939318401377</v>
       </c>
       <c r="O22">
-        <v>0</v>
+        <v>1.192038689291977</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>3.327962158863215</v>
+        <v>1.499001054794036</v>
       </c>
       <c r="C23">
-        <v>0.8492716406420584</v>
+        <v>0.1122607220519818</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.1314686748302272</v>
+        <v>0.1500194440046663</v>
       </c>
       <c r="F23">
-        <v>11.19543299983934</v>
+        <v>1.14638762400125</v>
       </c>
       <c r="G23">
-        <v>0.0007987913696497001</v>
+        <v>0.3151794424303205</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>0.2714655019503311</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>0.3077450152240431</v>
       </c>
       <c r="J23">
-        <v>1.238074061490863</v>
+        <v>0.1190762368593212</v>
       </c>
       <c r="K23">
-        <v>0.9361544423456678</v>
+        <v>1.171444269001938</v>
       </c>
       <c r="L23">
-        <v>0.01968179610830489</v>
+        <v>0.4719401781193682</v>
       </c>
       <c r="M23">
-        <v>0.2879531431631364</v>
+        <v>0.4179142689020097</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>0.7154331997997581</v>
       </c>
       <c r="O23">
-        <v>0</v>
+        <v>1.185520172635535</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>2.808002551353354</v>
+        <v>1.284134240320725</v>
       </c>
       <c r="C24">
-        <v>0.7068839324568614</v>
+        <v>0.1132494342531949</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.1105606268993711</v>
+        <v>0.1392683120487881</v>
       </c>
       <c r="F24">
-        <v>9.698083283165005</v>
+        <v>1.061372959357129</v>
       </c>
       <c r="G24">
-        <v>0.0008182542758883448</v>
+        <v>0.303709546661814</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>0.2738061672385257</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>0.3110361571152218</v>
       </c>
       <c r="J24">
-        <v>1.077915067950642</v>
+        <v>0.1058594357884246</v>
       </c>
       <c r="K24">
-        <v>0.7846523592150163</v>
+        <v>1.008204365274509</v>
       </c>
       <c r="L24">
-        <v>0.01497108766834998</v>
+        <v>0.4169933460235313</v>
       </c>
       <c r="M24">
-        <v>0.2427349418772593</v>
+        <v>0.3599707665812417</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>0.7646453400486948</v>
       </c>
       <c r="O24">
-        <v>0</v>
+        <v>1.165643649033058</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.288833061143464</v>
+        <v>1.053387401474993</v>
       </c>
       <c r="C25">
-        <v>0.562438201164781</v>
+        <v>0.1144730289965814</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.08916435999661587</v>
+        <v>0.1282191350245618</v>
       </c>
       <c r="F25">
-        <v>8.170105163559754</v>
+        <v>0.9759468016449944</v>
       </c>
       <c r="G25">
-        <v>0.0008393610379418948</v>
+        <v>0.2941515746411838</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>0.2780126985358322</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>0.3169637439915043</v>
       </c>
       <c r="J25">
-        <v>0.9142012276481353</v>
+        <v>0.09159387790160167</v>
       </c>
       <c r="K25">
-        <v>0.6325537468228362</v>
+        <v>0.8323865610218206</v>
       </c>
       <c r="L25">
-        <v>0.01145387239345297</v>
+        <v>0.3589986154727001</v>
       </c>
       <c r="M25">
-        <v>0.1991191121044373</v>
+        <v>0.2980603805589652</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>0.8215615968891754</v>
       </c>
       <c r="O25">
-        <v>0</v>
+        <v>1.153663855451995</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_23/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_23/res_line/pl_mw.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.8840359239060263</v>
+        <v>0.4423372620443615</v>
       </c>
       <c r="C2">
-        <v>0.1155062787712602</v>
+        <v>0.2417098412507634</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.1205113854178421</v>
+        <v>0.2686987795881706</v>
       </c>
       <c r="F2">
-        <v>0.9178626957402187</v>
+        <v>1.836695546154772</v>
       </c>
       <c r="G2">
-        <v>0.2892784637464558</v>
+        <v>0.6163131393134691</v>
       </c>
       <c r="H2">
-        <v>0.282447075297064</v>
+        <v>0.7520183341495468</v>
       </c>
       <c r="I2">
-        <v>0.3232057261707446</v>
+        <v>0.8110767506124539</v>
       </c>
       <c r="J2">
-        <v>0.0810637021779641</v>
+        <v>0.05150620814330154</v>
       </c>
       <c r="K2">
-        <v>0.7029266245981916</v>
+        <v>0.2190465789909553</v>
       </c>
       <c r="L2">
-        <v>0.3172399621272461</v>
+        <v>0.4808270014614351</v>
       </c>
       <c r="M2">
-        <v>0.2528728397676758</v>
+        <v>0.2146739711973247</v>
       </c>
       <c r="N2">
-        <v>0.8665744769259405</v>
+        <v>1.769490360394542</v>
       </c>
       <c r="O2">
-        <v>1.152207555295917</v>
+        <v>2.72160220438208</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.7694542570118017</v>
+        <v>0.4090261455812367</v>
       </c>
       <c r="C3">
-        <v>0.1162878272672465</v>
+        <v>0.2423188678529229</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.1155343798806356</v>
+        <v>0.2687063607553917</v>
       </c>
       <c r="F3">
-        <v>0.8812302933142604</v>
+        <v>1.838603649996806</v>
       </c>
       <c r="G3">
-        <v>0.2872066477988966</v>
+        <v>0.6203255851067411</v>
       </c>
       <c r="H3">
-        <v>0.2862354747689366</v>
+        <v>0.7569461940387541</v>
       </c>
       <c r="I3">
-        <v>0.3285288849944301</v>
+        <v>0.8173933545777423</v>
       </c>
       <c r="J3">
-        <v>0.07390211027755811</v>
+        <v>0.04906438470043994</v>
       </c>
       <c r="K3">
-        <v>0.6150814952592469</v>
+        <v>0.1915598534895366</v>
       </c>
       <c r="L3">
-        <v>0.2894567101003389</v>
+        <v>0.4755776925770618</v>
       </c>
       <c r="M3">
-        <v>0.2224451304676087</v>
+        <v>0.2067507222759701</v>
       </c>
       <c r="N3">
-        <v>0.8989280033243823</v>
+        <v>1.784240181819168</v>
       </c>
       <c r="O3">
-        <v>1.155454483154188</v>
+        <v>2.740216012713915</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.6991488223648332</v>
+        <v>0.3886540887799015</v>
       </c>
       <c r="C4">
-        <v>0.1168074376771706</v>
+        <v>0.2427205281803175</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.1125938701056342</v>
+        <v>0.2688002936162128</v>
       </c>
       <c r="F4">
-        <v>0.8600008900298874</v>
+        <v>1.84058562299348</v>
       </c>
       <c r="G4">
-        <v>0.2865043718789266</v>
+        <v>0.6231075154742456</v>
       </c>
       <c r="H4">
-        <v>0.2889319897782627</v>
+        <v>0.7602217726141021</v>
       </c>
       <c r="I4">
-        <v>0.3323118902258493</v>
+        <v>0.8215927703883992</v>
       </c>
       <c r="J4">
-        <v>0.0694898083677451</v>
+        <v>0.04755005896962672</v>
       </c>
       <c r="K4">
-        <v>0.5610593156939956</v>
+        <v>0.1746373594617836</v>
       </c>
       <c r="L4">
-        <v>0.2726309121853632</v>
+        <v>0.4725335737954026</v>
       </c>
       <c r="M4">
-        <v>0.2038437323070745</v>
+        <v>0.2019572681011255</v>
       </c>
       <c r="N4">
-        <v>0.9196764794642025</v>
+        <v>1.793787542713519</v>
       </c>
       <c r="O4">
-        <v>1.159424197723197</v>
+        <v>2.752835465790852</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.6705050509422676</v>
+        <v>0.3803734015592681</v>
       </c>
       <c r="C5">
-        <v>0.1170291241255299</v>
+        <v>0.2428911990224911</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.111423741601147</v>
+        <v>0.2688610879660445</v>
       </c>
       <c r="F5">
-        <v>0.8516555168737625</v>
+        <v>1.841597435765102</v>
       </c>
       <c r="G5">
-        <v>0.2863561958343084</v>
+        <v>0.6243212463147003</v>
       </c>
       <c r="H5">
-        <v>0.2901217251781745</v>
+        <v>0.7616195088344284</v>
       </c>
       <c r="I5">
-        <v>0.3339793844803012</v>
+        <v>0.8233848561061379</v>
       </c>
       <c r="J5">
-        <v>0.06768762996490452</v>
+        <v>0.04692919893648195</v>
       </c>
       <c r="K5">
-        <v>0.5390195048712769</v>
+        <v>0.167730339771353</v>
       </c>
       <c r="L5">
-        <v>0.2658299520649479</v>
+        <v>0.4713382807682081</v>
       </c>
       <c r="M5">
-        <v>0.1962819143444676</v>
+        <v>0.2000220569104165</v>
       </c>
       <c r="N5">
-        <v>0.9283496417850206</v>
+        <v>1.797801697560955</v>
       </c>
       <c r="O5">
-        <v>1.161522849193858</v>
+        <v>2.758277610381072</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.6657489879033278</v>
+        <v>0.3789996941237916</v>
       </c>
       <c r="C6">
-        <v>0.1170665339839339</v>
+        <v>0.2429199616657627</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.1112311184333521</v>
+        <v>0.2688725446761246</v>
       </c>
       <c r="F6">
-        <v>0.8502879055525341</v>
+        <v>1.841777786900806</v>
       </c>
       <c r="G6">
-        <v>0.2863397760854909</v>
+        <v>0.6245276226848162</v>
       </c>
       <c r="H6">
-        <v>0.2903247045414332</v>
+        <v>0.7618554040284025</v>
       </c>
       <c r="I6">
-        <v>0.3342637740825936</v>
+        <v>0.8236873122126624</v>
       </c>
       <c r="J6">
-        <v>0.0673881204177178</v>
+        <v>0.04682587912056491</v>
       </c>
       <c r="K6">
-        <v>0.5353581690128806</v>
+        <v>0.1665827863269698</v>
       </c>
       <c r="L6">
-        <v>0.2647039372029383</v>
+        <v>0.4711425398603524</v>
       </c>
       <c r="M6">
-        <v>0.1950273336599047</v>
+        <v>0.1997018190753757</v>
       </c>
       <c r="N6">
-        <v>0.9298028625219938</v>
+        <v>1.798475708195966</v>
       </c>
       <c r="O6">
-        <v>1.161899923149022</v>
+        <v>2.759199377832303</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.6987625045903769</v>
+        <v>0.3885423262138659</v>
       </c>
       <c r="C7">
-        <v>0.1168103872316664</v>
+        <v>0.2427228015711158</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.1125779764685788</v>
+        <v>0.2688010222556301</v>
       </c>
       <c r="F7">
-        <v>0.859887118597122</v>
+        <v>1.840598441604882</v>
       </c>
       <c r="G7">
-        <v>0.2865018215670219</v>
+        <v>0.6231235600130347</v>
       </c>
       <c r="H7">
-        <v>0.2889476699035214</v>
+        <v>0.7602403681364862</v>
       </c>
       <c r="I7">
-        <v>0.3323338734477197</v>
+        <v>0.8216166118716863</v>
       </c>
       <c r="J7">
-        <v>0.06946552072461998</v>
+        <v>0.04754170103075595</v>
       </c>
       <c r="K7">
-        <v>0.5607621867732178</v>
+        <v>0.1745442527390964</v>
       </c>
       <c r="L7">
-        <v>0.2725389703945638</v>
+        <v>0.4725172703298313</v>
       </c>
       <c r="M7">
-        <v>0.2037416791126461</v>
+        <v>0.2019310953800613</v>
       </c>
       <c r="N7">
-        <v>0.9197925714481041</v>
+        <v>1.793841178736868</v>
       </c>
       <c r="O7">
-        <v>1.159450574087558</v>
+        <v>2.752907646987666</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.8445145170749129</v>
+        <v>0.4308351637702685</v>
       </c>
       <c r="C8">
-        <v>0.1157674774630664</v>
+        <v>0.2419140942743141</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.1187708328935351</v>
+        <v>0.2686829032121345</v>
       </c>
       <c r="F8">
-        <v>0.9049624302512953</v>
+        <v>1.837185478698778</v>
       </c>
       <c r="G8">
-        <v>0.2884425906766168</v>
+        <v>0.6176305964418987</v>
       </c>
       <c r="H8">
-        <v>0.2836750450479073</v>
+        <v>0.7536656536876052</v>
       </c>
       <c r="I8">
-        <v>0.3249322052846644</v>
+        <v>0.8131881368628662</v>
       </c>
       <c r="J8">
-        <v>0.07859729702691709</v>
+        <v>0.05066740020119909</v>
       </c>
       <c r="K8">
-        <v>0.6726527559691249</v>
+        <v>0.2095788885722243</v>
       </c>
       <c r="L8">
-        <v>0.307610061809342</v>
+        <v>0.4789800131338637</v>
       </c>
       <c r="M8">
-        <v>0.242363210676757</v>
+        <v>0.2119273179657775</v>
       </c>
       <c r="N8">
-        <v>0.8775441252211795</v>
+        <v>1.774474261978476</v>
       </c>
       <c r="O8">
-        <v>1.15290716759273</v>
+        <v>2.727773309094431</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.131008805078409</v>
+        <v>0.5143883105395162</v>
       </c>
       <c r="C9">
-        <v>0.1140401278642358</v>
+        <v>0.2405471716466963</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.1318718360226008</v>
+        <v>0.2691569387669439</v>
       </c>
       <c r="F9">
-        <v>1.00393723145794</v>
+        <v>1.836908373122753</v>
       </c>
       <c r="G9">
-        <v>0.2970184636731119</v>
+        <v>0.609382790053715</v>
       </c>
       <c r="H9">
-        <v>0.2763809648145923</v>
+        <v>0.742751436335169</v>
       </c>
       <c r="I9">
-        <v>0.3146645590071522</v>
+        <v>0.7992036723480958</v>
       </c>
       <c r="J9">
-        <v>0.0964021733716649</v>
+        <v>0.05667690671304371</v>
       </c>
       <c r="K9">
-        <v>0.8915972774915701</v>
+        <v>0.2779023283421509</v>
       </c>
       <c r="L9">
-        <v>0.3783779594132426</v>
+        <v>0.4930655696895769</v>
       </c>
       <c r="M9">
-        <v>0.3188462239370864</v>
+        <v>0.2320894431943827</v>
       </c>
       <c r="N9">
-        <v>0.8018944644919301</v>
+        <v>1.74038671590467</v>
       </c>
       <c r="O9">
-        <v>1.156505484286754</v>
+        <v>2.687920409643397</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.342357422253201</v>
+        <v>0.5761214304111775</v>
       </c>
       <c r="C10">
-        <v>0.112968568070773</v>
+        <v>0.2396750696735346</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.1421412072289705</v>
+        <v>0.2699320477185374</v>
       </c>
       <c r="F10">
-        <v>1.083925472058041</v>
+        <v>1.840599013299027</v>
       </c>
       <c r="G10">
-        <v>0.3065887032599477</v>
+        <v>0.6048601623247265</v>
       </c>
       <c r="H10">
-        <v>0.2730331290342107</v>
+        <v>0.7359341039884271</v>
       </c>
       <c r="I10">
-        <v>0.3099475422882918</v>
+        <v>0.7904757020384601</v>
       </c>
       <c r="J10">
-        <v>0.1094465954941981</v>
+        <v>0.06101840809510151</v>
       </c>
       <c r="K10">
-        <v>1.052479412155151</v>
+        <v>0.3278486358509269</v>
       </c>
       <c r="L10">
-        <v>0.4317994146998956</v>
+        <v>0.5042658832520743</v>
       </c>
       <c r="M10">
-        <v>0.3756460151105259</v>
+        <v>0.2472353713282516</v>
       </c>
       <c r="N10">
-        <v>0.7509769520646437</v>
+        <v>1.717708107547303</v>
       </c>
       <c r="O10">
-        <v>1.170256161610396</v>
+        <v>2.664379132346639</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.438799361462657</v>
+        <v>0.6042747781051787</v>
       </c>
       <c r="C11">
-        <v>0.1125249120102723</v>
+        <v>0.2393067547862522</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.1469669924059147</v>
+        <v>0.270376654120728</v>
       </c>
       <c r="F11">
-        <v>1.122084091201344</v>
+        <v>1.843120125971012</v>
       </c>
       <c r="G11">
-        <v>0.3117365975797171</v>
+        <v>0.6031361473839567</v>
       </c>
       <c r="H11">
-        <v>0.2719828311745189</v>
+        <v>0.7330925399761981</v>
       </c>
       <c r="I11">
-        <v>0.3084705708402495</v>
+        <v>0.7868400065571919</v>
       </c>
       <c r="J11">
-        <v>0.1153788404606857</v>
+        <v>0.06297737220194932</v>
       </c>
       <c r="K11">
-        <v>1.125748547315396</v>
+        <v>0.3505121192453373</v>
       </c>
       <c r="L11">
-        <v>0.4564622185179843</v>
+        <v>0.509544254273024</v>
       </c>
       <c r="M11">
-        <v>0.401653726880113</v>
+        <v>0.2541962427651043</v>
       </c>
       <c r="N11">
-        <v>0.7288890983420941</v>
+        <v>1.707903295306089</v>
       </c>
       <c r="O11">
-        <v>1.17917757297738</v>
+        <v>2.65491292044976</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.47537135399034</v>
+        <v>0.6149452406049534</v>
       </c>
       <c r="C12">
-        <v>0.1123632965190247</v>
+        <v>0.239171347061319</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.1488177798644585</v>
+        <v>0.2705581820940814</v>
       </c>
       <c r="F12">
-        <v>1.136805141078966</v>
+        <v>1.844195584225133</v>
       </c>
       <c r="G12">
-        <v>0.3138075992201266</v>
+        <v>0.6025312133462748</v>
       </c>
       <c r="H12">
-        <v>0.2716562607282995</v>
+        <v>0.732053773415501</v>
       </c>
       <c r="I12">
-        <v>0.3080123151300853</v>
+        <v>0.7855113241928571</v>
       </c>
       <c r="J12">
-        <v>0.1176254754930284</v>
+        <v>0.06371686130217569</v>
       </c>
       <c r="K12">
-        <v>1.153511898147968</v>
+        <v>0.3590855085816713</v>
       </c>
       <c r="L12">
-        <v>0.4658575823611386</v>
+        <v>0.5115692040390911</v>
       </c>
       <c r="M12">
-        <v>0.4115295648466386</v>
+        <v>0.2568421640165468</v>
       </c>
       <c r="N12">
-        <v>0.7206852504450474</v>
+        <v>1.704263984464635</v>
       </c>
       <c r="O12">
-        <v>1.182961643109593</v>
+        <v>2.651506802059572</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.467492486316274</v>
+        <v>0.6126467595501595</v>
       </c>
       <c r="C13">
-        <v>0.1123978177307556</v>
+        <v>0.2392003290564588</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.1484181207105557</v>
+        <v>0.2705185023091374</v>
       </c>
       <c r="F13">
-        <v>1.133622365729735</v>
+        <v>1.843958599349591</v>
       </c>
       <c r="G13">
-        <v>0.3133560416008052</v>
+        <v>0.6026593661334516</v>
       </c>
       <c r="H13">
-        <v>0.2717233762094153</v>
+        <v>0.732275833787881</v>
       </c>
       <c r="I13">
-        <v>0.3081064345841185</v>
+        <v>0.7857953423379094</v>
       </c>
       <c r="J13">
-        <v>0.1171416047633116</v>
+        <v>0.06355770305842157</v>
       </c>
       <c r="K13">
-        <v>1.147531667205357</v>
+        <v>0.3572394747887415</v>
       </c>
       <c r="L13">
-        <v>0.4638315588848911</v>
+        <v>0.5111319354403463</v>
       </c>
       <c r="M13">
-        <v>0.4094013641348297</v>
+        <v>0.2562718765082295</v>
       </c>
       <c r="N13">
-        <v>0.722444869089454</v>
+        <v>1.705044504198476</v>
       </c>
       <c r="O13">
-        <v>1.182128262162578</v>
+        <v>2.652232433385905</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.441807077342503</v>
+        <v>0.6051524594121247</v>
       </c>
       <c r="C14">
-        <v>0.1125114872578017</v>
+        <v>0.2392955333547526</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.147118782422627</v>
+        <v>0.2703913250595953</v>
       </c>
       <c r="F14">
-        <v>1.123289667901503</v>
+        <v>1.843206186174584</v>
       </c>
       <c r="G14">
-        <v>0.3119044992345437</v>
+        <v>0.6030854189789068</v>
       </c>
       <c r="H14">
-        <v>0.271954519082179</v>
+        <v>0.7330063334316961</v>
       </c>
       <c r="I14">
-        <v>0.3084308160480447</v>
+        <v>0.7867297318364521</v>
       </c>
       <c r="J14">
-        <v>0.1155636652253449</v>
+        <v>0.06303825722542911</v>
       </c>
       <c r="K14">
-        <v>1.128032260050816</v>
+        <v>0.3512176361695083</v>
       </c>
       <c r="L14">
-        <v>0.4572340318017041</v>
+        <v>0.509710325335277</v>
       </c>
       <c r="M14">
-        <v>0.4024656536931701</v>
+        <v>0.25441372526398</v>
       </c>
       <c r="N14">
-        <v>0.7282109150636558</v>
+        <v>1.707602412992866</v>
       </c>
       <c r="O14">
-        <v>1.179480626989118</v>
+        <v>2.654629120093645</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.426080997819582</v>
+        <v>0.6005631859520406</v>
       </c>
       <c r="C15">
-        <v>0.1125819477185104</v>
+        <v>0.2393543775456983</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.1463259798380001</v>
+        <v>0.2703151378843529</v>
       </c>
       <c r="F15">
-        <v>1.116996415448682</v>
+        <v>1.842761028689281</v>
       </c>
       <c r="G15">
-        <v>0.3110314503113401</v>
+        <v>0.6033526276622112</v>
       </c>
       <c r="H15">
-        <v>0.2721054648727801</v>
+        <v>0.7334586374415579</v>
       </c>
       <c r="I15">
-        <v>0.308642816479292</v>
+        <v>0.7873083318034908</v>
       </c>
       <c r="J15">
-        <v>0.1145971751064394</v>
+        <v>0.06271977768125225</v>
       </c>
       <c r="K15">
-        <v>1.116090828236395</v>
+        <v>0.3475279268715212</v>
       </c>
       <c r="L15">
-        <v>0.4532002889738322</v>
+        <v>0.5088429466792377</v>
       </c>
       <c r="M15">
-        <v>0.3982209743691811</v>
+        <v>0.2532768488634503</v>
       </c>
       <c r="N15">
-        <v>0.7317638431986602</v>
+        <v>1.70917878443387</v>
       </c>
       <c r="O15">
-        <v>1.177912395524231</v>
+        <v>2.656120404300083</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.336061442845192</v>
+        <v>0.5742828996779394</v>
       </c>
       <c r="C16">
-        <v>0.112998450864815</v>
+        <v>0.2396997098590532</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.1418290342961015</v>
+        <v>0.2699048374655888</v>
       </c>
       <c r="F16">
-        <v>1.08146875171677</v>
+        <v>1.840451171031219</v>
       </c>
       <c r="G16">
-        <v>0.3062688821365569</v>
+        <v>0.6049795367194761</v>
       </c>
       <c r="H16">
-        <v>0.2731115478776189</v>
+        <v>0.7361250263054018</v>
       </c>
       <c r="I16">
-        <v>0.3100579343036145</v>
+        <v>0.7907200338034279</v>
       </c>
       <c r="J16">
-        <v>0.1090589142528486</v>
+        <v>0.0608900608428371</v>
       </c>
       <c r="K16">
-        <v>1.047693274616535</v>
+        <v>0.3263663243737653</v>
       </c>
       <c r="L16">
-        <v>0.4301952598983689</v>
+        <v>0.5039245994882293</v>
       </c>
       <c r="M16">
-        <v>0.3739500029271099</v>
+        <v>0.246781871278003</v>
       </c>
       <c r="N16">
-        <v>0.7524425606809793</v>
+        <v>1.71835917056147</v>
       </c>
       <c r="O16">
-        <v>1.169728657548106</v>
+        <v>2.665022764531031</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.280919741849658</v>
+        <v>0.558178349457819</v>
       </c>
       <c r="C17">
-        <v>0.1132652416303586</v>
+        <v>0.2399188219048156</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.1391106273185621</v>
+        <v>0.2696766499429444</v>
       </c>
       <c r="F17">
-        <v>1.060138853521508</v>
+        <v>1.839249617813991</v>
       </c>
       <c r="G17">
-        <v>0.3035557756315939</v>
+        <v>0.6060629560726127</v>
       </c>
       <c r="H17">
-        <v>0.27385201697696</v>
+        <v>0.737827229325454</v>
       </c>
       <c r="I17">
-        <v>0.3111007458627881</v>
+        <v>0.7928986898358126</v>
       </c>
       <c r="J17">
-        <v>0.105661255228398</v>
+        <v>0.05976347047754871</v>
       </c>
       <c r="K17">
-        <v>1.005758985800156</v>
+        <v>0.31336929985099</v>
       </c>
       <c r="L17">
-        <v>0.4161778012827142</v>
+        <v>0.5009541476182449</v>
       </c>
       <c r="M17">
-        <v>0.3591059282053592</v>
+        <v>0.2428154282523494</v>
       </c>
       <c r="N17">
-        <v>0.7654075860841303</v>
+        <v>1.724122097065724</v>
       </c>
       <c r="O17">
-        <v>1.165406572991003</v>
+        <v>2.67080226036029</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.249231231571855</v>
+        <v>0.5489221325577773</v>
       </c>
       <c r="C18">
-        <v>0.1134228097181804</v>
+        <v>0.2400475245020068</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.1375615101208041</v>
+        <v>0.2695540663975109</v>
       </c>
       <c r="F18">
-        <v>1.048036171291542</v>
+        <v>1.83863781067393</v>
       </c>
       <c r="G18">
-        <v>0.3020695706537069</v>
+        <v>0.606717488180351</v>
       </c>
       <c r="H18">
-        <v>0.2743222020692073</v>
+        <v>0.7388307373830898</v>
       </c>
       <c r="I18">
-        <v>0.3117631900432158</v>
+        <v>0.7941833020653206</v>
       </c>
       <c r="J18">
-        <v>0.1037068192769794</v>
+        <v>0.0591139804690286</v>
       </c>
       <c r="K18">
-        <v>0.9816469267025809</v>
+        <v>0.3058883897037106</v>
       </c>
       <c r="L18">
-        <v>0.4081490565271366</v>
+        <v>0.4992628872959841</v>
       </c>
       <c r="M18">
-        <v>0.3505837479626237</v>
+        <v>0.2405407221582863</v>
       </c>
       <c r="N18">
-        <v>0.7729655246239844</v>
+        <v>1.727484955148405</v>
       </c>
       <c r="O18">
-        <v>1.163170167289294</v>
+        <v>2.674243466048296</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.238506522671912</v>
+        <v>0.5457893094125836</v>
       </c>
       <c r="C19">
-        <v>0.1134768640944266</v>
+        <v>0.2400915610611065</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.1370394501302634</v>
+        <v>0.2695140517283114</v>
       </c>
       <c r="F19">
-        <v>1.043966385021832</v>
+        <v>1.838444292622597</v>
       </c>
       <c r="G19">
-        <v>0.3015789103463149</v>
+        <v>0.6069444913780941</v>
       </c>
       <c r="H19">
-        <v>0.2744889107036741</v>
+        <v>0.739174708679208</v>
       </c>
       <c r="I19">
-        <v>0.3119980978035812</v>
+        <v>0.7946236626559049</v>
       </c>
       <c r="J19">
-        <v>0.1030450338686748</v>
+        <v>0.05889381662026949</v>
       </c>
       <c r="K19">
-        <v>0.9734840992130671</v>
+        <v>0.3033545768304577</v>
       </c>
       <c r="L19">
-        <v>0.4054363309496978</v>
+        <v>0.4986932273485252</v>
       </c>
       <c r="M19">
-        <v>0.3477009003345444</v>
+        <v>0.2397717005619597</v>
       </c>
       <c r="N19">
-        <v>0.7755416535037618</v>
+        <v>1.728631836427382</v>
       </c>
       <c r="O19">
-        <v>1.162455157413916</v>
+        <v>2.675428698455136</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.286786759379879</v>
+        <v>0.5598920189588341</v>
       </c>
       <c r="C20">
-        <v>0.1132364145745548</v>
+        <v>0.2398952203317037</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.1393985035920124</v>
+        <v>0.2697000446866511</v>
       </c>
       <c r="F20">
-        <v>1.062392190745555</v>
+        <v>1.839369321004199</v>
       </c>
       <c r="G20">
-        <v>0.3038368482949565</v>
+        <v>0.605944376894513</v>
       </c>
       <c r="H20">
-        <v>0.2737685867276056</v>
+        <v>0.7376434973491186</v>
       </c>
       <c r="I20">
-        <v>0.3109832186912591</v>
+        <v>0.7926635077211515</v>
       </c>
       <c r="J20">
-        <v>0.1060229584070242</v>
+        <v>0.05988355390000777</v>
       </c>
       <c r="K20">
-        <v>1.010222150966626</v>
+        <v>0.314753414466594</v>
       </c>
       <c r="L20">
-        <v>0.417666463662087</v>
+        <v>0.5012685719598551</v>
       </c>
       <c r="M20">
-        <v>0.3606844555756652</v>
+        <v>0.2432369722994068</v>
       </c>
       <c r="N20">
-        <v>0.7640169637162906</v>
+        <v>1.723503638029356</v>
       </c>
       <c r="O20">
-        <v>1.165840681650565</v>
+        <v>2.670174916229655</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.449350034797675</v>
+        <v>0.6073534679324268</v>
       </c>
       <c r="C21">
-        <v>0.1124779256649546</v>
+        <v>0.2392674593764781</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.1474997855606475</v>
+        <v>0.2704283233203029</v>
       </c>
       <c r="F21">
-        <v>1.126317135520381</v>
+        <v>1.843423913303553</v>
       </c>
       <c r="G21">
-        <v>0.3123274912117324</v>
+        <v>0.6029589767662813</v>
       </c>
       <c r="H21">
-        <v>0.2718846694023753</v>
+        <v>0.7327907569725198</v>
       </c>
       <c r="I21">
-        <v>0.3083327550423647</v>
+        <v>0.7864539746281949</v>
       </c>
       <c r="J21">
-        <v>0.1160271343935761</v>
+        <v>0.06319089445377557</v>
       </c>
       <c r="K21">
-        <v>1.133759172579403</v>
+        <v>0.3529866386869855</v>
       </c>
       <c r="L21">
-        <v>0.4591703286243103</v>
+        <v>0.5101271788014401</v>
       </c>
       <c r="M21">
-        <v>0.404502075130317</v>
+        <v>0.254959239842357</v>
       </c>
       <c r="N21">
-        <v>0.7265128882540708</v>
+        <v>1.706849097099802</v>
       </c>
       <c r="O21">
-        <v>1.180247106156841</v>
+        <v>2.653920311335057</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.555899257467217</v>
+        <v>0.6384267114631257</v>
       </c>
       <c r="C22">
-        <v>0.1120194867824225</v>
+        <v>0.2388808668202671</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.1529312445877835</v>
+        <v>0.2709810020159189</v>
       </c>
       <c r="F22">
-        <v>1.169684892898502</v>
+        <v>1.846777589791174</v>
       </c>
       <c r="G22">
-        <v>0.3185891530780438</v>
+        <v>0.6012871081445468</v>
       </c>
       <c r="H22">
-        <v>0.271069774322477</v>
+        <v>0.7298364290091399</v>
       </c>
       <c r="I22">
-        <v>0.3071919185032463</v>
+        <v>0.7826758885035012</v>
       </c>
       <c r="J22">
-        <v>0.1225669766048725</v>
+        <v>0.06533885036333942</v>
       </c>
       <c r="K22">
-        <v>1.214605281079628</v>
+        <v>0.3779228365574454</v>
       </c>
       <c r="L22">
-        <v>0.4866245777006526</v>
+        <v>0.5160690861483772</v>
       </c>
       <c r="M22">
-        <v>0.4332999440788825</v>
+        <v>0.2626785543194572</v>
       </c>
       <c r="N22">
-        <v>0.702939318401377</v>
+        <v>1.696393132747392</v>
       </c>
       <c r="O22">
-        <v>1.192038689291977</v>
+        <v>2.644337513398597</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.499001054794036</v>
+        <v>0.6218376054029591</v>
       </c>
       <c r="C23">
-        <v>0.1122607220519818</v>
+        <v>0.2390850378819387</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.1500194440046663</v>
+        <v>0.2706790298573338</v>
       </c>
       <c r="F23">
-        <v>1.14638762400125</v>
+        <v>1.844923388493299</v>
       </c>
       <c r="G23">
-        <v>0.3151794424303205</v>
+        <v>0.6021538708441128</v>
       </c>
       <c r="H23">
-        <v>0.2714655019503311</v>
+        <v>0.7313933565989856</v>
       </c>
       <c r="I23">
-        <v>0.3077450152240431</v>
+        <v>0.7846667031233814</v>
       </c>
       <c r="J23">
-        <v>0.1190762368593212</v>
+        <v>0.0641936974357975</v>
       </c>
       <c r="K23">
-        <v>1.171444269001938</v>
+        <v>0.3646188003258999</v>
       </c>
       <c r="L23">
-        <v>0.4719401781193682</v>
+        <v>0.51288391344724</v>
       </c>
       <c r="M23">
-        <v>0.4179142689020097</v>
+        <v>0.2585533599610628</v>
       </c>
       <c r="N23">
-        <v>0.7154331997997581</v>
+        <v>1.701934459704301</v>
       </c>
       <c r="O23">
-        <v>1.185520172635535</v>
+        <v>2.649356886725016</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.284134240320725</v>
+        <v>0.5591172611213722</v>
       </c>
       <c r="C24">
-        <v>0.1132494342531949</v>
+        <v>0.2399058820905573</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.1392683120487881</v>
+        <v>0.2696894411163662</v>
       </c>
       <c r="F24">
-        <v>1.061372959357129</v>
+        <v>1.839314957146783</v>
       </c>
       <c r="G24">
-        <v>0.303709546661814</v>
+        <v>0.605997887921518</v>
       </c>
       <c r="H24">
-        <v>0.2738061672385257</v>
+        <v>0.7377264850439076</v>
       </c>
       <c r="I24">
-        <v>0.3110361571152218</v>
+        <v>0.792769733644235</v>
       </c>
       <c r="J24">
-        <v>0.1058594357884246</v>
+        <v>0.05982926978433767</v>
       </c>
       <c r="K24">
-        <v>1.008204365274509</v>
+        <v>0.3141276834559505</v>
       </c>
       <c r="L24">
-        <v>0.4169933460235313</v>
+        <v>0.5011263693288299</v>
       </c>
       <c r="M24">
-        <v>0.3599707665812417</v>
+        <v>0.2430463746061022</v>
       </c>
       <c r="N24">
-        <v>0.7646453400486948</v>
+        <v>1.723783088623538</v>
       </c>
       <c r="O24">
-        <v>1.165643649033058</v>
+        <v>2.67045816939094</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.053387401474993</v>
+        <v>0.4917219662212347</v>
       </c>
       <c r="C25">
-        <v>0.1144730289965814</v>
+        <v>0.2408936555301437</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.1282191350245618</v>
+        <v>0.2689535002588315</v>
       </c>
       <c r="F25">
-        <v>0.9759468016449944</v>
+        <v>1.836298241705393</v>
       </c>
       <c r="G25">
-        <v>0.2941515746411838</v>
+        <v>0.611344004945181</v>
       </c>
       <c r="H25">
-        <v>0.2780126985358322</v>
+        <v>0.7454926951580347</v>
       </c>
       <c r="I25">
-        <v>0.3169637439915043</v>
+        <v>0.8027149623512742</v>
       </c>
       <c r="J25">
-        <v>0.09159387790160167</v>
+        <v>0.0550640754423668</v>
       </c>
       <c r="K25">
-        <v>0.8323865610218206</v>
+        <v>0.2594616729961388</v>
       </c>
       <c r="L25">
-        <v>0.3589986154727001</v>
+        <v>0.4891048264235422</v>
       </c>
       <c r="M25">
-        <v>0.2980603805589652</v>
+        <v>0.226576007290916</v>
       </c>
       <c r="N25">
-        <v>0.8215615968891754</v>
+        <v>1.749192431321791</v>
       </c>
       <c r="O25">
-        <v>1.153663855451995</v>
+        <v>2.697692936690444</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_23/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_23/res_line/pl_mw.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.4423372620443615</v>
+        <v>0.8840359239059694</v>
       </c>
       <c r="C2">
-        <v>0.2417098412507634</v>
+        <v>0.1155062787715586</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.2686987795881706</v>
+        <v>0.1205113854178421</v>
       </c>
       <c r="F2">
-        <v>1.836695546154772</v>
+        <v>0.9178626957402187</v>
       </c>
       <c r="G2">
-        <v>0.6163131393134691</v>
+        <v>0.2892784637464558</v>
       </c>
       <c r="H2">
-        <v>0.7520183341495468</v>
+        <v>0.2824470752969575</v>
       </c>
       <c r="I2">
-        <v>0.8110767506124539</v>
+        <v>0.3232057261707411</v>
       </c>
       <c r="J2">
-        <v>0.05150620814330154</v>
+        <v>0.08106370217784331</v>
       </c>
       <c r="K2">
-        <v>0.2190465789909553</v>
+        <v>0.702926624598291</v>
       </c>
       <c r="L2">
-        <v>0.4808270014614351</v>
+        <v>0.3172399621272461</v>
       </c>
       <c r="M2">
-        <v>0.2146739711973247</v>
+        <v>0.2528728397676545</v>
       </c>
       <c r="N2">
-        <v>1.769490360394542</v>
+        <v>0.8665744769259227</v>
       </c>
       <c r="O2">
-        <v>2.72160220438208</v>
+        <v>1.152207555295902</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.4090261455812367</v>
+        <v>0.7694542570115459</v>
       </c>
       <c r="C3">
-        <v>0.2423188678529229</v>
+        <v>0.1162878272667704</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.2687063607553917</v>
+        <v>0.1155343798806534</v>
       </c>
       <c r="F3">
-        <v>1.838603649996806</v>
+        <v>0.8812302933142604</v>
       </c>
       <c r="G3">
-        <v>0.6203255851067411</v>
+        <v>0.2872066477988326</v>
       </c>
       <c r="H3">
-        <v>0.7569461940387541</v>
+        <v>0.2862354747690503</v>
       </c>
       <c r="I3">
-        <v>0.8173933545777423</v>
+        <v>0.328528884994423</v>
       </c>
       <c r="J3">
-        <v>0.04906438470043994</v>
+        <v>0.07390211027755811</v>
       </c>
       <c r="K3">
-        <v>0.1915598534895366</v>
+        <v>0.6150814952590764</v>
       </c>
       <c r="L3">
-        <v>0.4755776925770618</v>
+        <v>0.2894567101002821</v>
       </c>
       <c r="M3">
-        <v>0.2067507222759701</v>
+        <v>0.222445130467591</v>
       </c>
       <c r="N3">
-        <v>1.784240181819168</v>
+        <v>0.8989280033243787</v>
       </c>
       <c r="O3">
-        <v>2.740216012713915</v>
+        <v>1.155454483154131</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.3886540887799015</v>
+        <v>0.6991488223646911</v>
       </c>
       <c r="C4">
-        <v>0.2427205281803175</v>
+        <v>0.1168074376771173</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.2688002936162128</v>
+        <v>0.112593870105588</v>
       </c>
       <c r="F4">
-        <v>1.84058562299348</v>
+        <v>0.8600008900298874</v>
       </c>
       <c r="G4">
-        <v>0.6231075154742456</v>
+        <v>0.2865043718789195</v>
       </c>
       <c r="H4">
-        <v>0.7602217726141021</v>
+        <v>0.288931989778149</v>
       </c>
       <c r="I4">
-        <v>0.8215927703883992</v>
+        <v>0.3323118902258599</v>
       </c>
       <c r="J4">
-        <v>0.04755005896962672</v>
+        <v>0.06948980836776286</v>
       </c>
       <c r="K4">
-        <v>0.1746373594617836</v>
+        <v>0.5610593156939814</v>
       </c>
       <c r="L4">
-        <v>0.4725335737954026</v>
+        <v>0.2726309121852921</v>
       </c>
       <c r="M4">
-        <v>0.2019572681011255</v>
+        <v>0.2038437323070745</v>
       </c>
       <c r="N4">
-        <v>1.793787542713519</v>
+        <v>0.9196764794641972</v>
       </c>
       <c r="O4">
-        <v>2.752835465790852</v>
+        <v>1.159424197723212</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.3803734015592681</v>
+        <v>0.6705050509424098</v>
       </c>
       <c r="C5">
-        <v>0.2428911990224911</v>
+        <v>0.1170291241255264</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.2688610879660445</v>
+        <v>0.1114237416011115</v>
       </c>
       <c r="F5">
-        <v>1.841597435765102</v>
+        <v>0.8516555168737838</v>
       </c>
       <c r="G5">
-        <v>0.6243212463147003</v>
+        <v>0.2863561958343226</v>
       </c>
       <c r="H5">
-        <v>0.7616195088344284</v>
+        <v>0.2901217251781674</v>
       </c>
       <c r="I5">
-        <v>0.8233848561061379</v>
+        <v>0.3339793844802834</v>
       </c>
       <c r="J5">
-        <v>0.04692919893648195</v>
+        <v>0.06768762996495781</v>
       </c>
       <c r="K5">
-        <v>0.167730339771353</v>
+        <v>0.5390195048714475</v>
       </c>
       <c r="L5">
-        <v>0.4713382807682081</v>
+        <v>0.2658299520649763</v>
       </c>
       <c r="M5">
-        <v>0.2000220569104165</v>
+        <v>0.1962819143444712</v>
       </c>
       <c r="N5">
-        <v>1.797801697560955</v>
+        <v>0.9283496417850152</v>
       </c>
       <c r="O5">
-        <v>2.758277610381072</v>
+        <v>1.161522849193915</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.3789996941237916</v>
+        <v>0.6657489879033562</v>
       </c>
       <c r="C6">
-        <v>0.2429199616657627</v>
+        <v>0.1170665339841719</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.2688725446761246</v>
+        <v>0.1112311184333699</v>
       </c>
       <c r="F6">
-        <v>1.841777786900806</v>
+        <v>0.8502879055525341</v>
       </c>
       <c r="G6">
-        <v>0.6245276226848162</v>
+        <v>0.2863397760855548</v>
       </c>
       <c r="H6">
-        <v>0.7618554040284025</v>
+        <v>0.2903247045414261</v>
       </c>
       <c r="I6">
-        <v>0.8236873122126624</v>
+        <v>0.3342637740825793</v>
       </c>
       <c r="J6">
-        <v>0.04682587912056491</v>
+        <v>0.06738812041780662</v>
       </c>
       <c r="K6">
-        <v>0.1665827863269698</v>
+        <v>0.5353581690128522</v>
       </c>
       <c r="L6">
-        <v>0.4711425398603524</v>
+        <v>0.2647039372028814</v>
       </c>
       <c r="M6">
-        <v>0.1997018190753757</v>
+        <v>0.195027333659894</v>
       </c>
       <c r="N6">
-        <v>1.798475708195966</v>
+        <v>0.9298028625219228</v>
       </c>
       <c r="O6">
-        <v>2.759199377832303</v>
+        <v>1.161899923149008</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.3885423262138659</v>
+        <v>0.6987625045906327</v>
       </c>
       <c r="C7">
-        <v>0.2427228015711158</v>
+        <v>0.1168103872319683</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.2688010222556301</v>
+        <v>0.1125779764685362</v>
       </c>
       <c r="F7">
-        <v>1.840598441604882</v>
+        <v>0.8598871185971433</v>
       </c>
       <c r="G7">
-        <v>0.6231235600130347</v>
+        <v>0.2865018215670645</v>
       </c>
       <c r="H7">
-        <v>0.7602403681364862</v>
+        <v>0.2889476699035214</v>
       </c>
       <c r="I7">
-        <v>0.8216166118716863</v>
+        <v>0.3323338734477232</v>
       </c>
       <c r="J7">
-        <v>0.04754170103075595</v>
+        <v>0.0694655207245809</v>
       </c>
       <c r="K7">
-        <v>0.1745442527390964</v>
+        <v>0.5607621867730188</v>
       </c>
       <c r="L7">
-        <v>0.4725172703298313</v>
+        <v>0.2725389703945211</v>
       </c>
       <c r="M7">
-        <v>0.2019310953800613</v>
+        <v>0.2037416791126354</v>
       </c>
       <c r="N7">
-        <v>1.793841178736868</v>
+        <v>0.9197925714480846</v>
       </c>
       <c r="O7">
-        <v>2.752907646987666</v>
+        <v>1.159450574087472</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.4308351637702685</v>
+        <v>0.8445145170749129</v>
       </c>
       <c r="C8">
-        <v>0.2419140942743141</v>
+        <v>0.1157674774631268</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.2686829032121345</v>
+        <v>0.118770832893496</v>
       </c>
       <c r="F8">
-        <v>1.837185478698778</v>
+        <v>0.9049624302512882</v>
       </c>
       <c r="G8">
-        <v>0.6176305964418987</v>
+        <v>0.2884425906766168</v>
       </c>
       <c r="H8">
-        <v>0.7536656536876052</v>
+        <v>0.2836750450479073</v>
       </c>
       <c r="I8">
-        <v>0.8131881368628662</v>
+        <v>0.3249322052846715</v>
       </c>
       <c r="J8">
-        <v>0.05066740020119909</v>
+        <v>0.0785972970269313</v>
       </c>
       <c r="K8">
-        <v>0.2095788885722243</v>
+        <v>0.6726527559691249</v>
       </c>
       <c r="L8">
-        <v>0.4789800131338637</v>
+        <v>0.3076100618093704</v>
       </c>
       <c r="M8">
-        <v>0.2119273179657775</v>
+        <v>0.2423632106767428</v>
       </c>
       <c r="N8">
-        <v>1.774474261978476</v>
+        <v>0.8775441252211724</v>
       </c>
       <c r="O8">
-        <v>2.727773309094431</v>
+        <v>1.15290716759273</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.5143883105395162</v>
+        <v>1.131008805078608</v>
       </c>
       <c r="C9">
-        <v>0.2405471716466963</v>
+        <v>0.1140401278639978</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2691569387669439</v>
+        <v>0.1318718360226008</v>
       </c>
       <c r="F9">
-        <v>1.836908373122753</v>
+        <v>1.00393723145794</v>
       </c>
       <c r="G9">
-        <v>0.609382790053715</v>
+        <v>0.2970184636731048</v>
       </c>
       <c r="H9">
-        <v>0.742751436335169</v>
+        <v>0.2763809648145994</v>
       </c>
       <c r="I9">
-        <v>0.7992036723480958</v>
+        <v>0.3146645590071522</v>
       </c>
       <c r="J9">
-        <v>0.05667690671304371</v>
+        <v>0.09640217337162937</v>
       </c>
       <c r="K9">
-        <v>0.2779023283421509</v>
+        <v>0.8915972774914565</v>
       </c>
       <c r="L9">
-        <v>0.4930655696895769</v>
+        <v>0.3783779594132</v>
       </c>
       <c r="M9">
-        <v>0.2320894431943827</v>
+        <v>0.3188462239370722</v>
       </c>
       <c r="N9">
-        <v>1.74038671590467</v>
+        <v>0.8018944644919124</v>
       </c>
       <c r="O9">
-        <v>2.687920409643397</v>
+        <v>1.156505484286697</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.5761214304111775</v>
+        <v>1.342357422253201</v>
       </c>
       <c r="C10">
-        <v>0.2396750696735346</v>
+        <v>0.112968568071004</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.2699320477185374</v>
+        <v>0.1421412072289705</v>
       </c>
       <c r="F10">
-        <v>1.840599013299027</v>
+        <v>1.083925472058027</v>
       </c>
       <c r="G10">
-        <v>0.6048601623247265</v>
+        <v>0.3065887032600116</v>
       </c>
       <c r="H10">
-        <v>0.7359341039884271</v>
+        <v>0.2730331290343244</v>
       </c>
       <c r="I10">
-        <v>0.7904757020384601</v>
+        <v>0.3099475422883025</v>
       </c>
       <c r="J10">
-        <v>0.06101840809510151</v>
+        <v>0.109446595494191</v>
       </c>
       <c r="K10">
-        <v>0.3278486358509269</v>
+        <v>1.052479412155151</v>
       </c>
       <c r="L10">
-        <v>0.5042658832520743</v>
+        <v>0.4317994146998814</v>
       </c>
       <c r="M10">
-        <v>0.2472353713282516</v>
+        <v>0.3756460151105117</v>
       </c>
       <c r="N10">
-        <v>1.717708107547303</v>
+        <v>0.7509769520646223</v>
       </c>
       <c r="O10">
-        <v>2.664379132346639</v>
+        <v>1.170256161610453</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.6042747781051787</v>
+        <v>1.438799361462657</v>
       </c>
       <c r="C11">
-        <v>0.2393067547862522</v>
+        <v>0.1125249120105707</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.270376654120728</v>
+        <v>0.1469669924058969</v>
       </c>
       <c r="F11">
-        <v>1.843120125971012</v>
+        <v>1.122084091201302</v>
       </c>
       <c r="G11">
-        <v>0.6031361473839567</v>
+        <v>0.3117365975797171</v>
       </c>
       <c r="H11">
-        <v>0.7330925399761981</v>
+        <v>0.2719828311745189</v>
       </c>
       <c r="I11">
-        <v>0.7868400065571919</v>
+        <v>0.3084705708402531</v>
       </c>
       <c r="J11">
-        <v>0.06297737220194932</v>
+        <v>0.1153788404607354</v>
       </c>
       <c r="K11">
-        <v>0.3505121192453373</v>
+        <v>1.125748547315538</v>
       </c>
       <c r="L11">
-        <v>0.509544254273024</v>
+        <v>0.4564622185178706</v>
       </c>
       <c r="M11">
-        <v>0.2541962427651043</v>
+        <v>0.4016537268801272</v>
       </c>
       <c r="N11">
-        <v>1.707903295306089</v>
+        <v>0.7288890983420195</v>
       </c>
       <c r="O11">
-        <v>2.65491292044976</v>
+        <v>1.179177572977366</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.6149452406049534</v>
+        <v>1.475371353990454</v>
       </c>
       <c r="C12">
-        <v>0.239171347061319</v>
+        <v>0.1123632965189536</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.2705581820940814</v>
+        <v>0.1488177798644372</v>
       </c>
       <c r="F12">
-        <v>1.844195584225133</v>
+        <v>1.13680514107898</v>
       </c>
       <c r="G12">
-        <v>0.6025312133462748</v>
+        <v>0.3138075992201905</v>
       </c>
       <c r="H12">
-        <v>0.732053773415501</v>
+        <v>0.2716562607282995</v>
       </c>
       <c r="I12">
-        <v>0.7855113241928571</v>
+        <v>0.3080123151300889</v>
       </c>
       <c r="J12">
-        <v>0.06371686130217569</v>
+        <v>0.1176254754929857</v>
       </c>
       <c r="K12">
-        <v>0.3590855085816713</v>
+        <v>1.153511898148025</v>
       </c>
       <c r="L12">
-        <v>0.5115692040390911</v>
+        <v>0.4658575823611244</v>
       </c>
       <c r="M12">
-        <v>0.2568421640165468</v>
+        <v>0.4115295648466173</v>
       </c>
       <c r="N12">
-        <v>1.704263984464635</v>
+        <v>0.7206852504450474</v>
       </c>
       <c r="O12">
-        <v>2.651506802059572</v>
+        <v>1.182961643109635</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.6126467595501595</v>
+        <v>1.467492486316161</v>
       </c>
       <c r="C13">
-        <v>0.2392003290564588</v>
+        <v>0.1123978177307592</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.2705185023091374</v>
+        <v>0.148418120710577</v>
       </c>
       <c r="F13">
-        <v>1.843958599349591</v>
+        <v>1.133622365729721</v>
       </c>
       <c r="G13">
-        <v>0.6026593661334516</v>
+        <v>0.3133560416007839</v>
       </c>
       <c r="H13">
-        <v>0.732275833787881</v>
+        <v>0.271723376209529</v>
       </c>
       <c r="I13">
-        <v>0.7857953423379094</v>
+        <v>0.3081064345841114</v>
       </c>
       <c r="J13">
-        <v>0.06355770305842157</v>
+        <v>0.1171416047633898</v>
       </c>
       <c r="K13">
-        <v>0.3572394747887415</v>
+        <v>1.147531667205271</v>
       </c>
       <c r="L13">
-        <v>0.5111319354403463</v>
+        <v>0.4638315588848485</v>
       </c>
       <c r="M13">
-        <v>0.2562718765082295</v>
+        <v>0.4094013641348297</v>
       </c>
       <c r="N13">
-        <v>1.705044504198476</v>
+        <v>0.7224448690894363</v>
       </c>
       <c r="O13">
-        <v>2.652232433385905</v>
+        <v>1.182128262162493</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.6051524594121247</v>
+        <v>1.441807077342617</v>
       </c>
       <c r="C14">
-        <v>0.2392955333547526</v>
+        <v>0.11251148725772</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.2703913250595953</v>
+        <v>0.1471187824225844</v>
       </c>
       <c r="F14">
-        <v>1.843206186174584</v>
+        <v>1.123289667901489</v>
       </c>
       <c r="G14">
-        <v>0.6030854189789068</v>
+        <v>0.3119044992345508</v>
       </c>
       <c r="H14">
-        <v>0.7330063334316961</v>
+        <v>0.2719545190821719</v>
       </c>
       <c r="I14">
-        <v>0.7867297318364521</v>
+        <v>0.3084308160480411</v>
       </c>
       <c r="J14">
-        <v>0.06303825722542911</v>
+        <v>0.1155636652253946</v>
       </c>
       <c r="K14">
-        <v>0.3512176361695083</v>
+        <v>1.128032260050816</v>
       </c>
       <c r="L14">
-        <v>0.509710325335277</v>
+        <v>0.4572340318017467</v>
       </c>
       <c r="M14">
-        <v>0.25441372526398</v>
+        <v>0.4024656536931701</v>
       </c>
       <c r="N14">
-        <v>1.707602412992866</v>
+        <v>0.7282109150635954</v>
       </c>
       <c r="O14">
-        <v>2.654629120093645</v>
+        <v>1.179480626989104</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.6005631859520406</v>
+        <v>1.426080997819412</v>
       </c>
       <c r="C15">
-        <v>0.2393543775456983</v>
+        <v>0.1125819477185033</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.2703151378843529</v>
+        <v>0.1463259798380179</v>
       </c>
       <c r="F15">
-        <v>1.842761028689281</v>
+        <v>1.116996415448668</v>
       </c>
       <c r="G15">
-        <v>0.6033526276622112</v>
+        <v>0.3110314503113898</v>
       </c>
       <c r="H15">
-        <v>0.7334586374415579</v>
+        <v>0.2721054648727801</v>
       </c>
       <c r="I15">
-        <v>0.7873083318034908</v>
+        <v>0.3086428164792885</v>
       </c>
       <c r="J15">
-        <v>0.06271977768125225</v>
+        <v>0.1145971751064891</v>
       </c>
       <c r="K15">
-        <v>0.3475279268715212</v>
+        <v>1.116090828236452</v>
       </c>
       <c r="L15">
-        <v>0.5088429466792377</v>
+        <v>0.4532002889738891</v>
       </c>
       <c r="M15">
-        <v>0.2532768488634503</v>
+        <v>0.398220974369174</v>
       </c>
       <c r="N15">
-        <v>1.70917878443387</v>
+        <v>0.7317638431986602</v>
       </c>
       <c r="O15">
-        <v>2.656120404300083</v>
+        <v>1.177912395524231</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.5742828996779394</v>
+        <v>1.336061442845249</v>
       </c>
       <c r="C16">
-        <v>0.2396997098590532</v>
+        <v>0.1129984508649748</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.2699048374655888</v>
+        <v>0.141829034296066</v>
       </c>
       <c r="F16">
-        <v>1.840451171031219</v>
+        <v>1.081468751716741</v>
       </c>
       <c r="G16">
-        <v>0.6049795367194761</v>
+        <v>0.3062688821365711</v>
       </c>
       <c r="H16">
-        <v>0.7361250263054018</v>
+        <v>0.2731115478776118</v>
       </c>
       <c r="I16">
-        <v>0.7907200338034279</v>
+        <v>0.3100579343036181</v>
       </c>
       <c r="J16">
-        <v>0.0608900608428371</v>
+        <v>0.1090589142530192</v>
       </c>
       <c r="K16">
-        <v>0.3263663243737653</v>
+        <v>1.04769327461662</v>
       </c>
       <c r="L16">
-        <v>0.5039245994882293</v>
+        <v>0.4301952598983831</v>
       </c>
       <c r="M16">
-        <v>0.246781871278003</v>
+        <v>0.3739500029271099</v>
       </c>
       <c r="N16">
-        <v>1.71835917056147</v>
+        <v>0.7524425606810148</v>
       </c>
       <c r="O16">
-        <v>2.665022764531031</v>
+        <v>1.169728657548148</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.558178349457819</v>
+        <v>1.280919741849658</v>
       </c>
       <c r="C17">
-        <v>0.2399188219048156</v>
+        <v>0.1132652416303621</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.2696766499429444</v>
+        <v>0.1391106273185727</v>
       </c>
       <c r="F17">
-        <v>1.839249617813991</v>
+        <v>1.060138853521508</v>
       </c>
       <c r="G17">
-        <v>0.6060629560726127</v>
+        <v>0.303555775631537</v>
       </c>
       <c r="H17">
-        <v>0.737827229325454</v>
+        <v>0.27385201697696</v>
       </c>
       <c r="I17">
-        <v>0.7928986898358126</v>
+        <v>0.3111007458627846</v>
       </c>
       <c r="J17">
-        <v>0.05976347047754871</v>
+        <v>0.1056612552283553</v>
       </c>
       <c r="K17">
-        <v>0.31336929985099</v>
+        <v>1.005758985800043</v>
       </c>
       <c r="L17">
-        <v>0.5009541476182449</v>
+        <v>0.4161778012828847</v>
       </c>
       <c r="M17">
-        <v>0.2428154282523494</v>
+        <v>0.3591059282053592</v>
       </c>
       <c r="N17">
-        <v>1.724122097065724</v>
+        <v>0.7654075860841196</v>
       </c>
       <c r="O17">
-        <v>2.67080226036029</v>
+        <v>1.165406572991017</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.5489221325577773</v>
+        <v>1.249231231571883</v>
       </c>
       <c r="C18">
-        <v>0.2400475245020068</v>
+        <v>0.1134228097184184</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.2695540663975109</v>
+        <v>0.1375615101207828</v>
       </c>
       <c r="F18">
-        <v>1.83863781067393</v>
+        <v>1.048036171291557</v>
       </c>
       <c r="G18">
-        <v>0.606717488180351</v>
+        <v>0.3020695706536856</v>
       </c>
       <c r="H18">
-        <v>0.7388307373830898</v>
+        <v>0.2743222020692073</v>
       </c>
       <c r="I18">
-        <v>0.7941833020653206</v>
+        <v>0.3117631900432229</v>
       </c>
       <c r="J18">
-        <v>0.0591139804690286</v>
+        <v>0.1037068192770292</v>
       </c>
       <c r="K18">
-        <v>0.3058883897037106</v>
+        <v>0.9816469267026378</v>
       </c>
       <c r="L18">
-        <v>0.4992628872959841</v>
+        <v>0.4081490565270798</v>
       </c>
       <c r="M18">
-        <v>0.2405407221582863</v>
+        <v>0.3505837479626024</v>
       </c>
       <c r="N18">
-        <v>1.727484955148405</v>
+        <v>0.7729655246240377</v>
       </c>
       <c r="O18">
-        <v>2.674243466048296</v>
+        <v>1.163170167289337</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.5457893094125836</v>
+        <v>1.238506522671941</v>
       </c>
       <c r="C19">
-        <v>0.2400915610611065</v>
+        <v>0.1134768640944941</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.2695140517283114</v>
+        <v>0.1370394501302883</v>
       </c>
       <c r="F19">
-        <v>1.838444292622597</v>
+        <v>1.043966385021847</v>
       </c>
       <c r="G19">
-        <v>0.6069444913780941</v>
+        <v>0.3015789103462936</v>
       </c>
       <c r="H19">
-        <v>0.739174708679208</v>
+        <v>0.274488910703667</v>
       </c>
       <c r="I19">
-        <v>0.7946236626559049</v>
+        <v>0.311998097803567</v>
       </c>
       <c r="J19">
-        <v>0.05889381662026949</v>
+        <v>0.1030450338687743</v>
       </c>
       <c r="K19">
-        <v>0.3033545768304577</v>
+        <v>0.9734840992129818</v>
       </c>
       <c r="L19">
-        <v>0.4986932273485252</v>
+        <v>0.4054363309497546</v>
       </c>
       <c r="M19">
-        <v>0.2397717005619597</v>
+        <v>0.3477009003345515</v>
       </c>
       <c r="N19">
-        <v>1.728631836427382</v>
+        <v>0.7755416535037654</v>
       </c>
       <c r="O19">
-        <v>2.675428698455136</v>
+        <v>1.162455157413859</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.5598920189588341</v>
+        <v>1.286786759379765</v>
       </c>
       <c r="C20">
-        <v>0.2398952203317037</v>
+        <v>0.1132364145744056</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.2697000446866511</v>
+        <v>0.1393985035920444</v>
       </c>
       <c r="F20">
-        <v>1.839369321004199</v>
+        <v>1.062392190745555</v>
       </c>
       <c r="G20">
-        <v>0.605944376894513</v>
+        <v>0.3038368482949494</v>
       </c>
       <c r="H20">
-        <v>0.7376434973491186</v>
+        <v>0.2737685867276198</v>
       </c>
       <c r="I20">
-        <v>0.7926635077211515</v>
+        <v>0.3109832186912591</v>
       </c>
       <c r="J20">
-        <v>0.05988355390000777</v>
+        <v>0.1060229584070314</v>
       </c>
       <c r="K20">
-        <v>0.314753414466594</v>
+        <v>1.010222150966655</v>
       </c>
       <c r="L20">
-        <v>0.5012685719598551</v>
+        <v>0.4176664636620586</v>
       </c>
       <c r="M20">
-        <v>0.2432369722994068</v>
+        <v>0.3606844555756652</v>
       </c>
       <c r="N20">
-        <v>1.723503638029356</v>
+        <v>0.7640169637162977</v>
       </c>
       <c r="O20">
-        <v>2.670174916229655</v>
+        <v>1.165840681650565</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.6073534679324268</v>
+        <v>1.449350034797533</v>
       </c>
       <c r="C21">
-        <v>0.2392674593764781</v>
+        <v>0.1124779256649582</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.2704283233203029</v>
+        <v>0.1474997855606581</v>
       </c>
       <c r="F21">
-        <v>1.843423913303553</v>
+        <v>1.126317135520381</v>
       </c>
       <c r="G21">
-        <v>0.6029589767662813</v>
+        <v>0.3123274912117751</v>
       </c>
       <c r="H21">
-        <v>0.7327907569725198</v>
+        <v>0.2718846694023753</v>
       </c>
       <c r="I21">
-        <v>0.7864539746281949</v>
+        <v>0.3083327550423753</v>
       </c>
       <c r="J21">
-        <v>0.06319089445377557</v>
+        <v>0.1160271343934554</v>
       </c>
       <c r="K21">
-        <v>0.3529866386869855</v>
+        <v>1.133759172579403</v>
       </c>
       <c r="L21">
-        <v>0.5101271788014401</v>
+        <v>0.4591703286243103</v>
       </c>
       <c r="M21">
-        <v>0.254959239842357</v>
+        <v>0.4045020751303383</v>
       </c>
       <c r="N21">
-        <v>1.706849097099802</v>
+        <v>0.7265128882541241</v>
       </c>
       <c r="O21">
-        <v>2.653920311335057</v>
+        <v>1.180247106156827</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.6384267114631257</v>
+        <v>1.55589925746736</v>
       </c>
       <c r="C22">
-        <v>0.2388808668202671</v>
+        <v>0.1120194867821951</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.2709810020159189</v>
+        <v>0.1529312445877693</v>
       </c>
       <c r="F22">
-        <v>1.846777589791174</v>
+        <v>1.169684892898516</v>
       </c>
       <c r="G22">
-        <v>0.6012871081445468</v>
+        <v>0.3185891530780367</v>
       </c>
       <c r="H22">
-        <v>0.7298364290091399</v>
+        <v>0.2710697743224699</v>
       </c>
       <c r="I22">
-        <v>0.7826758885035012</v>
+        <v>0.3071919185032463</v>
       </c>
       <c r="J22">
-        <v>0.06533885036333942</v>
+        <v>0.1225669766049293</v>
       </c>
       <c r="K22">
-        <v>0.3779228365574454</v>
+        <v>1.214605281079656</v>
       </c>
       <c r="L22">
-        <v>0.5160690861483772</v>
+        <v>0.4866245777006384</v>
       </c>
       <c r="M22">
-        <v>0.2626785543194572</v>
+        <v>0.4332999440788825</v>
       </c>
       <c r="N22">
-        <v>1.696393132747392</v>
+        <v>0.7029393184014445</v>
       </c>
       <c r="O22">
-        <v>2.644337513398597</v>
+        <v>1.192038689291877</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.6218376054029591</v>
+        <v>1.499001054794093</v>
       </c>
       <c r="C23">
-        <v>0.2390850378819387</v>
+        <v>0.112260722052298</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.2706790298573338</v>
+        <v>0.1500194440046627</v>
       </c>
       <c r="F23">
-        <v>1.844923388493299</v>
+        <v>1.14638762400125</v>
       </c>
       <c r="G23">
-        <v>0.6021538708441128</v>
+        <v>0.3151794424301997</v>
       </c>
       <c r="H23">
-        <v>0.7313933565989856</v>
+        <v>0.2714655019503311</v>
       </c>
       <c r="I23">
-        <v>0.7846667031233814</v>
+        <v>0.3077450152240324</v>
       </c>
       <c r="J23">
-        <v>0.0641936974357975</v>
+        <v>0.1190762368593212</v>
       </c>
       <c r="K23">
-        <v>0.3646188003258999</v>
+        <v>1.171444269001995</v>
       </c>
       <c r="L23">
-        <v>0.51288391344724</v>
+        <v>0.471940178119354</v>
       </c>
       <c r="M23">
-        <v>0.2585533599610628</v>
+        <v>0.4179142689020097</v>
       </c>
       <c r="N23">
-        <v>1.701934459704301</v>
+        <v>0.7154331997997581</v>
       </c>
       <c r="O23">
-        <v>2.649356886725016</v>
+        <v>1.185520172635464</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.5591172611213722</v>
+        <v>1.284134240320583</v>
       </c>
       <c r="C24">
-        <v>0.2399058820905573</v>
+        <v>0.1132494342527295</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.2696894411163662</v>
+        <v>0.1392683120487774</v>
       </c>
       <c r="F24">
-        <v>1.839314957146783</v>
+        <v>1.061372959357115</v>
       </c>
       <c r="G24">
-        <v>0.605997887921518</v>
+        <v>0.3037095466618851</v>
       </c>
       <c r="H24">
-        <v>0.7377264850439076</v>
+        <v>0.2738061672385328</v>
       </c>
       <c r="I24">
-        <v>0.792769733644235</v>
+        <v>0.3110361571152218</v>
       </c>
       <c r="J24">
-        <v>0.05982926978433767</v>
+        <v>0.1058594357883891</v>
       </c>
       <c r="K24">
-        <v>0.3141276834559505</v>
+        <v>1.008204365274452</v>
       </c>
       <c r="L24">
-        <v>0.5011263693288299</v>
+        <v>0.416993346023574</v>
       </c>
       <c r="M24">
-        <v>0.2430463746061022</v>
+        <v>0.3599707665812488</v>
       </c>
       <c r="N24">
-        <v>1.723783088623538</v>
+        <v>0.7646453400486202</v>
       </c>
       <c r="O24">
-        <v>2.67045816939094</v>
+        <v>1.165643649032958</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.4917219662212347</v>
+        <v>1.053387401474993</v>
       </c>
       <c r="C25">
-        <v>0.2408936555301437</v>
+        <v>0.114473028996585</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.2689535002588315</v>
+        <v>0.1282191350245689</v>
       </c>
       <c r="F25">
-        <v>1.836298241705393</v>
+        <v>0.9759468016449944</v>
       </c>
       <c r="G25">
-        <v>0.611344004945181</v>
+        <v>0.2941515746413046</v>
       </c>
       <c r="H25">
-        <v>0.7454926951580347</v>
+        <v>0.2780126985359459</v>
       </c>
       <c r="I25">
-        <v>0.8027149623512742</v>
+        <v>0.3169637439915043</v>
       </c>
       <c r="J25">
-        <v>0.0550640754423668</v>
+        <v>0.0915938779015093</v>
       </c>
       <c r="K25">
-        <v>0.2594616729961388</v>
+        <v>0.8323865610218775</v>
       </c>
       <c r="L25">
-        <v>0.4891048264235422</v>
+        <v>0.3589986154726716</v>
       </c>
       <c r="M25">
-        <v>0.226576007290916</v>
+        <v>0.2980603805589723</v>
       </c>
       <c r="N25">
-        <v>1.749192431321791</v>
+        <v>0.8215615968892216</v>
       </c>
       <c r="O25">
-        <v>2.697692936690444</v>
+        <v>1.153663855452024</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_23/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_23/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,1133 +415,1283 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.8840359239059694</v>
+        <v>0.8917187109890392</v>
       </c>
       <c r="C2">
-        <v>0.1155062787715586</v>
+        <v>0.09014971378449843</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.1205113854178421</v>
+        <v>0.05800990311648135</v>
       </c>
       <c r="F2">
-        <v>0.9178626957402187</v>
+        <v>1.44005364668071</v>
       </c>
       <c r="G2">
-        <v>0.2892784637464558</v>
+        <v>0.9360171301991613</v>
       </c>
       <c r="H2">
-        <v>0.2824470752969575</v>
+        <v>0.0207122310941289</v>
       </c>
       <c r="I2">
-        <v>0.3232057261707411</v>
+        <v>0.02527745938140491</v>
       </c>
       <c r="J2">
-        <v>0.08106370217784331</v>
+        <v>0.6818035616022229</v>
       </c>
       <c r="K2">
-        <v>0.702926624598291</v>
+        <v>0.767014246484635</v>
       </c>
       <c r="L2">
-        <v>0.3172399621272461</v>
+        <v>0.08422744940166993</v>
       </c>
       <c r="M2">
-        <v>0.2528728397676545</v>
+        <v>0.7959730651531913</v>
       </c>
       <c r="N2">
-        <v>0.8665744769259227</v>
+        <v>0.2241596698784321</v>
       </c>
       <c r="O2">
-        <v>1.152207555295902</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>0.2285178076676146</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.7694542570115459</v>
+        <v>0.7765635016249632</v>
       </c>
       <c r="C3">
-        <v>0.1162878272667704</v>
+        <v>0.08100301634669904</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.1155343798806534</v>
+        <v>0.0530120395393805</v>
       </c>
       <c r="F3">
-        <v>0.8812302933142604</v>
+        <v>1.364069431924051</v>
       </c>
       <c r="G3">
-        <v>0.2872066477988326</v>
+        <v>0.9043714379526477</v>
       </c>
       <c r="H3">
-        <v>0.2862354747690503</v>
+        <v>0.02504164146425381</v>
       </c>
       <c r="I3">
-        <v>0.328528884994423</v>
+        <v>0.0300190762617274</v>
       </c>
       <c r="J3">
-        <v>0.07390211027755811</v>
+        <v>0.6717534993559582</v>
       </c>
       <c r="K3">
-        <v>0.6150814952590764</v>
+        <v>0.7528394906258455</v>
       </c>
       <c r="L3">
-        <v>0.2894567101002821</v>
+        <v>0.08001611535664921</v>
       </c>
       <c r="M3">
-        <v>0.222445130467591</v>
+        <v>0.6925702891788461</v>
       </c>
       <c r="N3">
-        <v>0.8989280033243787</v>
+        <v>0.1989306917648719</v>
       </c>
       <c r="O3">
-        <v>1.155454483154131</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>0.1998791300191627</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.6991488223646911</v>
+        <v>0.7057763890817341</v>
       </c>
       <c r="C4">
-        <v>0.1168074376771173</v>
+        <v>0.07546233482104725</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.112593870105588</v>
+        <v>0.04994431428619528</v>
       </c>
       <c r="F4">
-        <v>0.8600008900298874</v>
+        <v>1.317817555520548</v>
       </c>
       <c r="G4">
-        <v>0.2865043718789195</v>
+        <v>0.8852104412708712</v>
       </c>
       <c r="H4">
-        <v>0.288931989778149</v>
+        <v>0.02801022457519808</v>
       </c>
       <c r="I4">
-        <v>0.3323118902258599</v>
+        <v>0.03327979811061033</v>
       </c>
       <c r="J4">
-        <v>0.06948980836776286</v>
+        <v>0.6657872354240766</v>
       </c>
       <c r="K4">
-        <v>0.5610593156939814</v>
+        <v>0.7442113842664995</v>
       </c>
       <c r="L4">
-        <v>0.2726309121852921</v>
+        <v>0.07739528655837091</v>
       </c>
       <c r="M4">
-        <v>0.2038437323070745</v>
+        <v>0.6291969613510986</v>
       </c>
       <c r="N4">
-        <v>0.9196764794641972</v>
+        <v>0.1835564118369888</v>
       </c>
       <c r="O4">
-        <v>1.159424197723212</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>0.1823325118627608</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.6705050509424098</v>
+        <v>0.6766792785006999</v>
       </c>
       <c r="C5">
-        <v>0.1170291241255264</v>
+        <v>0.07334478748875028</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.1114237416011115</v>
+        <v>0.04870622958555337</v>
       </c>
       <c r="F5">
-        <v>0.8516555168737838</v>
+        <v>1.297807074227819</v>
       </c>
       <c r="G5">
-        <v>0.2863561958343226</v>
+        <v>0.8761466914249354</v>
       </c>
       <c r="H5">
-        <v>0.2901217251781674</v>
+        <v>0.02930366399105189</v>
       </c>
       <c r="I5">
-        <v>0.3339793844802834</v>
+        <v>0.03479624733572173</v>
       </c>
       <c r="J5">
-        <v>0.06768762996495781</v>
+        <v>0.6627237270128035</v>
       </c>
       <c r="K5">
-        <v>0.5390195048714475</v>
+        <v>0.7397318695259116</v>
       </c>
       <c r="L5">
-        <v>0.2658299520649763</v>
+        <v>0.07637062968656849</v>
       </c>
       <c r="M5">
-        <v>0.1962819143444712</v>
+        <v>0.6035800641124212</v>
       </c>
       <c r="N5">
-        <v>0.9283496417850152</v>
+        <v>0.1775790531164745</v>
       </c>
       <c r="O5">
-        <v>1.161522849193915</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>0.1752596591532303</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.6657489879033562</v>
+        <v>0.6715703468693164</v>
       </c>
       <c r="C6">
-        <v>0.1170665339841719</v>
+        <v>0.07314696531668829</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.1112311184333699</v>
+        <v>0.04851576513180333</v>
       </c>
       <c r="F6">
-        <v>0.8502879055525341</v>
+        <v>1.292953528348789</v>
       </c>
       <c r="G6">
-        <v>0.2863397760855548</v>
+        <v>0.8730355629495676</v>
       </c>
       <c r="H6">
-        <v>0.2903247045414261</v>
+        <v>0.0295329340925643</v>
       </c>
       <c r="I6">
-        <v>0.3342637740825793</v>
+        <v>0.03518570897662698</v>
       </c>
       <c r="J6">
-        <v>0.06738812041780662</v>
+        <v>0.6613855980463512</v>
       </c>
       <c r="K6">
-        <v>0.5353581690128522</v>
+        <v>0.7377916239924218</v>
       </c>
       <c r="L6">
-        <v>0.2647039372028814</v>
+        <v>0.0762649809051652</v>
       </c>
       <c r="M6">
-        <v>0.195027333659894</v>
+        <v>0.5995562479889003</v>
       </c>
       <c r="N6">
-        <v>0.9298028625219228</v>
+        <v>0.1769079031337597</v>
       </c>
       <c r="O6">
-        <v>1.161899923149008</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>0.1741711353972768</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.6987625045906327</v>
+        <v>0.7046274645632593</v>
       </c>
       <c r="C7">
-        <v>0.1168103872319683</v>
+        <v>0.07585218665222726</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.1125779764685362</v>
+        <v>0.04996904992144202</v>
       </c>
       <c r="F7">
-        <v>0.8598871185971433</v>
+        <v>1.313352739486589</v>
       </c>
       <c r="G7">
-        <v>0.2865018215670645</v>
+        <v>0.8806933756414566</v>
       </c>
       <c r="H7">
-        <v>0.2889476699035214</v>
+        <v>0.02805346058247482</v>
       </c>
       <c r="I7">
-        <v>0.3323338734477232</v>
+        <v>0.03364339877961076</v>
       </c>
       <c r="J7">
-        <v>0.0694655207245809</v>
+        <v>0.6634760760787657</v>
       </c>
       <c r="K7">
-        <v>0.5607621867730188</v>
+        <v>0.7408833591451653</v>
       </c>
       <c r="L7">
-        <v>0.2725389703945211</v>
+        <v>0.0775605079780739</v>
       </c>
       <c r="M7">
-        <v>0.2037416791126354</v>
+        <v>0.6294769558471813</v>
       </c>
       <c r="N7">
-        <v>0.9197925714480846</v>
+        <v>0.1843503752538282</v>
       </c>
       <c r="O7">
-        <v>1.159450574087472</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>0.182470824973155</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.8445145170749129</v>
+        <v>0.8510099402357127</v>
       </c>
       <c r="C8">
-        <v>0.1157674774631268</v>
+        <v>0.0875381516212741</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.118770832893496</v>
+        <v>0.05634111243951168</v>
       </c>
       <c r="F8">
-        <v>0.9049624302512882</v>
+        <v>1.408226470939979</v>
       </c>
       <c r="G8">
-        <v>0.2884425906766168</v>
+        <v>0.9192513391423063</v>
       </c>
       <c r="H8">
-        <v>0.2836750450479073</v>
+        <v>0.02216815198638733</v>
       </c>
       <c r="I8">
-        <v>0.3249322052846715</v>
+        <v>0.02724856462392644</v>
       </c>
       <c r="J8">
-        <v>0.0785972970269313</v>
+        <v>0.6753121609530126</v>
       </c>
       <c r="K8">
-        <v>0.6726527559691249</v>
+        <v>0.7578092719910217</v>
       </c>
       <c r="L8">
-        <v>0.3076100618093704</v>
+        <v>0.08302691671511297</v>
       </c>
       <c r="M8">
-        <v>0.2423632106767428</v>
+        <v>0.7611216343471199</v>
       </c>
       <c r="N8">
-        <v>0.8775441252211724</v>
+        <v>0.2165995431492291</v>
       </c>
       <c r="O8">
-        <v>1.15290716759273</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>0.2189445413222764</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.131008805078608</v>
+        <v>1.139064575721818</v>
       </c>
       <c r="C9">
-        <v>0.1140401278639978</v>
+        <v>0.1104393914020605</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.1318718360226008</v>
+        <v>0.06879773836617531</v>
       </c>
       <c r="F9">
-        <v>1.00393723145794</v>
+        <v>1.605310373755984</v>
       </c>
       <c r="G9">
-        <v>0.2970184636731048</v>
+        <v>1.005100517378352</v>
       </c>
       <c r="H9">
-        <v>0.2763809648145994</v>
+        <v>0.01317048594461215</v>
       </c>
       <c r="I9">
-        <v>0.3146645590071522</v>
+        <v>0.01709084827105745</v>
       </c>
       <c r="J9">
-        <v>0.09640217337162937</v>
+        <v>0.7042805004521426</v>
       </c>
       <c r="K9">
-        <v>0.8915972774914565</v>
+        <v>0.7974921202247884</v>
       </c>
       <c r="L9">
-        <v>0.3783779594132</v>
+        <v>0.09315721628721363</v>
       </c>
       <c r="M9">
-        <v>0.3188462239370722</v>
+        <v>1.019459667077371</v>
       </c>
       <c r="N9">
-        <v>0.8018944644919124</v>
+        <v>0.2793020974248037</v>
       </c>
       <c r="O9">
-        <v>1.156505484286697</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>0.2904348893339161</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.342357422253201</v>
+        <v>1.350209789728297</v>
       </c>
       <c r="C10">
-        <v>0.112968568071004</v>
+        <v>0.1291613514942895</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.1421412072289705</v>
+        <v>0.07564235839013378</v>
       </c>
       <c r="F10">
-        <v>1.083925472058027</v>
+        <v>1.723158222803747</v>
       </c>
       <c r="G10">
-        <v>0.3065887032600116</v>
+        <v>1.049388731497189</v>
       </c>
       <c r="H10">
-        <v>0.2730331290343244</v>
+        <v>0.008716424426508773</v>
       </c>
       <c r="I10">
-        <v>0.3099475422883025</v>
+        <v>0.01184645081418356</v>
       </c>
       <c r="J10">
-        <v>0.109446595494191</v>
+        <v>0.7162776525734103</v>
       </c>
       <c r="K10">
-        <v>1.052479412155151</v>
+        <v>0.8126706783182698</v>
       </c>
       <c r="L10">
-        <v>0.4317994146998814</v>
+        <v>0.1021037633550961</v>
       </c>
       <c r="M10">
-        <v>0.3756460151105117</v>
+        <v>1.213641410984934</v>
       </c>
       <c r="N10">
-        <v>0.7509769520646223</v>
+        <v>0.317310544491491</v>
       </c>
       <c r="O10">
-        <v>1.170256161610453</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>0.3396177103580698</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.438799361462657</v>
+        <v>1.442703009775954</v>
       </c>
       <c r="C11">
-        <v>0.1125249120105707</v>
+        <v>0.148236424552735</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.1469669924058969</v>
+        <v>0.06004996943581453</v>
       </c>
       <c r="F11">
-        <v>1.122084091201302</v>
+        <v>1.538831174125463</v>
       </c>
       <c r="G11">
-        <v>0.3117365975797171</v>
+        <v>0.9096348303352215</v>
       </c>
       <c r="H11">
-        <v>0.2719828311745189</v>
+        <v>0.02707405380374439</v>
       </c>
       <c r="I11">
-        <v>0.3084705708402531</v>
+        <v>0.01114257249776607</v>
       </c>
       <c r="J11">
-        <v>0.1153788404607354</v>
+        <v>0.6402913623913093</v>
       </c>
       <c r="K11">
-        <v>1.125748547315538</v>
+        <v>0.7084935020181291</v>
       </c>
       <c r="L11">
-        <v>0.4564622185178706</v>
+        <v>0.1243908979561255</v>
       </c>
       <c r="M11">
-        <v>0.4016537268801272</v>
+        <v>1.32762026609501</v>
       </c>
       <c r="N11">
-        <v>0.7288890983420195</v>
+        <v>0.259520039861286</v>
       </c>
       <c r="O11">
-        <v>1.179177572977366</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>0.3293664431970669</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.475371353990454</v>
+        <v>1.477400304225057</v>
       </c>
       <c r="C12">
-        <v>0.1123632965189536</v>
+        <v>0.1606192154951458</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.1488177798644372</v>
+        <v>0.04803778484734877</v>
       </c>
       <c r="F12">
-        <v>1.13680514107898</v>
+        <v>1.373297845502293</v>
       </c>
       <c r="G12">
-        <v>0.3138075992201905</v>
+        <v>0.7969318555854699</v>
       </c>
       <c r="H12">
-        <v>0.2716562607282995</v>
+        <v>0.06602275759016862</v>
       </c>
       <c r="I12">
-        <v>0.3080123151300889</v>
+        <v>0.01093942879843279</v>
       </c>
       <c r="J12">
-        <v>0.1176254754929857</v>
+        <v>0.5807600101544068</v>
       </c>
       <c r="K12">
-        <v>1.153511898148025</v>
+        <v>0.6292009722691247</v>
       </c>
       <c r="L12">
-        <v>0.4658575823611244</v>
+        <v>0.1468680685145927</v>
       </c>
       <c r="M12">
-        <v>0.4115295648466173</v>
+        <v>1.382808701038357</v>
       </c>
       <c r="N12">
-        <v>0.7206852504450474</v>
+        <v>0.2070437679698074</v>
       </c>
       <c r="O12">
-        <v>1.182961643109635</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>0.3100471408527312</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.467492486316161</v>
+        <v>1.46804149068916</v>
       </c>
       <c r="C13">
-        <v>0.1123978177307592</v>
+        <v>0.1690612789931691</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.148418120710577</v>
+        <v>0.03817352266382734</v>
       </c>
       <c r="F13">
-        <v>1.133622365729721</v>
+        <v>1.206423314009172</v>
       </c>
       <c r="G13">
-        <v>0.3133560416007839</v>
+        <v>0.6915597586049813</v>
       </c>
       <c r="H13">
-        <v>0.271723376209529</v>
+        <v>0.122512586056601</v>
       </c>
       <c r="I13">
-        <v>0.3081064345841114</v>
+        <v>0.01153445246120643</v>
       </c>
       <c r="J13">
-        <v>0.1171416047633898</v>
+        <v>0.5267966939242683</v>
       </c>
       <c r="K13">
-        <v>1.147531667205271</v>
+        <v>0.5592740476318951</v>
       </c>
       <c r="L13">
-        <v>0.4638315588848485</v>
+        <v>0.1707539460869185</v>
       </c>
       <c r="M13">
-        <v>0.4094013641348297</v>
+        <v>1.396331721266591</v>
       </c>
       <c r="N13">
-        <v>0.7224448690894363</v>
+        <v>0.1572995553455669</v>
       </c>
       <c r="O13">
-        <v>1.182128262162493</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>0.2831521624884559</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.441807077342617</v>
+        <v>1.441312501135286</v>
       </c>
       <c r="C14">
-        <v>0.11251148725772</v>
+        <v>0.1734143936785415</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.1471187824225844</v>
+        <v>0.03264993733086285</v>
       </c>
       <c r="F14">
-        <v>1.123289667901489</v>
+        <v>1.090121953813806</v>
       </c>
       <c r="G14">
-        <v>0.3119044992345508</v>
+        <v>0.6216814100343413</v>
       </c>
       <c r="H14">
-        <v>0.2719545190821719</v>
+        <v>0.1725852544560809</v>
       </c>
       <c r="I14">
-        <v>0.3084308160480411</v>
+        <v>0.01243338400335681</v>
       </c>
       <c r="J14">
-        <v>0.1155636652253946</v>
+        <v>0.4917438755844756</v>
       </c>
       <c r="K14">
-        <v>1.128032260050816</v>
+        <v>0.5150610303626735</v>
       </c>
       <c r="L14">
-        <v>0.4572340318017467</v>
+        <v>0.1888062179452277</v>
       </c>
       <c r="M14">
-        <v>0.4024656536931701</v>
+        <v>1.387116168094593</v>
       </c>
       <c r="N14">
-        <v>0.7282109150635954</v>
+        <v>0.124988429917849</v>
       </c>
       <c r="O14">
-        <v>1.179480626989104</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>0.2611783685400972</v>
+      </c>
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.426080997819412</v>
+        <v>1.425084060677989</v>
       </c>
       <c r="C15">
-        <v>0.1125819477185033</v>
+        <v>0.1737326308140723</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.1463259798380179</v>
+        <v>0.03143205681246997</v>
       </c>
       <c r="F15">
-        <v>1.116996415448668</v>
+        <v>1.059453377932329</v>
       </c>
       <c r="G15">
-        <v>0.3110314503113898</v>
+        <v>0.6041689350715131</v>
       </c>
       <c r="H15">
-        <v>0.2721054648727801</v>
+        <v>0.1854432737961815</v>
       </c>
       <c r="I15">
-        <v>0.3086428164792885</v>
+        <v>0.01298772121566216</v>
       </c>
       <c r="J15">
-        <v>0.1145971751064891</v>
+        <v>0.483361638676044</v>
       </c>
       <c r="K15">
-        <v>1.116090828236452</v>
+        <v>0.5046810970751743</v>
       </c>
       <c r="L15">
-        <v>0.4532002889738891</v>
+        <v>0.1929133537919725</v>
       </c>
       <c r="M15">
-        <v>0.398220974369174</v>
+        <v>1.376070871871917</v>
       </c>
       <c r="N15">
-        <v>0.7317638431986602</v>
+        <v>0.1172362732019536</v>
       </c>
       <c r="O15">
-        <v>1.177912395524231</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>0.2543334527349224</v>
+      </c>
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.336061442845249</v>
+        <v>1.335351039677164</v>
       </c>
       <c r="C16">
-        <v>0.1129984508649748</v>
+        <v>0.1638003570619162</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.141829034296066</v>
+        <v>0.0307672136299697</v>
       </c>
       <c r="F16">
-        <v>1.081468751716741</v>
+        <v>1.043054923468233</v>
       </c>
       <c r="G16">
-        <v>0.3062688821365711</v>
+        <v>0.6050186227626426</v>
       </c>
       <c r="H16">
-        <v>0.2731115478776118</v>
+        <v>0.1745761094452263</v>
       </c>
       <c r="I16">
-        <v>0.3100579343036181</v>
+        <v>0.01519200794007425</v>
       </c>
       <c r="J16">
-        <v>0.1090589142530192</v>
+        <v>0.4880841716240099</v>
       </c>
       <c r="K16">
-        <v>1.04769327461662</v>
+        <v>0.5110910652237592</v>
       </c>
       <c r="L16">
-        <v>0.4301952598983831</v>
+        <v>0.1835457746593363</v>
       </c>
       <c r="M16">
-        <v>0.3739500029271099</v>
+        <v>1.288978668674901</v>
       </c>
       <c r="N16">
-        <v>0.7524425606810148</v>
+        <v>0.1128465458170211</v>
       </c>
       <c r="O16">
-        <v>1.169728657548148</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>0.2395202807208818</v>
+      </c>
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.280919741849658</v>
+        <v>1.280871258438395</v>
       </c>
       <c r="C17">
-        <v>0.1132652416303621</v>
+        <v>0.1538968275016686</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.1391106273185727</v>
+        <v>0.03291316081507478</v>
       </c>
       <c r="F17">
-        <v>1.060138853521508</v>
+        <v>1.09091140899362</v>
       </c>
       <c r="G17">
-        <v>0.303555775631537</v>
+        <v>0.6418169728489573</v>
       </c>
       <c r="H17">
-        <v>0.27385201697696</v>
+        <v>0.1378776027786586</v>
       </c>
       <c r="I17">
-        <v>0.3111007458627846</v>
+        <v>0.01646513754056844</v>
       </c>
       <c r="J17">
-        <v>0.1056612552283553</v>
+        <v>0.5099250537686117</v>
       </c>
       <c r="K17">
-        <v>1.005758985800043</v>
+        <v>0.5387108237161051</v>
       </c>
       <c r="L17">
-        <v>0.4161778012828847</v>
+        <v>0.1664318304814003</v>
       </c>
       <c r="M17">
-        <v>0.3591059282053592</v>
+        <v>1.22735125709923</v>
       </c>
       <c r="N17">
-        <v>0.7654075860841196</v>
+        <v>0.1259363647535778</v>
       </c>
       <c r="O17">
-        <v>1.165406572991017</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>0.2397052186916078</v>
+      </c>
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.249231231571883</v>
+        <v>1.251007835987309</v>
       </c>
       <c r="C18">
-        <v>0.1134228097184184</v>
+        <v>0.1427746435464741</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.1375615101207828</v>
+        <v>0.03904360539658924</v>
       </c>
       <c r="F18">
-        <v>1.048036171291557</v>
+        <v>1.207097489912627</v>
       </c>
       <c r="G18">
-        <v>0.3020695706536856</v>
+        <v>0.7206813510414349</v>
       </c>
       <c r="H18">
-        <v>0.2743222020692073</v>
+        <v>0.08528021550311848</v>
       </c>
       <c r="I18">
-        <v>0.3117631900432229</v>
+        <v>0.01659309886821347</v>
       </c>
       <c r="J18">
-        <v>0.1037068192770292</v>
+        <v>0.5523987581132275</v>
       </c>
       <c r="K18">
-        <v>0.9816469267026378</v>
+        <v>0.5932509877147538</v>
       </c>
       <c r="L18">
-        <v>0.4081490565270798</v>
+        <v>0.1429605060494978</v>
       </c>
       <c r="M18">
-        <v>0.3505837479626024</v>
+        <v>1.180221122540928</v>
       </c>
       <c r="N18">
-        <v>0.7729655246240377</v>
+        <v>0.1580863644808943</v>
       </c>
       <c r="O18">
-        <v>1.163170167289337</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>0.252801085819037</v>
+      </c>
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.238506522671941</v>
+        <v>1.241517040855399</v>
       </c>
       <c r="C19">
-        <v>0.1134768640944941</v>
+        <v>0.133102839871853</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.1370394501302883</v>
+        <v>0.05001478917009727</v>
       </c>
       <c r="F19">
-        <v>1.043966385021847</v>
+        <v>1.37178005909422</v>
       </c>
       <c r="G19">
-        <v>0.3015789103462936</v>
+        <v>0.8283786702518086</v>
       </c>
       <c r="H19">
-        <v>0.274488910703667</v>
+        <v>0.03926028310804242</v>
       </c>
       <c r="I19">
-        <v>0.311998097803567</v>
+        <v>0.01635381209143638</v>
       </c>
       <c r="J19">
-        <v>0.1030450338687743</v>
+        <v>0.6084452611949303</v>
       </c>
       <c r="K19">
-        <v>0.9734840992129818</v>
+        <v>0.6668676643588896</v>
       </c>
       <c r="L19">
-        <v>0.4054363309497546</v>
+        <v>0.1208852140319436</v>
       </c>
       <c r="M19">
-        <v>0.3477009003345515</v>
+        <v>1.149821957268557</v>
       </c>
       <c r="N19">
-        <v>0.7755416535037654</v>
+        <v>0.209223759151044</v>
       </c>
       <c r="O19">
-        <v>1.162455157413859</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>0.2761856912551366</v>
+      </c>
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.286786759379765</v>
+        <v>1.29225335315212</v>
       </c>
       <c r="C20">
-        <v>0.1132364145744056</v>
+        <v>0.1256051454451779</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.1393985035920444</v>
+        <v>0.07386776980567689</v>
       </c>
       <c r="F20">
-        <v>1.062392190745555</v>
+        <v>1.677968944601261</v>
       </c>
       <c r="G20">
-        <v>0.3038368482949494</v>
+        <v>1.023441319673609</v>
       </c>
       <c r="H20">
-        <v>0.2737685867276198</v>
+        <v>0.009803038703313671</v>
       </c>
       <c r="I20">
-        <v>0.3109832186912591</v>
+        <v>0.01405057846312552</v>
       </c>
       <c r="J20">
-        <v>0.1060229584070314</v>
+        <v>0.7057874685661005</v>
       </c>
       <c r="K20">
-        <v>1.010222150966655</v>
+        <v>0.7982115382793822</v>
       </c>
       <c r="L20">
-        <v>0.4176664636620586</v>
+        <v>0.1004710975681995</v>
       </c>
       <c r="M20">
-        <v>0.3606844555756652</v>
+        <v>1.164621562673346</v>
       </c>
       <c r="N20">
-        <v>0.7640169637162977</v>
+        <v>0.309654821498853</v>
       </c>
       <c r="O20">
-        <v>1.165840681650565</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>0.3272564783409067</v>
+      </c>
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.449350034797533</v>
+        <v>1.455361834036921</v>
       </c>
       <c r="C21">
-        <v>0.1124779256649582</v>
+        <v>0.1383884282099928</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.1474997855606581</v>
+        <v>0.08282336745271479</v>
       </c>
       <c r="F21">
-        <v>1.126317135520381</v>
+        <v>1.814801648162657</v>
       </c>
       <c r="G21">
-        <v>0.3123274912117751</v>
+        <v>1.08964550796756</v>
       </c>
       <c r="H21">
-        <v>0.2718846694023753</v>
+        <v>0.006356269825754213</v>
       </c>
       <c r="I21">
-        <v>0.3083327550423753</v>
+        <v>0.01031318878968346</v>
       </c>
       <c r="J21">
-        <v>0.1160271343934554</v>
+        <v>0.7314830180327334</v>
       </c>
       <c r="K21">
-        <v>1.133759172579403</v>
+        <v>0.832217565348941</v>
       </c>
       <c r="L21">
-        <v>0.4591703286243103</v>
+        <v>0.1047983689144303</v>
       </c>
       <c r="M21">
-        <v>0.4045020751303383</v>
+        <v>1.30963908802147</v>
       </c>
       <c r="N21">
-        <v>0.7265128882541241</v>
+        <v>0.3529407451068778</v>
       </c>
       <c r="O21">
-        <v>1.180247106156827</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>0.370897403037894</v>
+      </c>
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.55589925746736</v>
+        <v>1.563041703690914</v>
       </c>
       <c r="C22">
-        <v>0.1120194867821951</v>
+        <v>0.1468875898720654</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.1529312445877693</v>
+        <v>0.0874285332885627</v>
       </c>
       <c r="F22">
-        <v>1.169684892898516</v>
+        <v>1.896283756869437</v>
       </c>
       <c r="G22">
-        <v>0.3185891530780367</v>
+        <v>1.129594736420316</v>
       </c>
       <c r="H22">
-        <v>0.2710697743224699</v>
+        <v>0.004663474498482145</v>
       </c>
       <c r="I22">
-        <v>0.3071919185032463</v>
+        <v>0.007974370734425307</v>
       </c>
       <c r="J22">
-        <v>0.1225669766049293</v>
+        <v>0.7466266294257196</v>
       </c>
       <c r="K22">
-        <v>1.214605281079656</v>
+        <v>0.8521538414015524</v>
       </c>
       <c r="L22">
-        <v>0.4866245777006384</v>
+        <v>0.1081393303989522</v>
       </c>
       <c r="M22">
-        <v>0.4332999440788825</v>
+        <v>1.405416375221279</v>
       </c>
       <c r="N22">
-        <v>0.7029393184014445</v>
+        <v>0.3755166356785793</v>
       </c>
       <c r="O22">
-        <v>1.192038689291877</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>0.3972806386180707</v>
+      </c>
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.499001054794093</v>
+        <v>1.506500291401153</v>
       </c>
       <c r="C23">
-        <v>0.112260722052298</v>
+        <v>0.141813130768881</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.1500194440046627</v>
+        <v>0.08491874724794002</v>
       </c>
       <c r="F23">
-        <v>1.14638762400125</v>
+        <v>1.857630543910474</v>
       </c>
       <c r="G23">
-        <v>0.3151794424301997</v>
+        <v>1.113309254132176</v>
       </c>
       <c r="H23">
-        <v>0.2714655019503311</v>
+        <v>0.0055203041962123</v>
       </c>
       <c r="I23">
-        <v>0.3077450152240324</v>
+        <v>0.008827125858021923</v>
       </c>
       <c r="J23">
-        <v>0.1190762368593212</v>
+        <v>0.7411097909296984</v>
       </c>
       <c r="K23">
-        <v>1.171444269001995</v>
+        <v>0.8452482040060048</v>
       </c>
       <c r="L23">
-        <v>0.471940178119354</v>
+        <v>0.1061161072316672</v>
       </c>
       <c r="M23">
-        <v>0.4179142689020097</v>
+        <v>1.353509158317877</v>
       </c>
       <c r="N23">
-        <v>0.7154331997997581</v>
+        <v>0.3623875870529645</v>
       </c>
       <c r="O23">
-        <v>1.185520172635464</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>0.3829100343314309</v>
+      </c>
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.284134240320583</v>
+        <v>1.291243628468493</v>
       </c>
       <c r="C24">
-        <v>0.1132494342527295</v>
+        <v>0.1237912178113234</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.1392683120487774</v>
+        <v>0.07554117084944778</v>
       </c>
       <c r="F24">
-        <v>1.061372959357115</v>
+        <v>1.705036972955455</v>
       </c>
       <c r="G24">
-        <v>0.3037095466618851</v>
+        <v>1.044767014183336</v>
       </c>
       <c r="H24">
-        <v>0.2738061672385328</v>
+        <v>0.009533560412830724</v>
       </c>
       <c r="I24">
-        <v>0.3110361571152218</v>
+        <v>0.01344155335705111</v>
       </c>
       <c r="J24">
-        <v>0.1058594357883891</v>
+        <v>0.7167910540908622</v>
       </c>
       <c r="K24">
-        <v>1.008204365274452</v>
+        <v>0.8136147997846663</v>
       </c>
       <c r="L24">
-        <v>0.416993346023574</v>
+        <v>0.09880272257928979</v>
       </c>
       <c r="M24">
-        <v>0.3599707665812488</v>
+        <v>1.158979963493664</v>
       </c>
       <c r="N24">
-        <v>0.7646453400486202</v>
+        <v>0.3147125284563543</v>
       </c>
       <c r="O24">
-        <v>1.165643649032958</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>0.3291387662519085</v>
+      </c>
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.053387401474993</v>
+        <v>1.059722353716893</v>
       </c>
       <c r="C25">
-        <v>0.114473028996585</v>
+        <v>0.1049221351175191</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.1282191350245689</v>
+        <v>0.06549550863178411</v>
       </c>
       <c r="F25">
-        <v>0.9759468016449944</v>
+        <v>1.544017120709171</v>
       </c>
       <c r="G25">
-        <v>0.2941515746413046</v>
+        <v>0.9737150299920501</v>
       </c>
       <c r="H25">
-        <v>0.2780126985359459</v>
+        <v>0.01534169961896775</v>
       </c>
       <c r="I25">
-        <v>0.3169637439915043</v>
+        <v>0.02006095886630188</v>
       </c>
       <c r="J25">
-        <v>0.0915938779015093</v>
+        <v>0.6922109396334548</v>
       </c>
       <c r="K25">
-        <v>0.8323865610218775</v>
+        <v>0.7808509491650995</v>
       </c>
       <c r="L25">
-        <v>0.3589986154726716</v>
+        <v>0.09079134321126503</v>
       </c>
       <c r="M25">
-        <v>0.2980603805589723</v>
+        <v>0.9505139861216207</v>
       </c>
       <c r="N25">
-        <v>0.8215615968892216</v>
+        <v>0.2638174500999497</v>
       </c>
       <c r="O25">
-        <v>1.153663855452024</v>
+        <v>0.2714659802881982</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_23/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_23/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1276 +421,1426 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.8917187109890392</v>
+        <v>0.8753808771667195</v>
       </c>
       <c r="C2">
-        <v>0.09014971378449843</v>
+        <v>0.09196118240241447</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.05800990311648135</v>
+        <v>0.06148214086619852</v>
       </c>
       <c r="F2">
-        <v>1.44005364668071</v>
+        <v>1.293123249485859</v>
       </c>
       <c r="G2">
-        <v>0.9360171301991613</v>
+        <v>0.7705947743899202</v>
       </c>
       <c r="H2">
-        <v>0.0207122310941289</v>
+        <v>0.01694082403528274</v>
       </c>
       <c r="I2">
-        <v>0.02527745938140491</v>
+        <v>0.01847055515239582</v>
       </c>
       <c r="J2">
-        <v>0.6818035616022229</v>
+        <v>0.59051484933849</v>
       </c>
       <c r="K2">
-        <v>0.767014246484635</v>
+        <v>0.6302148747978826</v>
       </c>
       <c r="L2">
-        <v>0.08422744940166993</v>
+        <v>0.2530110113149711</v>
       </c>
       <c r="M2">
-        <v>0.7959730651531913</v>
+        <v>0.2197588755513529</v>
       </c>
       <c r="N2">
-        <v>0.2241596698784321</v>
+        <v>0.0846418291955402</v>
       </c>
       <c r="O2">
-        <v>0.2285178076676146</v>
+        <v>0.8224323805513052</v>
       </c>
       <c r="P2">
-        <v>0</v>
+        <v>0.2611849584400403</v>
       </c>
       <c r="Q2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>0.2361809703902971</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.7765635016249632</v>
+        <v>0.7633906106480879</v>
       </c>
       <c r="C3">
-        <v>0.08100301634669904</v>
+        <v>0.08060324903048155</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.0530120395393805</v>
+        <v>0.05640790239355553</v>
       </c>
       <c r="F3">
-        <v>1.364069431924051</v>
+        <v>1.234065832476645</v>
       </c>
       <c r="G3">
-        <v>0.9043714379526477</v>
+        <v>0.7578884790360121</v>
       </c>
       <c r="H3">
-        <v>0.02504164146425381</v>
+        <v>0.02056257269014694</v>
       </c>
       <c r="I3">
-        <v>0.0300190762617274</v>
+        <v>0.02199073095079829</v>
       </c>
       <c r="J3">
-        <v>0.6717534993559582</v>
+        <v>0.5829246564147041</v>
       </c>
       <c r="K3">
-        <v>0.7528394906258455</v>
+        <v>0.6267151668774957</v>
       </c>
       <c r="L3">
-        <v>0.08001611535664921</v>
+        <v>0.2559843474155699</v>
       </c>
       <c r="M3">
-        <v>0.6925702891788461</v>
+        <v>0.2159478188708412</v>
       </c>
       <c r="N3">
-        <v>0.1989306917648719</v>
+        <v>0.07892226553763138</v>
       </c>
       <c r="O3">
-        <v>0.1998791300191627</v>
+        <v>0.7154448270944869</v>
       </c>
       <c r="P3">
-        <v>0</v>
+        <v>0.2318052078420152</v>
       </c>
       <c r="Q3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>0.2062353698677732</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.7057763890817341</v>
+        <v>0.6944359028192366</v>
       </c>
       <c r="C4">
-        <v>0.07546233482104725</v>
+        <v>0.07375789559364421</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.04994431428619528</v>
+        <v>0.05329415853354824</v>
       </c>
       <c r="F4">
-        <v>1.317817555520548</v>
+        <v>1.198052184667603</v>
       </c>
       <c r="G4">
-        <v>0.8852104412708712</v>
+        <v>0.7503919350839396</v>
       </c>
       <c r="H4">
-        <v>0.02801022457519808</v>
+        <v>0.02305109714576614</v>
       </c>
       <c r="I4">
-        <v>0.03327979811061033</v>
+        <v>0.02443132611369769</v>
       </c>
       <c r="J4">
-        <v>0.6657872354240766</v>
+        <v>0.5781987749252266</v>
       </c>
       <c r="K4">
-        <v>0.7442113842664995</v>
+        <v>0.6245614446746934</v>
       </c>
       <c r="L4">
-        <v>0.07739528655837091</v>
+        <v>0.2577088848237779</v>
       </c>
       <c r="M4">
-        <v>0.6291969613510986</v>
+        <v>0.214227491447442</v>
       </c>
       <c r="N4">
-        <v>0.1835564118369888</v>
+        <v>0.07541157964490708</v>
       </c>
       <c r="O4">
-        <v>0.1823325118627608</v>
+        <v>0.6498349335774236</v>
       </c>
       <c r="P4">
-        <v>0</v>
+        <v>0.2139380761269507</v>
       </c>
       <c r="Q4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>0.1878866701219195</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.6766792785006999</v>
+        <v>0.6660759476121711</v>
       </c>
       <c r="C5">
-        <v>0.07334478748875028</v>
+        <v>0.07113703966585661</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.04870622958555337</v>
+        <v>0.05203707311401828</v>
       </c>
       <c r="F5">
-        <v>1.297807074227819</v>
+        <v>1.182339140037563</v>
       </c>
       <c r="G5">
-        <v>0.8761466914249354</v>
+        <v>0.7463274803189535</v>
       </c>
       <c r="H5">
-        <v>0.02930366399105189</v>
+        <v>0.02413644423468864</v>
       </c>
       <c r="I5">
-        <v>0.03479624733572173</v>
+        <v>0.025605768976388</v>
       </c>
       <c r="J5">
-        <v>0.6627237270128035</v>
+        <v>0.5756742412434193</v>
       </c>
       <c r="K5">
-        <v>0.7397318695259116</v>
+        <v>0.6228908885612583</v>
       </c>
       <c r="L5">
-        <v>0.07637062968656849</v>
+        <v>0.2580293334906543</v>
       </c>
       <c r="M5">
-        <v>0.6035800641124212</v>
+        <v>0.2134474645295725</v>
       </c>
       <c r="N5">
-        <v>0.1775790531164745</v>
+        <v>0.07405026838473105</v>
       </c>
       <c r="O5">
-        <v>0.1752596591532303</v>
+        <v>0.6232859277886007</v>
       </c>
       <c r="P5">
-        <v>0</v>
+        <v>0.2069519678955771</v>
       </c>
       <c r="Q5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>0.1804827215548528</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.6715703468693164</v>
+        <v>0.6611085451522456</v>
       </c>
       <c r="C6">
-        <v>0.07314696531668829</v>
+        <v>0.07087506550607969</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.04851576513180333</v>
+        <v>0.05184276970211421</v>
       </c>
       <c r="F6">
-        <v>1.292953528348789</v>
+        <v>1.17839642449497</v>
       </c>
       <c r="G6">
-        <v>0.8730355629495676</v>
+        <v>0.7443379581100231</v>
       </c>
       <c r="H6">
-        <v>0.0295329340925643</v>
+        <v>0.02432878664165461</v>
       </c>
       <c r="I6">
-        <v>0.03518570897662698</v>
+        <v>0.02595024541560154</v>
       </c>
       <c r="J6">
-        <v>0.6613855980463512</v>
+        <v>0.5745436735105045</v>
       </c>
       <c r="K6">
-        <v>0.7377916239924218</v>
+        <v>0.6216489372155927</v>
       </c>
       <c r="L6">
-        <v>0.0762649809051652</v>
+        <v>0.2576465171291709</v>
       </c>
       <c r="M6">
-        <v>0.5995562479889003</v>
+        <v>0.2130409530542057</v>
       </c>
       <c r="N6">
-        <v>0.1769079031337597</v>
+        <v>0.07391010107037488</v>
       </c>
       <c r="O6">
-        <v>0.1741711353972768</v>
+        <v>0.6190907999580304</v>
       </c>
       <c r="P6">
-        <v>0</v>
+        <v>0.2061057500996384</v>
       </c>
       <c r="Q6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>0.1793336611375729</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.7046274645632593</v>
+        <v>0.6936227325233233</v>
       </c>
       <c r="C7">
-        <v>0.07585218665222726</v>
+        <v>0.07390385538486299</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.04996904992144202</v>
+        <v>0.05344893401484185</v>
       </c>
       <c r="F7">
-        <v>1.313352739486589</v>
+        <v>1.192319221429628</v>
       </c>
       <c r="G7">
-        <v>0.8806933756414566</v>
+        <v>0.7488428687243669</v>
       </c>
       <c r="H7">
-        <v>0.02805346058247482</v>
+        <v>0.0230982808558875</v>
       </c>
       <c r="I7">
-        <v>0.03364339877961076</v>
+        <v>0.02483932774601794</v>
       </c>
       <c r="J7">
-        <v>0.6634760760787657</v>
+        <v>0.5705175888143401</v>
       </c>
       <c r="K7">
-        <v>0.7408833591451653</v>
+        <v>0.6206474542617713</v>
       </c>
       <c r="L7">
-        <v>0.0775605079780739</v>
+        <v>0.2559944880615639</v>
       </c>
       <c r="M7">
-        <v>0.6294769558471813</v>
+        <v>0.2130261775989801</v>
       </c>
       <c r="N7">
-        <v>0.1843503752538282</v>
+        <v>0.07575535621464624</v>
       </c>
       <c r="O7">
-        <v>0.182470824973155</v>
+        <v>0.649594015012724</v>
       </c>
       <c r="P7">
-        <v>0</v>
+        <v>0.2149631942527463</v>
       </c>
       <c r="Q7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>0.1881565827761484</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.8510099402357127</v>
+        <v>0.8367624639489861</v>
       </c>
       <c r="C8">
-        <v>0.0875381516212741</v>
+        <v>0.08767371391319756</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.05634111243951168</v>
+        <v>0.06022894626359232</v>
       </c>
       <c r="F8">
-        <v>1.408226470939979</v>
+        <v>1.261736646885296</v>
       </c>
       <c r="G8">
-        <v>0.9192513391423063</v>
+        <v>0.7684906461205969</v>
       </c>
       <c r="H8">
-        <v>0.02216815198638733</v>
+        <v>0.01818781407639747</v>
       </c>
       <c r="I8">
-        <v>0.02724856462392644</v>
+        <v>0.02012177489806</v>
       </c>
       <c r="J8">
-        <v>0.6753121609530126</v>
+        <v>0.5668261728798001</v>
       </c>
       <c r="K8">
-        <v>0.7578092719910217</v>
+        <v>0.6214745808365407</v>
       </c>
       <c r="L8">
-        <v>0.08302691671511297</v>
+        <v>0.2509360608158957</v>
       </c>
       <c r="M8">
-        <v>0.7611216343471199</v>
+        <v>0.2158024435999728</v>
       </c>
       <c r="N8">
-        <v>0.2165995431492291</v>
+        <v>0.08343451772347521</v>
       </c>
       <c r="O8">
-        <v>0.2189445413222764</v>
+        <v>0.784733718865823</v>
       </c>
       <c r="P8">
-        <v>0</v>
+        <v>0.2530530748675233</v>
       </c>
       <c r="Q8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>0.2266428200205404</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.139064575721818</v>
+        <v>1.116421406226152</v>
       </c>
       <c r="C9">
-        <v>0.1104393914020605</v>
+        <v>0.1160323288616496</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.06879773836617531</v>
+        <v>0.07300772492648733</v>
       </c>
       <c r="F9">
-        <v>1.605310373755984</v>
+        <v>1.413388471655267</v>
       </c>
       <c r="G9">
-        <v>1.005100517378352</v>
+        <v>0.8084031117502661</v>
       </c>
       <c r="H9">
-        <v>0.01317048594461215</v>
+        <v>0.01068658680171056</v>
       </c>
       <c r="I9">
-        <v>0.01709084827105745</v>
+        <v>0.01255256042108588</v>
       </c>
       <c r="J9">
-        <v>0.7042805004521426</v>
+        <v>0.5827437714303159</v>
       </c>
       <c r="K9">
-        <v>0.7974921202247884</v>
+        <v>0.632301584606374</v>
       </c>
       <c r="L9">
-        <v>0.09315721628721363</v>
+        <v>0.2441281740439507</v>
       </c>
       <c r="M9">
-        <v>1.019459667077371</v>
+        <v>0.2291627545685344</v>
       </c>
       <c r="N9">
-        <v>0.2793020974248037</v>
+        <v>0.09762318971825579</v>
       </c>
       <c r="O9">
-        <v>0.2904348893339161</v>
+        <v>1.051336248023375</v>
       </c>
       <c r="P9">
-        <v>0</v>
+        <v>0.3267134203596527</v>
       </c>
       <c r="Q9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>0.3015482786295891</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.350209789728297</v>
+        <v>1.322864031831301</v>
       </c>
       <c r="C10">
-        <v>0.1291613514942895</v>
+        <v>0.137177579303227</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.07564235839013378</v>
+        <v>0.08076810623994746</v>
       </c>
       <c r="F10">
-        <v>1.723158222803747</v>
+        <v>1.491369582722655</v>
       </c>
       <c r="G10">
-        <v>1.049388731497189</v>
+        <v>0.8372717253474917</v>
       </c>
       <c r="H10">
-        <v>0.008716424426508773</v>
+        <v>0.007065616929062379</v>
       </c>
       <c r="I10">
-        <v>0.01184645081418356</v>
+        <v>0.008839912457026422</v>
       </c>
       <c r="J10">
-        <v>0.7162776525734103</v>
+        <v>0.5562591564962247</v>
       </c>
       <c r="K10">
-        <v>0.8126706783182698</v>
+        <v>0.6234535980044882</v>
       </c>
       <c r="L10">
-        <v>0.1021037633550961</v>
+        <v>0.2327165717916344</v>
       </c>
       <c r="M10">
-        <v>1.213641410984934</v>
+        <v>0.2353338678777988</v>
       </c>
       <c r="N10">
-        <v>0.317310544491491</v>
+        <v>0.1111830594246754</v>
       </c>
       <c r="O10">
-        <v>0.3396177103580698</v>
+        <v>1.248027347443781</v>
       </c>
       <c r="P10">
-        <v>0</v>
+        <v>0.3732707303447143</v>
       </c>
       <c r="Q10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>0.3538708434053817</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.442703009775954</v>
+        <v>1.420657041554222</v>
       </c>
       <c r="C11">
-        <v>0.148236424552735</v>
+        <v>0.1529573996187423</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.06004996943581453</v>
+        <v>0.06561568386054084</v>
       </c>
       <c r="F11">
-        <v>1.538831174125463</v>
+        <v>1.31375977064954</v>
       </c>
       <c r="G11">
-        <v>0.9096348303352215</v>
+        <v>0.7525722881953527</v>
       </c>
       <c r="H11">
-        <v>0.02707405380374439</v>
+        <v>0.02555552626710167</v>
       </c>
       <c r="I11">
-        <v>0.01114257249776607</v>
+        <v>0.008647909971815082</v>
       </c>
       <c r="J11">
-        <v>0.6402913623913093</v>
+        <v>0.4493170580171366</v>
       </c>
       <c r="K11">
-        <v>0.7084935020181291</v>
+        <v>0.5341844645762563</v>
       </c>
       <c r="L11">
-        <v>0.1243908979561255</v>
+        <v>0.1985161341617676</v>
       </c>
       <c r="M11">
-        <v>1.32762026609501</v>
+        <v>0.2038063327038486</v>
       </c>
       <c r="N11">
-        <v>0.259520039861286</v>
+        <v>0.142160333924771</v>
       </c>
       <c r="O11">
-        <v>0.3293664431970669</v>
+        <v>1.354409270010507</v>
       </c>
       <c r="P11">
-        <v>0</v>
+        <v>0.3101255520219581</v>
       </c>
       <c r="Q11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>0.3443974296121795</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.477400304225057</v>
+        <v>1.459986800750841</v>
       </c>
       <c r="C12">
-        <v>0.1606192154951458</v>
+        <v>0.1624569870250667</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.04803778484734877</v>
+        <v>0.05305885316378323</v>
       </c>
       <c r="F12">
-        <v>1.373297845502293</v>
+        <v>1.167667037086289</v>
       </c>
       <c r="G12">
-        <v>0.7969318555854699</v>
+        <v>0.6759907210227709</v>
       </c>
       <c r="H12">
-        <v>0.06602275759016862</v>
+        <v>0.06449466605094045</v>
       </c>
       <c r="I12">
-        <v>0.01093942879843279</v>
+        <v>0.008515430015362924</v>
       </c>
       <c r="J12">
-        <v>0.5807600101544068</v>
+        <v>0.394796547936771</v>
       </c>
       <c r="K12">
-        <v>0.6292009722691247</v>
+        <v>0.4749497868735375</v>
       </c>
       <c r="L12">
-        <v>0.1468680685145927</v>
+        <v>0.1776746248546353</v>
       </c>
       <c r="M12">
-        <v>1.382808701038357</v>
+        <v>0.1807699521069104</v>
       </c>
       <c r="N12">
-        <v>0.2070437679698074</v>
+        <v>0.1700184201901394</v>
       </c>
       <c r="O12">
-        <v>0.3100471408527312</v>
+        <v>1.404197434041635</v>
       </c>
       <c r="P12">
-        <v>0</v>
+        <v>0.250630722531298</v>
       </c>
       <c r="Q12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>0.3245134513597279</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.46804149068916</v>
+        <v>1.454289246437099</v>
       </c>
       <c r="C13">
-        <v>0.1690612789931691</v>
+        <v>0.1693758264220548</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.03817352266382734</v>
+        <v>0.04196774787516944</v>
       </c>
       <c r="F13">
-        <v>1.206423314009172</v>
+        <v>1.033862306965858</v>
       </c>
       <c r="G13">
-        <v>0.6915597586049813</v>
+        <v>0.5923565778737725</v>
       </c>
       <c r="H13">
-        <v>0.122512586056601</v>
+        <v>0.120847286060112</v>
       </c>
       <c r="I13">
-        <v>0.01153445246120643</v>
+        <v>0.008910834580291294</v>
       </c>
       <c r="J13">
-        <v>0.5267966939242683</v>
+        <v>0.3717566532053311</v>
       </c>
       <c r="K13">
-        <v>0.5592740476318951</v>
+        <v>0.4314999577905283</v>
       </c>
       <c r="L13">
-        <v>0.1707539460869185</v>
+        <v>0.1635360568831352</v>
       </c>
       <c r="M13">
-        <v>1.396331721266591</v>
+        <v>0.1622351457932076</v>
       </c>
       <c r="N13">
-        <v>0.1572995553455669</v>
+        <v>0.1955903248886202</v>
       </c>
       <c r="O13">
-        <v>0.2831521624884559</v>
+        <v>1.41513824006654</v>
       </c>
       <c r="P13">
-        <v>0</v>
+        <v>0.1921554499925335</v>
       </c>
       <c r="Q13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>0.2956606900731629</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.441312501135286</v>
+        <v>1.429700571256006</v>
       </c>
       <c r="C14">
-        <v>0.1734143936785415</v>
+        <v>0.1733241688200309</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.03264993733086285</v>
+        <v>0.03550505869057652</v>
       </c>
       <c r="F14">
-        <v>1.090121953813806</v>
+        <v>0.945229761413529</v>
       </c>
       <c r="G14">
-        <v>0.6216814100343413</v>
+        <v>0.5325531997399224</v>
       </c>
       <c r="H14">
-        <v>0.1725852544560809</v>
+        <v>0.1707629501211585</v>
       </c>
       <c r="I14">
-        <v>0.01243338400335681</v>
+        <v>0.009554263781296868</v>
       </c>
       <c r="J14">
-        <v>0.4917438755844756</v>
+        <v>0.3658611884111593</v>
       </c>
       <c r="K14">
-        <v>0.5150610303626735</v>
+        <v>0.4073287912145034</v>
       </c>
       <c r="L14">
-        <v>0.1888062179452277</v>
+        <v>0.1560626548559938</v>
       </c>
       <c r="M14">
-        <v>1.387116168094593</v>
+        <v>0.1512457334167614</v>
       </c>
       <c r="N14">
-        <v>0.124988429917849</v>
+        <v>0.2126674736701872</v>
       </c>
       <c r="O14">
-        <v>0.2611783685400972</v>
+        <v>1.405341746439319</v>
       </c>
       <c r="P14">
-        <v>0</v>
+        <v>0.153435454522139</v>
       </c>
       <c r="Q14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>0.2717678879304302</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.425084060677989</v>
+        <v>1.41383107864155</v>
       </c>
       <c r="C15">
-        <v>0.1737326308140723</v>
+        <v>0.1738813833746349</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.03143205681246997</v>
+        <v>0.03403014109424252</v>
       </c>
       <c r="F15">
-        <v>1.059453377932329</v>
+        <v>0.9236715905214083</v>
       </c>
       <c r="G15">
-        <v>0.6041689350715131</v>
+        <v>0.5160698556917112</v>
       </c>
       <c r="H15">
-        <v>0.1854432737961815</v>
+        <v>0.1835453118896737</v>
       </c>
       <c r="I15">
-        <v>0.01298772121566216</v>
+        <v>0.0100011796761752</v>
       </c>
       <c r="J15">
-        <v>0.483361638676044</v>
+        <v>0.3681457028541644</v>
       </c>
       <c r="K15">
-        <v>0.5046810970751743</v>
+        <v>0.4029459080630353</v>
       </c>
       <c r="L15">
-        <v>0.1929133537919725</v>
+        <v>0.1548500091160587</v>
       </c>
       <c r="M15">
-        <v>1.376070871871917</v>
+        <v>0.1489693286884801</v>
       </c>
       <c r="N15">
-        <v>0.1172362732019536</v>
+        <v>0.2157345656741683</v>
       </c>
       <c r="O15">
-        <v>0.2543334527349224</v>
+        <v>1.394677200582862</v>
       </c>
       <c r="P15">
-        <v>0</v>
+        <v>0.1438774832140197</v>
       </c>
       <c r="Q15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>0.2642089559897336</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.335351039677164</v>
+        <v>1.322735699128515</v>
       </c>
       <c r="C16">
-        <v>0.1638003570619162</v>
+        <v>0.1666844130031677</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.0307672136299697</v>
+        <v>0.03296308410370852</v>
       </c>
       <c r="F16">
-        <v>1.043054923468233</v>
+        <v>0.9279760314921504</v>
       </c>
       <c r="G16">
-        <v>0.6050186227626426</v>
+        <v>0.5052720147721601</v>
       </c>
       <c r="H16">
-        <v>0.1745761094452263</v>
+        <v>0.172296010615085</v>
       </c>
       <c r="I16">
-        <v>0.01519200794007425</v>
+        <v>0.01158479863365525</v>
       </c>
       <c r="J16">
-        <v>0.4880841716240099</v>
+        <v>0.40613147559894</v>
       </c>
       <c r="K16">
-        <v>0.5110910652237592</v>
+        <v>0.4191563279934591</v>
       </c>
       <c r="L16">
-        <v>0.1835457746593363</v>
+        <v>0.1615079543383846</v>
       </c>
       <c r="M16">
-        <v>1.288978668674901</v>
+        <v>0.1534301111534084</v>
       </c>
       <c r="N16">
-        <v>0.1128465458170211</v>
+        <v>0.2003505720515761</v>
       </c>
       <c r="O16">
-        <v>0.2395202807208818</v>
+        <v>1.311871014663041</v>
       </c>
       <c r="P16">
-        <v>0</v>
+        <v>0.1367217581964937</v>
       </c>
       <c r="Q16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>0.2472876540700888</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.280871258438395</v>
+        <v>1.266557989970437</v>
       </c>
       <c r="C17">
-        <v>0.1538968275016686</v>
+        <v>0.158390045415274</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.03291316081507478</v>
+        <v>0.03514682885166565</v>
       </c>
       <c r="F17">
-        <v>1.09091140899362</v>
+        <v>0.9764964494738777</v>
       </c>
       <c r="G17">
-        <v>0.6418169728489573</v>
+        <v>0.5292313974715555</v>
       </c>
       <c r="H17">
-        <v>0.1378776027786586</v>
+        <v>0.1353866516794398</v>
       </c>
       <c r="I17">
-        <v>0.01646513754056844</v>
+        <v>0.0125198368494619</v>
       </c>
       <c r="J17">
-        <v>0.5099250537686117</v>
+        <v>0.4385159945897215</v>
       </c>
       <c r="K17">
-        <v>0.5387108237161051</v>
+        <v>0.4440729460513246</v>
       </c>
       <c r="L17">
-        <v>0.1664318304814003</v>
+        <v>0.1709978221062247</v>
       </c>
       <c r="M17">
-        <v>1.22735125709923</v>
+        <v>0.1621084276122637</v>
       </c>
       <c r="N17">
-        <v>0.1259363647535778</v>
+        <v>0.1802835848466842</v>
       </c>
       <c r="O17">
-        <v>0.2397052186916078</v>
+        <v>1.252926415528862</v>
       </c>
       <c r="P17">
-        <v>0</v>
+        <v>0.1509272141115119</v>
       </c>
       <c r="Q17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>0.247030470436453</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.251007835987309</v>
+        <v>1.233889552486062</v>
       </c>
       <c r="C18">
-        <v>0.1427746435464741</v>
+        <v>0.1487040162782591</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.03904360539658924</v>
+        <v>0.04156145442603787</v>
       </c>
       <c r="F18">
-        <v>1.207097489912627</v>
+        <v>1.078171154666919</v>
       </c>
       <c r="G18">
-        <v>0.7206813510414349</v>
+        <v>0.5867320396915261</v>
       </c>
       <c r="H18">
-        <v>0.08528021550311848</v>
+        <v>0.08274341699980425</v>
       </c>
       <c r="I18">
-        <v>0.01659309886821347</v>
+        <v>0.01249979399075407</v>
       </c>
       <c r="J18">
-        <v>0.5523987581132275</v>
+        <v>0.4777213330117789</v>
       </c>
       <c r="K18">
-        <v>0.5932509877147538</v>
+        <v>0.4851139777136027</v>
       </c>
       <c r="L18">
-        <v>0.1429605060494978</v>
+        <v>0.186224543815193</v>
       </c>
       <c r="M18">
-        <v>1.180221122540928</v>
+        <v>0.1773799745508455</v>
       </c>
       <c r="N18">
-        <v>0.1580863644808943</v>
+        <v>0.1549686317592815</v>
       </c>
       <c r="O18">
-        <v>0.252801085819037</v>
+        <v>1.208597373053522</v>
       </c>
       <c r="P18">
-        <v>0</v>
+        <v>0.1875650567195208</v>
       </c>
       <c r="Q18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>0.2607745187612345</v>
+      </c>
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.241517040855399</v>
+        <v>1.220824153073693</v>
       </c>
       <c r="C19">
-        <v>0.133102839871853</v>
+        <v>0.1403800790341165</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.05001478917009727</v>
+        <v>0.0530269996979289</v>
       </c>
       <c r="F19">
-        <v>1.37178005909422</v>
+        <v>1.217481603754422</v>
       </c>
       <c r="G19">
-        <v>0.8283786702518086</v>
+        <v>0.665492775915169</v>
       </c>
       <c r="H19">
-        <v>0.03926028310804242</v>
+        <v>0.03684537576834401</v>
       </c>
       <c r="I19">
-        <v>0.01635381209143638</v>
+        <v>0.0123945423740901</v>
       </c>
       <c r="J19">
-        <v>0.6084452611949303</v>
+        <v>0.5216492991853983</v>
       </c>
       <c r="K19">
-        <v>0.6668676643588896</v>
+        <v>0.5372746495157941</v>
       </c>
       <c r="L19">
-        <v>0.1208852140319436</v>
+        <v>0.205336354715751</v>
       </c>
       <c r="M19">
-        <v>1.149821957268557</v>
+        <v>0.1972579412820821</v>
       </c>
       <c r="N19">
-        <v>0.209223759151044</v>
+        <v>0.131076635269487</v>
       </c>
       <c r="O19">
-        <v>0.2761856912551366</v>
+        <v>1.181202552025809</v>
       </c>
       <c r="P19">
-        <v>0</v>
+        <v>0.2460795715475541</v>
       </c>
       <c r="Q19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>0.2855400917414812</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.29225335315212</v>
+        <v>1.265439484308729</v>
       </c>
       <c r="C20">
-        <v>0.1256051454451779</v>
+        <v>0.1342714264210656</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.07386776980567689</v>
+        <v>0.07825838539529784</v>
       </c>
       <c r="F20">
-        <v>1.677968944601261</v>
+        <v>1.46537603167647</v>
       </c>
       <c r="G20">
-        <v>1.023441319673609</v>
+        <v>0.8104698766283036</v>
       </c>
       <c r="H20">
-        <v>0.009803038703313671</v>
+        <v>0.007924668893157349</v>
       </c>
       <c r="I20">
-        <v>0.01405057846312552</v>
+        <v>0.01078383984042119</v>
       </c>
       <c r="J20">
-        <v>0.7057874685661005</v>
+        <v>0.576188519468289</v>
       </c>
       <c r="K20">
-        <v>0.7982115382793822</v>
+        <v>0.6220637705780518</v>
       </c>
       <c r="L20">
-        <v>0.1004710975681995</v>
+        <v>0.2343414507689339</v>
       </c>
       <c r="M20">
-        <v>1.164621562673346</v>
+        <v>0.2321343828239861</v>
       </c>
       <c r="N20">
-        <v>0.309654821498853</v>
+        <v>0.1080346188944645</v>
       </c>
       <c r="O20">
-        <v>0.3272564783409067</v>
+        <v>1.199989365530683</v>
       </c>
       <c r="P20">
-        <v>0</v>
+        <v>0.3622810719836167</v>
       </c>
       <c r="Q20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>0.3400764288099154</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.455361834036921</v>
+        <v>1.429104252422718</v>
       </c>
       <c r="C21">
-        <v>0.1383884282099928</v>
+        <v>0.1432929827040539</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.08282336745271479</v>
+        <v>0.09080785988047779</v>
       </c>
       <c r="F21">
-        <v>1.814801648162657</v>
+        <v>1.528993251115395</v>
       </c>
       <c r="G21">
-        <v>1.08964550796756</v>
+        <v>0.8995126785956415</v>
       </c>
       <c r="H21">
-        <v>0.006356269825754213</v>
+        <v>0.00514667987227535</v>
       </c>
       <c r="I21">
-        <v>0.01031318878968346</v>
+        <v>0.008206491661677084</v>
       </c>
       <c r="J21">
-        <v>0.7314830180327334</v>
+        <v>0.4785819597661174</v>
       </c>
       <c r="K21">
-        <v>0.832217565348941</v>
+        <v>0.6088616178359061</v>
       </c>
       <c r="L21">
-        <v>0.1047983689144303</v>
+        <v>0.2237002857347719</v>
       </c>
       <c r="M21">
-        <v>1.30963908802147</v>
+        <v>0.2347551483369443</v>
       </c>
       <c r="N21">
-        <v>0.3529407451068778</v>
+        <v>0.1181234854256772</v>
       </c>
       <c r="O21">
-        <v>0.370897403037894</v>
+        <v>1.338097792254842</v>
       </c>
       <c r="P21">
-        <v>0</v>
+        <v>0.4197546852389564</v>
       </c>
       <c r="Q21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>0.3894917199375953</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.563041703690914</v>
+        <v>1.537723462639093</v>
       </c>
       <c r="C22">
-        <v>0.1468875898720654</v>
+        <v>0.1488668711813688</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.0874285332885627</v>
+        <v>0.09805891617454421</v>
       </c>
       <c r="F22">
-        <v>1.896283756869437</v>
+        <v>1.560896986825412</v>
       </c>
       <c r="G22">
-        <v>1.129594736420316</v>
+        <v>0.9622046953684702</v>
       </c>
       <c r="H22">
-        <v>0.004663474498482145</v>
+        <v>0.003796071568126669</v>
       </c>
       <c r="I22">
-        <v>0.007974370734425307</v>
+        <v>0.006428507292675079</v>
       </c>
       <c r="J22">
-        <v>0.7466266294257196</v>
+        <v>0.4187954184201246</v>
       </c>
       <c r="K22">
-        <v>0.8521538414015524</v>
+        <v>0.5972910543046197</v>
       </c>
       <c r="L22">
-        <v>0.1081393303989522</v>
+        <v>0.2159820783993389</v>
       </c>
       <c r="M22">
-        <v>1.405416375221279</v>
+        <v>0.2354866342701456</v>
       </c>
       <c r="N22">
-        <v>0.3755166356785793</v>
+        <v>0.1258446827222031</v>
       </c>
       <c r="O22">
-        <v>0.3972806386180707</v>
+        <v>1.428199833952647</v>
       </c>
       <c r="P22">
-        <v>0</v>
+        <v>0.4515672429299542</v>
       </c>
       <c r="Q22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>0.4198521301181799</v>
+      </c>
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.506500291401153</v>
+        <v>1.479855646352718</v>
       </c>
       <c r="C23">
-        <v>0.141813130768881</v>
+        <v>0.1460802949853814</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.08491874724794002</v>
+        <v>0.09373162939460755</v>
       </c>
       <c r="F23">
-        <v>1.857630543910474</v>
+        <v>1.552744794314762</v>
       </c>
       <c r="G23">
-        <v>1.113309254132176</v>
+        <v>0.9263594922956031</v>
       </c>
       <c r="H23">
-        <v>0.0055203041962123</v>
+        <v>0.004472352304291216</v>
       </c>
       <c r="I23">
-        <v>0.008827125858021923</v>
+        <v>0.006924233827049875</v>
       </c>
       <c r="J23">
-        <v>0.7411097909296984</v>
+        <v>0.4615101969744728</v>
       </c>
       <c r="K23">
-        <v>0.8452482040060048</v>
+        <v>0.6091509956921115</v>
       </c>
       <c r="L23">
-        <v>0.1061161072316672</v>
+        <v>0.2219820024378478</v>
       </c>
       <c r="M23">
-        <v>1.353509158317877</v>
+        <v>0.2374319396044768</v>
       </c>
       <c r="N23">
-        <v>0.3623875870529645</v>
+        <v>0.1208991239542669</v>
       </c>
       <c r="O23">
-        <v>0.3829100343314309</v>
+        <v>1.380699739158729</v>
       </c>
       <c r="P23">
-        <v>0</v>
+        <v>0.432723539941648</v>
       </c>
       <c r="Q23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>0.4029453836611907</v>
+      </c>
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.291243628468493</v>
+        <v>1.26394053344049</v>
       </c>
       <c r="C24">
-        <v>0.1237912178113234</v>
+        <v>0.1324207910418664</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.07554117084944778</v>
+        <v>0.07998729273743521</v>
       </c>
       <c r="F24">
-        <v>1.705036972955455</v>
+        <v>1.488462717054347</v>
       </c>
       <c r="G24">
-        <v>1.044767014183336</v>
+        <v>0.8263286406626946</v>
       </c>
       <c r="H24">
-        <v>0.009533560412830724</v>
+        <v>0.007675485398007137</v>
       </c>
       <c r="I24">
-        <v>0.01344155335705111</v>
+        <v>0.01009163737033703</v>
       </c>
       <c r="J24">
-        <v>0.7167910540908622</v>
+        <v>0.5854251566724287</v>
       </c>
       <c r="K24">
-        <v>0.8136147997846663</v>
+        <v>0.6334629835510199</v>
       </c>
       <c r="L24">
-        <v>0.09880272257928979</v>
+        <v>0.2385329518635544</v>
       </c>
       <c r="M24">
-        <v>1.158979963493664</v>
+        <v>0.2364598180653346</v>
       </c>
       <c r="N24">
-        <v>0.3147125284563543</v>
+        <v>0.1057675728726046</v>
       </c>
       <c r="O24">
-        <v>0.3291387662519085</v>
+        <v>1.19474299757016</v>
       </c>
       <c r="P24">
-        <v>0</v>
+        <v>0.3682643698336818</v>
       </c>
       <c r="Q24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>0.3421136762280028</v>
+      </c>
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.059722353716893</v>
+        <v>1.0391929731353</v>
       </c>
       <c r="C25">
-        <v>0.1049221351175191</v>
+        <v>0.1095332929688055</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.06549550863178411</v>
+        <v>0.06942260641379505</v>
       </c>
       <c r="F25">
-        <v>1.544017120709171</v>
+        <v>1.36826173676711</v>
       </c>
       <c r="G25">
-        <v>0.9737150299920501</v>
+        <v>0.7879109521440313</v>
       </c>
       <c r="H25">
-        <v>0.01534169961896775</v>
+        <v>0.01248064242582711</v>
       </c>
       <c r="I25">
-        <v>0.02006095886630188</v>
+        <v>0.01494511576185964</v>
       </c>
       <c r="J25">
-        <v>0.6922109396334548</v>
+        <v>0.5830498731576341</v>
       </c>
       <c r="K25">
-        <v>0.7808509491650995</v>
+        <v>0.6265926767019039</v>
       </c>
       <c r="L25">
-        <v>0.09079134321126503</v>
+        <v>0.2449918673304907</v>
       </c>
       <c r="M25">
-        <v>0.9505139861216207</v>
+        <v>0.2240014242601269</v>
       </c>
       <c r="N25">
-        <v>0.2638174500999497</v>
+        <v>0.09406279187487598</v>
       </c>
       <c r="O25">
-        <v>0.2714659802881982</v>
+        <v>0.9808097520855767</v>
       </c>
       <c r="P25">
-        <v>0</v>
+        <v>0.3078011234829887</v>
       </c>
       <c r="Q25">
+        <v>0.2814122807517379</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
         <v>0</v>
       </c>
     </row>
